--- a/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
+++ b/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\it-fse-accreditamento-main\Test Case\ValidazioneRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\it-fse-accreditamento-main\Test Case\ValidazioneRB\S1#111#RBSOFTWARECENTERSRLXX\RBSoftware\WGesLaAn\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9538294F-625A-4FC7-8239-FA27B3198BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EA8532-D826-4C37-B942-7CB7F118EDEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="27720" windowHeight="10335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="931">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4816,6 +4816,9 @@
   </si>
   <si>
     <t>Come provider non gestiamo le trasfusioni come tipologia di esame.</t>
+  </si>
+  <si>
+    <t>Tecnicamente non sarebbe possibile in quanto la generazione del token prevede la valorizzazione del campo, scongiurando l'errore</t>
   </si>
 </sst>
 </file>
@@ -7731,10 +7734,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G383" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8942,7 +8945,9 @@
       <c r="O35" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P35" s="20"/>
+      <c r="P35" s="20" t="s">
+        <v>930</v>
+      </c>
       <c r="Q35" s="20" t="s">
         <v>846</v>
       </c>
@@ -9190,7 +9195,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="135">
+    <row r="43" spans="1:20" ht="120">
       <c r="A43" s="15">
         <v>36</v>
       </c>
@@ -9234,7 +9239,9 @@
       <c r="O43" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P43" s="20"/>
+      <c r="P43" s="20" t="s">
+        <v>930</v>
+      </c>
       <c r="Q43" s="20" t="s">
         <v>846</v>
       </c>
@@ -9244,7 +9251,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="135" hidden="1">
+    <row r="44" spans="1:20" ht="120" hidden="1">
       <c r="A44" s="15">
         <v>37</v>
       </c>
@@ -9278,7 +9285,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="135" hidden="1">
+    <row r="45" spans="1:20" ht="120" hidden="1">
       <c r="A45" s="15">
         <v>38</v>
       </c>
@@ -9312,7 +9319,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="135" hidden="1">
+    <row r="46" spans="1:20" ht="120" hidden="1">
       <c r="A46" s="15">
         <v>39</v>
       </c>
@@ -9346,7 +9353,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="135" hidden="1">
+    <row r="47" spans="1:20" ht="120" hidden="1">
       <c r="A47" s="15">
         <v>40</v>
       </c>
@@ -9380,7 +9387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="135" hidden="1">
+    <row r="48" spans="1:20" ht="120" hidden="1">
       <c r="A48" s="15">
         <v>41</v>
       </c>
@@ -9414,7 +9421,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="135" hidden="1">
+    <row r="49" spans="1:20" ht="120" hidden="1">
       <c r="A49" s="15">
         <v>42</v>
       </c>
@@ -9448,7 +9455,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="135" hidden="1">
+    <row r="50" spans="1:20" ht="120" hidden="1">
       <c r="A50" s="15">
         <v>43</v>
       </c>

--- a/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
+++ b/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\it-fse-accreditamento-main\Test Case\ValidazioneRB\S1#111#RBSOFTWARECENTERSRLXX\RBSoftware\WGesLaAn\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EA8532-D826-4C37-B942-7CB7F118EDEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0821B26-7763-4D22-A4BA-D76C9BBE717D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="0" windowWidth="43170" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4602,27 +4602,6 @@
     <t>subject_application_id: WGesLaAn</t>
   </si>
   <si>
-    <t>16:30:52 GMT</t>
-  </si>
-  <si>
-    <t>ae75fbf06f335e58</t>
-  </si>
-  <si>
-    <t>16:44:19 GMT</t>
-  </si>
-  <si>
-    <t>dd81645cd4ff76fb</t>
-  </si>
-  <si>
-    <t>16:47:00 GMT</t>
-  </si>
-  <si>
-    <t>8afc67058293ad95</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.32d6a25430b56e86d4cad9693242a7152e954b3b4307a92dc30067ccf71b2b93.410321d303^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>16:50:48 GMT</t>
   </si>
   <si>
@@ -4668,147 +4647,48 @@
     <t>2.16.840.1.113883.2.9.2.180.4.4.2dcfc64b9909653d2ff086019afd243cda77b9bc0bb9b6464269633016e2074b.ede6423b3c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>15:29:21 GMT</t>
-  </si>
-  <si>
-    <t>0fd02e2d36a6aa58</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.882b9d3273dbe3a7ce0c9623392bd79d25a42426be062d70132b6ec4d34ca457.7d03c4f9bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'</t>
   </si>
   <si>
     <t>Viene segnato l'errore all'utente e viene richiesto l'eventuale correzione sulla pratica del Paziente</t>
   </si>
   <si>
-    <t>15:36:57 GMT</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.9e619a6f79954a901d12270c7f350118a8db0883891df9b94fe361cf13cfcab4.909f599995^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>66e34a0f45f292b8</t>
-  </si>
-  <si>
     <t>codice fiscale 'pncpll85m19c710g' cittadino ed operatore: 16 cifre [A-Z0-9]{16}]</t>
   </si>
   <si>
     <t>Tecnicamente non sarebbe possibile in quanto la generazione del CDA converte il Codice Fiscale in maiuscolo, scongiurando l'errore</t>
   </si>
   <si>
-    <t>15:41:40 GMT</t>
-  </si>
-  <si>
-    <t>26b8b20bef38d1c5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.09457c0cfd3942a8754c906c706ea63082fb15a61e8f9379a316b52310c6ac81.e95b186faa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25</t>
   </si>
   <si>
-    <t>bb0cfdc713c8a6c9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.697c1a4ba0ff34f8bff44f63bcfb7d305e772f73924d7105fb55a869019bd973.24c6029b2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>15:47:54 GMT</t>
-  </si>
-  <si>
     <t xml:space="preserve">L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' </t>
   </si>
   <si>
     <t>Tecnicamente non sarebbe possibile in quanto la generazione del CDA prevede l'inserimento dei campi richiesti, scongiurando l'errore</t>
   </si>
   <si>
-    <t>15:51:32 GMT</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.2187fa03465f1a6a85f5d71db96434670ed4a8bbb1df8255a0de07e1beeb64c8.c683b44426^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7af51fc82f18709c</t>
-  </si>
-  <si>
     <t>L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'</t>
   </si>
   <si>
-    <t>15:58:20 GMT</t>
-  </si>
-  <si>
-    <t>202a7bd8b6db35d0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.b69e9dd59bd28b1ed9697c9671ce99b0f28e0dcbcbc62e0ab9bc3e014f16f883.6a48247bb5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: D]</t>
   </si>
   <si>
     <t>Tecnicamente non sarebbe possibile in quanto la generazione del CDA prevede l'inserimento dei campi richiesti con i valori consenti, scongiurando l'errore</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.92db884ac799baf15c92f01b6256a3c07b2ca3f8752bffa9ba7a759c07a6a07a.9956af4662^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>889d1c9cc960ae88</t>
-  </si>
-  <si>
-    <t>16:02:28 GMT</t>
-  </si>
-  <si>
     <t xml:space="preserve">inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' </t>
   </si>
   <si>
-    <t>16:09:45 GMT</t>
-  </si>
-  <si>
-    <t>3254cce354205088</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.203dc6d44adc27997b5ec04ea7a1d4667a4774e7dd7bc9f0636534091231b0d1.ab3efda72c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>-1,-1 cvc-complex-type.2.4.b: The content of element 'order' is not complete. One of '{\""urn:hl7-org:v3\"":realmCode, \""urn:hl7-org:v3\"":typeId, \""urn:hl7-org:v3\"":templateId, \""urn:hl7-org:v3\"":id}' is expected.</t>
   </si>
   <si>
-    <t>f23a8d885b11eefb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.e349c583b986739e50d654f220412f052493f2a6da4fe51e3151924cb58f0b51.961a09a364^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>16:14:13 GMT</t>
-  </si>
-  <si>
     <t>L'elemento code della section DEVE essere valorizzato con uno dei seguenti codici LOINC individuati:\n\t\t\t\t\t\t18717-9 BANCA DEL SANGUE\n\t\t\t\t\t\t18718-7 MARCATORI CELLULARI \n\t\t\t\t\t\t18719-5 CHIMICA\n\t\t\t\t\t\t18720-3\tCOAGULAZIONE\n\t\t\t\t\t\t18721-1 MONITORAGGIO TERAPEUTICO DEI FARMACI\n\t\t\t\t\t\t18722-9 FERTILITÀ\n\t\t\t\t\t\t18723-7 EMATOLOGIA\n\t\t\t\t\t\t18724-5 HLA\n\t\t\t\t\t\t18725-2 MICROBIOLOGIA\n\t\t\t\t\t\t18727-8 SEROLOGIA\n\t\t\t\t\t\t18728-6 TOSSICOLOGIA\n\t\t\t\t\t\t18729-4 ESAMI DELLE URINE\n\t\t\t\t\t\t18767-4 EMOGASANALISI\n\t\t\t\t\t\t18768-2 CONTE CELLULARE+DIFFERENZIALE\n\t\t\t\t\t\t18769-0 SUSCETTIBILITÀ ANTIMICROBICA\n\t\t\t\t\t\t26435-8 PATOLOGIA MOLECOLARE\n\t\t\t\t\t\t26436-6 ESAMI DI LABORATORIO\n\t\t\t\t\t\t26437-4 TEST DI SENSIBILITÀ A SOSTANZE CHIMICHE\n\t\t\t\t\t\t26438-2 CITOLOGIA\n\t\t\t\t\t\t18716-1 ALLERGOLOGIA\n\t\t\t\t\t\t26439-0 PATOLOGIA CHIRURGICA]</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.ee02e0f23e6d5b5849c4208c6f0b24e383cab085851b0896bee324d9310418b1.013f1c63d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>414e73042ab6429b</t>
-  </si>
-  <si>
-    <t>16:17:57 GMT</t>
-  </si>
-  <si>
     <t>L'elemento specimen deve contenere l'elemento specimenRole/specimenPlayingEntity ],[ERRORE-b11| L'elemento specimen/specimenRole/specimenPlayingEntity deve contenere l'elemento 'code'],[ERRORE-b10| L'elemento specimen deve contenere l'elemento specimenRole/specimenPlayingEntity ],[ERRORE-b11| L'elemento specimen/specimenRole/specimenPlayingEntity deve contenere l'elemento 'code']</t>
   </si>
   <si>
-    <t>16:29:31 GMT</t>
-  </si>
-  <si>
-    <t>09a95b310ee446a3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.4.904ab24eba8606b2452a10a18b689b81ce29e0744f195111fe7f5657a1a4f534.88ea7d3e69^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>-1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'translation' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'translation' is not valid with respect to its type, 'cs'.</t>
   </si>
   <si>
@@ -4819,6 +4699,126 @@
   </si>
   <si>
     <t>Tecnicamente non sarebbe possibile in quanto la generazione del token prevede la valorizzazione del campo, scongiurando l'errore</t>
+  </si>
+  <si>
+    <t>d37b4860f8602509</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.882b9d3273dbe3a7ce0c9623392bd79d25a42426be062d70132b6ec4d34ca457.f89bdfe42e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>09:22:00 GMT</t>
+  </si>
+  <si>
+    <t>c5331897533afceb</t>
+  </si>
+  <si>
+    <t>09:26:43 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.9e619a6f79954a901d12270c7f350118a8db0883891df9b94fe361cf13cfcab4.5b31183b1f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0b67ccce2986b7a8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.09457c0cfd3942a8754c906c706ea63082fb15a61e8f9379a316b52310c6ac81.f692774626^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>09:28:24 GMT</t>
+  </si>
+  <si>
+    <t>e70392c986bf6251</t>
+  </si>
+  <si>
+    <t>09:29:21 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.697c1a4ba0ff34f8bff44f63bcfb7d305e772f73924d7105fb55a869019bd973.1ab7ac5e33^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>09:30:01 GMT</t>
+  </si>
+  <si>
+    <t>9f33c02df8397906</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.2187fa03465f1a6a85f5d71db96434670ed4a8bbb1df8255a0de07e1beeb64c8.76cf2bd1f6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4cecf06ecc0efd5a</t>
+  </si>
+  <si>
+    <t>09:30:56 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.b69e9dd59bd28b1ed9697c9671ce99b0f28e0dcbcbc62e0ab9bc3e014f16f883.5c53c08f64^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5c3260050b91216d</t>
+  </si>
+  <si>
+    <t>09:31:37 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.92db884ac799baf15c92f01b6256a3c07b2ca3f8752bffa9ba7a759c07a6a07a.c3b05b32f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4c9c4cbd3fa04fa1</t>
+  </si>
+  <si>
+    <t>09:32:16 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.203dc6d44adc27997b5ec04ea7a1d4667a4774e7dd7bc9f0636534091231b0d1.96f7fe603c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>09:33:33 GMT</t>
+  </si>
+  <si>
+    <t>6fef3af0fba57b25</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.e349c583b986739e50d654f220412f052493f2a6da4fe51e3151924cb58f0b51.f0d9e5bf89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4d0ff154c39116b4</t>
+  </si>
+  <si>
+    <t>09:35:01 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.ee02e0f23e6d5b5849c4208c6f0b24e383cab085851b0896bee324d9310418b1.b6d515e15c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>432535d798f79fd5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.904ab24eba8606b2452a10a18b689b81ce29e0744f195111fe7f5657a1a4f534.2aac2f5e08^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>09:35:48 GMT</t>
+  </si>
+  <si>
+    <t>61bdc37b1a356857</t>
+  </si>
+  <si>
+    <t>09:37:05 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.4.32d6a25430b56e86d4cad9693242a7152e954b3b4307a92dc30067ccf71b2b93.00a01641dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1ae7d57516333ad1</t>
+  </si>
+  <si>
+    <t>09:42:52 GMT</t>
+  </si>
+  <si>
+    <t>d98b3ea9bb91df3c</t>
+  </si>
+  <si>
+    <t>09:44:17 GMT</t>
   </si>
 </sst>
 </file>
@@ -7734,10 +7734,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G383" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
+      <selection pane="bottomRight" activeCell="I375" sqref="I375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8011,13 +8011,13 @@
         <v>45281</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>139</v>
@@ -8057,13 +8057,13 @@
         <v>45281</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>139</v>
@@ -8103,13 +8103,13 @@
         <v>45281</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>139</v>
@@ -8149,13 +8149,13 @@
         <v>45281</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>139</v>
@@ -8195,13 +8195,13 @@
         <v>45282</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>139</v>
@@ -8918,13 +8918,13 @@
         <v>103</v>
       </c>
       <c r="F35" s="18">
-        <v>45281</v>
+        <v>45295</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>858</v>
+        <v>928</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>859</v>
+        <v>927</v>
       </c>
       <c r="I35" s="35" t="s">
         <v>854</v>
@@ -8946,7 +8946,7 @@
         <v>139</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="Q35" s="20" t="s">
         <v>846</v>
@@ -9212,13 +9212,13 @@
         <v>122</v>
       </c>
       <c r="F43" s="18">
-        <v>45281</v>
+        <v>45295</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>861</v>
+        <v>929</v>
       </c>
       <c r="I43" s="35" t="s">
         <v>854</v>
@@ -9240,7 +9240,7 @@
         <v>139</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="Q43" s="20" t="s">
         <v>846</v>
@@ -9808,16 +9808,16 @@
         <v>148</v>
       </c>
       <c r="F59" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>139</v>
@@ -9830,13 +9830,13 @@
         <v>139</v>
       </c>
       <c r="N59" s="20" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="O59" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="Q59" s="20" t="s">
         <v>846</v>
@@ -9864,16 +9864,16 @@
         <v>150</v>
       </c>
       <c r="F60" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>139</v>
@@ -9886,13 +9886,13 @@
         <v>139</v>
       </c>
       <c r="N60" s="20" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="O60" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="Q60" s="20" t="s">
         <v>846</v>
@@ -9920,16 +9920,16 @@
         <v>152</v>
       </c>
       <c r="F61" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="J61" s="20" t="s">
         <v>139</v>
@@ -9942,13 +9942,13 @@
         <v>139</v>
       </c>
       <c r="N61" s="20" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="O61" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P61" s="20" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="Q61" s="20" t="s">
         <v>846</v>
@@ -9976,16 +9976,16 @@
         <v>154</v>
       </c>
       <c r="F62" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="J62" s="20" t="s">
         <v>139</v>
@@ -9998,13 +9998,13 @@
         <v>848</v>
       </c>
       <c r="N62" s="20" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="O62" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="Q62" s="20" t="s">
         <v>846</v>
@@ -10032,16 +10032,16 @@
         <v>156</v>
       </c>
       <c r="F63" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="J63" s="20" t="s">
         <v>139</v>
@@ -10054,13 +10054,13 @@
         <v>848</v>
       </c>
       <c r="N63" s="20" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="O63" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="Q63" s="20" t="s">
         <v>846</v>
@@ -10088,16 +10088,16 @@
         <v>158</v>
       </c>
       <c r="F64" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="J64" s="20" t="s">
         <v>139</v>
@@ -10110,13 +10110,13 @@
         <v>848</v>
       </c>
       <c r="N64" s="20" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="O64" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P64" s="20" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="Q64" s="20" t="s">
         <v>846</v>
@@ -10144,7 +10144,7 @@
         <v>160</v>
       </c>
       <c r="F65" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G65" s="19" t="s">
         <v>910</v>
@@ -10153,7 +10153,7 @@
         <v>909</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="J65" s="20" t="s">
         <v>139</v>
@@ -10166,13 +10166,13 @@
         <v>848</v>
       </c>
       <c r="N65" s="20" t="s">
-        <v>911</v>
+        <v>883</v>
       </c>
       <c r="O65" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P65" s="20" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="Q65" s="20" t="s">
         <v>846</v>
@@ -10200,13 +10200,13 @@
         <v>162</v>
       </c>
       <c r="F66" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G66" s="19" t="s">
+        <v>913</v>
+      </c>
+      <c r="H66" s="19" t="s">
         <v>912</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>913</v>
       </c>
       <c r="I66" s="19" t="s">
         <v>914</v>
@@ -10222,13 +10222,13 @@
         <v>848</v>
       </c>
       <c r="N66" s="20" t="s">
-        <v>915</v>
+        <v>884</v>
       </c>
       <c r="O66" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P66" s="20" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="Q66" s="20" t="s">
         <v>846</v>
@@ -10256,10 +10256,10 @@
         <v>164</v>
       </c>
       <c r="F67" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H67" s="19" t="s">
         <v>916</v>
@@ -10278,13 +10278,13 @@
         <v>139</v>
       </c>
       <c r="N67" s="20" t="s">
-        <v>919</v>
+        <v>885</v>
       </c>
       <c r="O67" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P67" s="20" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="Q67" s="20" t="s">
         <v>846</v>
@@ -10312,13 +10312,13 @@
         <v>166</v>
       </c>
       <c r="F68" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="I68" s="19" t="s">
         <v>920</v>
@@ -10334,13 +10334,13 @@
         <v>139</v>
       </c>
       <c r="N68" s="20" t="s">
-        <v>923</v>
+        <v>886</v>
       </c>
       <c r="O68" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P68" s="20" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="Q68" s="20"/>
       <c r="R68" s="21"/>
@@ -10366,16 +10366,16 @@
         <v>168</v>
       </c>
       <c r="F69" s="18">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="J69" s="20" t="s">
         <v>139</v>
@@ -10388,13 +10388,13 @@
         <v>139</v>
       </c>
       <c r="N69" s="20" t="s">
-        <v>927</v>
+        <v>887</v>
       </c>
       <c r="O69" s="20" t="s">
         <v>139</v>
       </c>
       <c r="P69" s="20" t="s">
-        <v>928</v>
+        <v>888</v>
       </c>
       <c r="Q69" s="20" t="s">
         <v>846</v>
@@ -14781,7 +14781,7 @@
         <v>848</v>
       </c>
       <c r="K198" s="20" t="s">
-        <v>929</v>
+        <v>889</v>
       </c>
       <c r="L198" s="20"/>
       <c r="M198" s="20"/>
@@ -20798,16 +20798,16 @@
         <v>778</v>
       </c>
       <c r="F375" s="18">
-        <v>45281</v>
+        <v>45295</v>
       </c>
       <c r="G375" s="19" t="s">
-        <v>862</v>
+        <v>925</v>
       </c>
       <c r="H375" s="19" t="s">
-        <v>863</v>
+        <v>924</v>
       </c>
       <c r="I375" s="19" t="s">
-        <v>864</v>
+        <v>926</v>
       </c>
       <c r="J375" s="20" t="s">
         <v>139</v>
@@ -21089,7 +21089,7 @@
         <v>848</v>
       </c>
       <c r="K383" s="20" t="s">
-        <v>929</v>
+        <v>889</v>
       </c>
       <c r="L383" s="20"/>
       <c r="M383" s="20"/>

--- a/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
+++ b/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\it-fse-accreditamento-main\Test Case\ValidazioneRB\S1#111#RBSOFTWARECENTERSRLXX\RBSoftware\WGesLaAn\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0821B26-7763-4D22-A4BA-D76C9BBE717D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45B5898-5022-41A8-89DB-78BF26F66A23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="0" windowWidth="43170" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="0" windowWidth="43170" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$383</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
@@ -4809,16 +4809,16 @@
     <t>2.16.840.1.113883.2.9.2.180.4.4.32d6a25430b56e86d4cad9693242a7152e954b3b4307a92dc30067ccf71b2b93.00a01641dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>1ae7d57516333ad1</t>
-  </si>
-  <si>
-    <t>09:42:52 GMT</t>
-  </si>
-  <si>
-    <t>d98b3ea9bb91df3c</t>
-  </si>
-  <si>
-    <t>09:44:17 GMT</t>
+    <t>6f70a85e2685dc34</t>
+  </si>
+  <si>
+    <t>17:14:25 GMT</t>
+  </si>
+  <si>
+    <t>c64249aadeb6bdb5</t>
+  </si>
+  <si>
+    <t>17:15:57 GMT</t>
   </si>
 </sst>
 </file>
@@ -7734,10 +7734,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I375" sqref="I375"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -25800,8 +25800,8 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
+++ b/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\it-fse-accreditamento-main\Test Case\ValidazioneRB\S1#111#RBSOFTWARECENTERSRLXX\RBSoftware\WGesLaAn\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45B5898-5022-41A8-89DB-78BF26F66A23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED38CDD-0B5F-4216-A30B-3A6187D3C69C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="0" windowWidth="43170" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="43170" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="931">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4596,9 +4596,6 @@
     <t>TimeOut</t>
   </si>
   <si>
-    <t>Viene fatto un nuovo tentativo dopo 1 minuto dall'ultimo errore ricevuto</t>
-  </si>
-  <si>
     <t>subject_application_id: WGesLaAn</t>
   </si>
   <si>
@@ -4650,33 +4647,21 @@
     <t>L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'</t>
   </si>
   <si>
-    <t>Viene segnato l'errore all'utente e viene richiesto l'eventuale correzione sulla pratica del Paziente</t>
-  </si>
-  <si>
     <t>codice fiscale 'pncpll85m19c710g' cittadino ed operatore: 16 cifre [A-Z0-9]{16}]</t>
   </si>
   <si>
-    <t>Tecnicamente non sarebbe possibile in quanto la generazione del CDA converte il Codice Fiscale in maiuscolo, scongiurando l'errore</t>
-  </si>
-  <si>
     <t>L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25</t>
   </si>
   <si>
     <t xml:space="preserve">L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' </t>
   </si>
   <si>
-    <t>Tecnicamente non sarebbe possibile in quanto la generazione del CDA prevede l'inserimento dei campi richiesti, scongiurando l'errore</t>
-  </si>
-  <si>
     <t>L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'</t>
   </si>
   <si>
     <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: D]</t>
   </si>
   <si>
-    <t>Tecnicamente non sarebbe possibile in quanto la generazione del CDA prevede l'inserimento dei campi richiesti con i valori consenti, scongiurando l'errore</t>
-  </si>
-  <si>
     <t xml:space="preserve">inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' </t>
   </si>
   <si>
@@ -4692,15 +4677,9 @@
     <t>-1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'translation' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'translation' is not valid with respect to its type, 'cs'.</t>
   </si>
   <si>
-    <t>Viene segnato l'errore all'utente e viene richiesto l'eventuale correzione sulla pratica dell'esame</t>
-  </si>
-  <si>
     <t>Come provider non gestiamo le trasfusioni come tipologia di esame.</t>
   </si>
   <si>
-    <t>Tecnicamente non sarebbe possibile in quanto la generazione del token prevede la valorizzazione del campo, scongiurando l'errore</t>
-  </si>
-  <si>
     <t>d37b4860f8602509</t>
   </si>
   <si>
@@ -4819,6 +4798,44 @@
   </si>
   <si>
     <t>17:15:57 GMT</t>
+  </si>
+  <si>
+    <t>Il controllo sulla generazione del Token viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.
+Il verificarsi di tale tipo di errore  dopo esser stato notificato consente all’utente di proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore.</t>
+  </si>
+  <si>
+    <t>Viene visualizzato un messaggio a video di non disponibilità del servizio.
+Il verificarsi di tale tipo di errore  dopo esser stato notificato consente all’utente di proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore.</t>
+  </si>
+  <si>
+    <t>Il controllo sul livello di confidenzialità viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.
+Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di:
+- correggerlo contestualmente e reinviare il documento
+- proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
+  </si>
+  <si>
+    <t>Il controllo sulla corretta formattazione del codice fiscale viene effettuato direttamente in fase di accettazione. Pertanto eventuali errori vengono segnalati in fase di accettazione. Inoltre ci sono ulteriori controllo prima della fase di validazione. In caso di problemi l’errore viene segnalato attraverso un messaggio.
+Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di:
+- correggerlo contestualmente e reinviare il documento
+- proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
+  </si>
+  <si>
+    <t>La presenza di tutti i campi indispensabili viene effettuata prima di procedere con la validazione. In caso di errore il programma mostra un messaggio a video con le specifiche dell’errore.
+Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di:
+- correggerlo contestualmente e reinviare il documento
+- proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
+  </si>
+  <si>
+    <t>Viene mostrato a video un messaggio con la descrizione e il relativo codice di errore.
+Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di:
+- correggerlo contestualmente e reinviare il documento
+- proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
+  </si>
+  <si>
+    <t>Viene mostrato a video un messaggio con la descrizione e il relativo codice di errore. 
+Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di:
+- correggerlo contestualmente e reinviare il documento
+- proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
   </si>
 </sst>
 </file>
@@ -5147,7 +5164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5269,6 +5286,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7733,11 +7762,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomRight" activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7751,7 +7780,7 @@
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="16" max="16" width="73.7109375" style="51" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="20" width="31.85546875" customWidth="1"/>
@@ -7769,7 +7798,7 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="P1" s="49"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="9"/>
       <c r="S1" s="1"/>
@@ -7794,7 +7823,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="P2" s="49"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="9"/>
       <c r="S2" s="1"/>
@@ -7806,7 +7835,7 @@
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="47" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D3" s="39"/>
       <c r="F3" s="7"/>
@@ -7819,7 +7848,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="P3" s="49"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
       <c r="S3" s="1"/>
@@ -7843,7 +7872,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="P4" s="49"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="1"/>
@@ -7866,7 +7895,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="P5" s="49"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="9"/>
       <c r="S5" s="1"/>
@@ -7886,7 +7915,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="P6" s="49"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="9"/>
       <c r="S6" s="1"/>
@@ -7906,13 +7935,13 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="P7" s="49"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
       <c r="S7" s="1"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -7923,13 +7952,13 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="P8" s="49"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="9"/>
       <c r="S8" s="1"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
@@ -7975,7 +8004,7 @@
       <c r="O9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="50" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="13" t="s">
@@ -7991,7 +8020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" customHeight="1">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -8011,23 +8040,27 @@
         <v>45281</v>
       </c>
       <c r="G10" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="I10" s="19" t="s">
         <v>859</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>860</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>139</v>
       </c>
       <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="L10" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>848</v>
+      </c>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="P10" s="48"/>
       <c r="Q10" s="20" t="s">
         <v>846</v>
       </c>
@@ -8037,7 +8070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -8057,23 +8090,27 @@
         <v>45281</v>
       </c>
       <c r="G11" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>861</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="19" t="s">
         <v>862</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>863</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>139</v>
       </c>
       <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="L11" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>848</v>
+      </c>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="P11" s="48"/>
       <c r="Q11" s="20" t="s">
         <v>846</v>
       </c>
@@ -8083,7 +8120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -8103,23 +8140,27 @@
         <v>45281</v>
       </c>
       <c r="G12" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>865</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>866</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>139</v>
       </c>
       <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="L12" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>848</v>
+      </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="P12" s="48"/>
       <c r="Q12" s="20" t="s">
         <v>846</v>
       </c>
@@ -8129,7 +8170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -8149,23 +8190,25 @@
         <v>45281</v>
       </c>
       <c r="G13" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="19" t="s">
         <v>868</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>869</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>139</v>
       </c>
       <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="L13" s="20" t="s">
+        <v>848</v>
+      </c>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="P13" s="48"/>
       <c r="Q13" s="20" t="s">
         <v>846</v>
       </c>
@@ -8175,7 +8218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -8195,23 +8238,25 @@
         <v>45282</v>
       </c>
       <c r="G14" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>871</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>872</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>139</v>
       </c>
       <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="L14" s="20" t="s">
+        <v>848</v>
+      </c>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="P14" s="48"/>
       <c r="Q14" s="20" t="s">
         <v>846</v>
       </c>
@@ -8901,7 +8946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="135">
+    <row r="35" spans="1:20" ht="135.75" thickBot="1">
       <c r="A35" s="15">
         <v>28</v>
       </c>
@@ -8921,10 +8966,10 @@
         <v>45295</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="I35" s="35" t="s">
         <v>854</v>
@@ -8945,8 +8990,8 @@
       <c r="O35" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P35" s="20" t="s">
-        <v>890</v>
+      <c r="P35" s="48" t="s">
+        <v>924</v>
       </c>
       <c r="Q35" s="20" t="s">
         <v>846</v>
@@ -9161,7 +9206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="135" hidden="1">
+    <row r="42" spans="1:20" ht="135.75" thickBot="1">
       <c r="A42" s="15">
         <v>35</v>
       </c>
@@ -9187,7 +9232,7 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
+      <c r="P42" s="48"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
@@ -9195,7 +9240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="120">
+    <row r="43" spans="1:20" ht="120.75" thickBot="1">
       <c r="A43" s="15">
         <v>36</v>
       </c>
@@ -9215,10 +9260,10 @@
         <v>45295</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="I43" s="35" t="s">
         <v>854</v>
@@ -9239,8 +9284,8 @@
       <c r="O43" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P43" s="20" t="s">
-        <v>890</v>
+      <c r="P43" s="48" t="s">
+        <v>924</v>
       </c>
       <c r="Q43" s="20" t="s">
         <v>846</v>
@@ -9489,7 +9534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="45">
+    <row r="51" spans="1:20" ht="93" customHeight="1" thickBot="1">
       <c r="A51" s="15">
         <v>44</v>
       </c>
@@ -9525,8 +9570,8 @@
       <c r="O51" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P51" s="20" t="s">
-        <v>856</v>
+      <c r="P51" s="48" t="s">
+        <v>925</v>
       </c>
       <c r="Q51" s="20" t="s">
         <v>846</v>
@@ -9791,7 +9836,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="105" customHeight="1">
+    <row r="59" spans="1:20" ht="165.75" thickBot="1">
       <c r="A59" s="15">
         <v>52</v>
       </c>
@@ -9811,13 +9856,13 @@
         <v>45295</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>139</v>
@@ -9830,13 +9875,13 @@
         <v>139</v>
       </c>
       <c r="N59" s="20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O59" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P59" s="20" t="s">
-        <v>874</v>
+      <c r="P59" s="48" t="s">
+        <v>926</v>
       </c>
       <c r="Q59" s="20" t="s">
         <v>846</v>
@@ -9847,7 +9892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="90">
+    <row r="60" spans="1:20" ht="195.75" thickBot="1">
       <c r="A60" s="15">
         <v>53</v>
       </c>
@@ -9867,13 +9912,13 @@
         <v>45295</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>139</v>
@@ -9886,13 +9931,13 @@
         <v>139</v>
       </c>
       <c r="N60" s="20" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="O60" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P60" s="20" t="s">
-        <v>876</v>
+      <c r="P60" s="48" t="s">
+        <v>927</v>
       </c>
       <c r="Q60" s="20" t="s">
         <v>846</v>
@@ -9903,7 +9948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="90">
+    <row r="61" spans="1:20" ht="165.75" thickBot="1">
       <c r="A61" s="15">
         <v>54</v>
       </c>
@@ -9923,13 +9968,13 @@
         <v>45295</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="J61" s="20" t="s">
         <v>139</v>
@@ -9942,13 +9987,13 @@
         <v>139</v>
       </c>
       <c r="N61" s="20" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="O61" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P61" s="20" t="s">
-        <v>874</v>
+      <c r="P61" s="48" t="s">
+        <v>926</v>
       </c>
       <c r="Q61" s="20" t="s">
         <v>846</v>
@@ -9959,7 +10004,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="90">
+    <row r="62" spans="1:20" ht="165.75" thickBot="1">
       <c r="A62" s="15">
         <v>55</v>
       </c>
@@ -9979,13 +10024,13 @@
         <v>45295</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="J62" s="20" t="s">
         <v>139</v>
@@ -9998,13 +10043,13 @@
         <v>848</v>
       </c>
       <c r="N62" s="20" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="O62" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P62" s="20" t="s">
-        <v>879</v>
+      <c r="P62" s="48" t="s">
+        <v>928</v>
       </c>
       <c r="Q62" s="20" t="s">
         <v>846</v>
@@ -10015,7 +10060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="90">
+    <row r="63" spans="1:20" ht="165.75" thickBot="1">
       <c r="A63" s="15">
         <v>56</v>
       </c>
@@ -10035,13 +10080,13 @@
         <v>45295</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="J63" s="20" t="s">
         <v>139</v>
@@ -10054,13 +10099,13 @@
         <v>848</v>
       </c>
       <c r="N63" s="20" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="O63" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P63" s="20" t="s">
-        <v>879</v>
+      <c r="P63" s="48" t="s">
+        <v>928</v>
       </c>
       <c r="Q63" s="20" t="s">
         <v>846</v>
@@ -10071,7 +10116,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="105">
+    <row r="64" spans="1:20" ht="165.75" thickBot="1">
       <c r="A64" s="15">
         <v>57</v>
       </c>
@@ -10091,13 +10136,13 @@
         <v>45295</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="J64" s="20" t="s">
         <v>139</v>
@@ -10110,13 +10155,13 @@
         <v>848</v>
       </c>
       <c r="N64" s="20" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="O64" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P64" s="20" t="s">
-        <v>882</v>
+      <c r="P64" s="48" t="s">
+        <v>928</v>
       </c>
       <c r="Q64" s="20" t="s">
         <v>846</v>
@@ -10127,7 +10172,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="105">
+    <row r="65" spans="1:20" ht="165.75" thickBot="1">
       <c r="A65" s="15">
         <v>58</v>
       </c>
@@ -10147,13 +10192,13 @@
         <v>45295</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="J65" s="20" t="s">
         <v>139</v>
@@ -10166,13 +10211,13 @@
         <v>848</v>
       </c>
       <c r="N65" s="20" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="O65" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P65" s="20" t="s">
-        <v>882</v>
+      <c r="P65" s="48" t="s">
+        <v>928</v>
       </c>
       <c r="Q65" s="20" t="s">
         <v>846</v>
@@ -10183,7 +10228,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="105">
+    <row r="66" spans="1:20" ht="165.75" thickBot="1">
       <c r="A66" s="15">
         <v>59</v>
       </c>
@@ -10203,13 +10248,13 @@
         <v>45295</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="J66" s="20" t="s">
         <v>139</v>
@@ -10222,13 +10267,13 @@
         <v>848</v>
       </c>
       <c r="N66" s="20" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="O66" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P66" s="20" t="s">
-        <v>882</v>
+      <c r="P66" s="48" t="s">
+        <v>928</v>
       </c>
       <c r="Q66" s="20" t="s">
         <v>846</v>
@@ -10239,7 +10284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="409.5">
+    <row r="67" spans="1:20" ht="409.6" thickBot="1">
       <c r="A67" s="15">
         <v>60</v>
       </c>
@@ -10259,13 +10304,13 @@
         <v>45295</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>139</v>
@@ -10278,13 +10323,13 @@
         <v>139</v>
       </c>
       <c r="N67" s="20" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="O67" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P67" s="20" t="s">
-        <v>882</v>
+      <c r="P67" s="48" t="s">
+        <v>929</v>
       </c>
       <c r="Q67" s="20" t="s">
         <v>846</v>
@@ -10295,7 +10340,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="195">
+    <row r="68" spans="1:20" ht="195.75" thickBot="1">
       <c r="A68" s="15">
         <v>61</v>
       </c>
@@ -10315,13 +10360,13 @@
         <v>45295</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>139</v>
@@ -10334,13 +10379,13 @@
         <v>139</v>
       </c>
       <c r="N68" s="20" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="O68" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P68" s="20" t="s">
-        <v>874</v>
+      <c r="P68" s="48" t="s">
+        <v>929</v>
       </c>
       <c r="Q68" s="20"/>
       <c r="R68" s="21"/>
@@ -10349,7 +10394,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="285">
+    <row r="69" spans="1:20" ht="285.75" thickBot="1">
       <c r="A69" s="15">
         <v>62</v>
       </c>
@@ -10369,13 +10414,13 @@
         <v>45295</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="J69" s="20" t="s">
         <v>139</v>
@@ -10388,13 +10433,13 @@
         <v>139</v>
       </c>
       <c r="N69" s="20" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="O69" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="P69" s="20" t="s">
-        <v>888</v>
+      <c r="P69" s="48" t="s">
+        <v>930</v>
       </c>
       <c r="Q69" s="20" t="s">
         <v>846</v>
@@ -10405,7 +10450,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="90" hidden="1">
+    <row r="70" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A70" s="15">
         <v>63</v>
       </c>
@@ -10439,7 +10484,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="90" hidden="1">
+    <row r="71" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A71" s="15">
         <v>64</v>
       </c>
@@ -10473,7 +10518,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="90" hidden="1">
+    <row r="72" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A72" s="15">
         <v>65</v>
       </c>
@@ -10507,7 +10552,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="90" hidden="1">
+    <row r="73" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A73" s="15">
         <v>66</v>
       </c>
@@ -10541,7 +10586,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="90" hidden="1">
+    <row r="74" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A74" s="15">
         <v>67</v>
       </c>
@@ -10575,7 +10620,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="90" hidden="1">
+    <row r="75" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A75" s="15">
         <v>68</v>
       </c>
@@ -10609,7 +10654,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="90" hidden="1">
+    <row r="76" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A76" s="15">
         <v>69</v>
       </c>
@@ -10643,7 +10688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="90" hidden="1">
+    <row r="77" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A77" s="15">
         <v>70</v>
       </c>
@@ -10677,7 +10722,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="90" hidden="1">
+    <row r="78" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A78" s="15">
         <v>71</v>
       </c>
@@ -10711,7 +10756,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="90" hidden="1">
+    <row r="79" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A79" s="15">
         <v>72</v>
       </c>
@@ -10745,7 +10790,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="90" hidden="1">
+    <row r="80" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A80" s="15">
         <v>73</v>
       </c>
@@ -10779,7 +10824,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="90" hidden="1">
+    <row r="81" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A81" s="15">
         <v>74</v>
       </c>
@@ -10813,7 +10858,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="105" hidden="1">
+    <row r="82" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A82" s="15">
         <v>75</v>
       </c>
@@ -10847,7 +10892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="90" hidden="1">
+    <row r="83" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A83" s="15">
         <v>76</v>
       </c>
@@ -10881,7 +10926,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="75" hidden="1">
+    <row r="84" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A84" s="15">
         <v>77</v>
       </c>
@@ -10915,7 +10960,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="75" hidden="1">
+    <row r="85" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A85" s="15">
         <v>78</v>
       </c>
@@ -10949,7 +10994,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="90" hidden="1">
+    <row r="86" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A86" s="15">
         <v>79</v>
       </c>
@@ -10983,7 +11028,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="90" hidden="1">
+    <row r="87" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A87" s="15">
         <v>80</v>
       </c>
@@ -11017,7 +11062,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="90" hidden="1">
+    <row r="88" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A88" s="15">
         <v>81</v>
       </c>
@@ -11051,7 +11096,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="90" hidden="1">
+    <row r="89" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A89" s="15">
         <v>82</v>
       </c>
@@ -11085,7 +11130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="75" hidden="1">
+    <row r="90" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A90" s="15">
         <v>83</v>
       </c>
@@ -11119,7 +11164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="75" hidden="1">
+    <row r="91" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A91" s="15">
         <v>84</v>
       </c>
@@ -11153,7 +11198,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="90" hidden="1">
+    <row r="92" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A92" s="15">
         <v>85</v>
       </c>
@@ -11187,7 +11232,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="90" hidden="1">
+    <row r="93" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A93" s="15">
         <v>86</v>
       </c>
@@ -11221,7 +11266,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="105" hidden="1">
+    <row r="94" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A94" s="15">
         <v>87</v>
       </c>
@@ -11255,7 +11300,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="90" hidden="1">
+    <row r="95" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A95" s="15">
         <v>88</v>
       </c>
@@ -11289,7 +11334,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="75" hidden="1">
+    <row r="96" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A96" s="15">
         <v>89</v>
       </c>
@@ -11323,7 +11368,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="75" hidden="1">
+    <row r="97" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A97" s="15">
         <v>90</v>
       </c>
@@ -11357,7 +11402,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="90" hidden="1">
+    <row r="98" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A98" s="15">
         <v>91</v>
       </c>
@@ -11391,7 +11436,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="90" hidden="1">
+    <row r="99" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A99" s="15">
         <v>92</v>
       </c>
@@ -11425,7 +11470,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="90" hidden="1">
+    <row r="100" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A100" s="15">
         <v>93</v>
       </c>
@@ -11459,7 +11504,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="105" hidden="1">
+    <row r="101" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A101" s="15">
         <v>94</v>
       </c>
@@ -11493,7 +11538,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="105" hidden="1">
+    <row r="102" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A102" s="15">
         <v>95</v>
       </c>
@@ -11527,7 +11572,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="75" hidden="1">
+    <row r="103" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A103" s="15">
         <v>96</v>
       </c>
@@ -11561,7 +11606,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="90" hidden="1">
+    <row r="104" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A104" s="15">
         <v>97</v>
       </c>
@@ -11595,7 +11640,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="105" hidden="1">
+    <row r="105" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A105" s="15">
         <v>98</v>
       </c>
@@ -11629,7 +11674,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="105" hidden="1">
+    <row r="106" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A106" s="15">
         <v>99</v>
       </c>
@@ -11663,7 +11708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="75" hidden="1">
+    <row r="107" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A107" s="15">
         <v>100</v>
       </c>
@@ -11697,7 +11742,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="90" hidden="1">
+    <row r="108" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A108" s="15">
         <v>101</v>
       </c>
@@ -11731,7 +11776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="105" hidden="1">
+    <row r="109" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A109" s="15">
         <v>102</v>
       </c>
@@ -11765,7 +11810,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="105" hidden="1">
+    <row r="110" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A110" s="15">
         <v>103</v>
       </c>
@@ -11799,7 +11844,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="75" hidden="1">
+    <row r="111" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A111" s="15">
         <v>104</v>
       </c>
@@ -11833,7 +11878,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="105" hidden="1">
+    <row r="112" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A112" s="15">
         <v>105</v>
       </c>
@@ -11867,7 +11912,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="105" hidden="1">
+    <row r="113" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A113" s="15">
         <v>106</v>
       </c>
@@ -11901,7 +11946,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="90" hidden="1">
+    <row r="114" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A114" s="15">
         <v>107</v>
       </c>
@@ -11935,7 +11980,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="90" hidden="1">
+    <row r="115" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A115" s="15">
         <v>108</v>
       </c>
@@ -11969,7 +12014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="90" hidden="1">
+    <row r="116" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A116" s="15">
         <v>109</v>
       </c>
@@ -12003,7 +12048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="75" hidden="1">
+    <row r="117" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A117" s="15">
         <v>110</v>
       </c>
@@ -12037,7 +12082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="90" hidden="1">
+    <row r="118" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A118" s="15">
         <v>111</v>
       </c>
@@ -12071,7 +12116,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="90" hidden="1">
+    <row r="119" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A119" s="15">
         <v>112</v>
       </c>
@@ -12105,7 +12150,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="90" hidden="1">
+    <row r="120" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A120" s="15">
         <v>113</v>
       </c>
@@ -12139,7 +12184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="90" hidden="1">
+    <row r="121" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A121" s="15">
         <v>114</v>
       </c>
@@ -12173,7 +12218,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="90" hidden="1">
+    <row r="122" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A122" s="15">
         <v>115</v>
       </c>
@@ -12207,7 +12252,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="90" hidden="1">
+    <row r="123" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A123" s="15">
         <v>116</v>
       </c>
@@ -12241,7 +12286,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="90" hidden="1">
+    <row r="124" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A124" s="15">
         <v>117</v>
       </c>
@@ -12275,7 +12320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="90" hidden="1">
+    <row r="125" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A125" s="15">
         <v>118</v>
       </c>
@@ -12309,7 +12354,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="90" hidden="1">
+    <row r="126" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A126" s="15">
         <v>119</v>
       </c>
@@ -12343,7 +12388,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="90" hidden="1">
+    <row r="127" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A127" s="15">
         <v>120</v>
       </c>
@@ -12377,7 +12422,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="90" hidden="1">
+    <row r="128" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A128" s="15">
         <v>121</v>
       </c>
@@ -12411,7 +12456,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="75" hidden="1">
+    <row r="129" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A129" s="15">
         <v>122</v>
       </c>
@@ -12445,7 +12490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="75" hidden="1">
+    <row r="130" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A130" s="15">
         <v>123</v>
       </c>
@@ -12479,7 +12524,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="75" hidden="1">
+    <row r="131" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A131" s="15">
         <v>124</v>
       </c>
@@ -12513,7 +12558,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="90" hidden="1">
+    <row r="132" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A132" s="15">
         <v>125</v>
       </c>
@@ -12547,7 +12592,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="75" hidden="1">
+    <row r="133" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A133" s="15">
         <v>126</v>
       </c>
@@ -12581,7 +12626,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="75" hidden="1">
+    <row r="134" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A134" s="15">
         <v>127</v>
       </c>
@@ -12615,7 +12660,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="75" hidden="1">
+    <row r="135" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A135" s="15">
         <v>128</v>
       </c>
@@ -12649,7 +12694,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="90" hidden="1">
+    <row r="136" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A136" s="15">
         <v>129</v>
       </c>
@@ -12683,7 +12728,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="75" hidden="1">
+    <row r="137" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A137" s="15">
         <v>130</v>
       </c>
@@ -12717,7 +12762,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="75" hidden="1">
+    <row r="138" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A138" s="15">
         <v>131</v>
       </c>
@@ -12751,7 +12796,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="75" hidden="1">
+    <row r="139" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A139" s="15">
         <v>132</v>
       </c>
@@ -12785,7 +12830,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="90" hidden="1">
+    <row r="140" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A140" s="15">
         <v>133</v>
       </c>
@@ -12819,7 +12864,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="75" hidden="1">
+    <row r="141" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A141" s="15">
         <v>134</v>
       </c>
@@ -12853,7 +12898,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="75" hidden="1">
+    <row r="142" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A142" s="15">
         <v>135</v>
       </c>
@@ -12887,7 +12932,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="75" hidden="1">
+    <row r="143" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A143" s="15">
         <v>136</v>
       </c>
@@ -12921,7 +12966,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="90" hidden="1">
+    <row r="144" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A144" s="15">
         <v>137</v>
       </c>
@@ -12955,7 +13000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="75" hidden="1">
+    <row r="145" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A145" s="15">
         <v>138</v>
       </c>
@@ -12989,7 +13034,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="75" hidden="1">
+    <row r="146" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A146" s="15">
         <v>139</v>
       </c>
@@ -13023,7 +13068,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="75" hidden="1">
+    <row r="147" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A147" s="15">
         <v>140</v>
       </c>
@@ -13057,7 +13102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="90" hidden="1">
+    <row r="148" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A148" s="15">
         <v>141</v>
       </c>
@@ -13091,7 +13136,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="75" hidden="1">
+    <row r="149" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A149" s="15">
         <v>142</v>
       </c>
@@ -13125,7 +13170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="75" hidden="1">
+    <row r="150" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A150" s="15">
         <v>143</v>
       </c>
@@ -13159,7 +13204,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="75" hidden="1">
+    <row r="151" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A151" s="15">
         <v>144</v>
       </c>
@@ -13193,7 +13238,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="90" hidden="1">
+    <row r="152" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A152" s="15">
         <v>145</v>
       </c>
@@ -13227,7 +13272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="90" hidden="1">
+    <row r="153" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A153" s="15">
         <v>146</v>
       </c>
@@ -13261,7 +13306,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="120" hidden="1">
+    <row r="154" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A154" s="15">
         <v>147</v>
       </c>
@@ -13295,7 +13340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="120" hidden="1">
+    <row r="155" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A155" s="15">
         <v>148</v>
       </c>
@@ -13329,7 +13374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="120" hidden="1">
+    <row r="156" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A156" s="15">
         <v>149</v>
       </c>
@@ -13363,7 +13408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="120" hidden="1">
+    <row r="157" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A157" s="15">
         <v>150</v>
       </c>
@@ -13397,7 +13442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="75" hidden="1">
+    <row r="158" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A158" s="15">
         <v>151</v>
       </c>
@@ -13431,7 +13476,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="90" hidden="1">
+    <row r="159" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A159" s="15">
         <v>152</v>
       </c>
@@ -13465,7 +13510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="90" hidden="1">
+    <row r="160" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A160" s="15">
         <v>153</v>
       </c>
@@ -13499,7 +13544,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="90" hidden="1">
+    <row r="161" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A161" s="15">
         <v>154</v>
       </c>
@@ -13533,7 +13578,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="90" hidden="1">
+    <row r="162" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A162" s="15">
         <v>155</v>
       </c>
@@ -13567,7 +13612,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="90" hidden="1">
+    <row r="163" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A163" s="15">
         <v>156</v>
       </c>
@@ -13601,7 +13646,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="90" hidden="1">
+    <row r="164" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A164" s="15">
         <v>157</v>
       </c>
@@ -13635,7 +13680,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="90" hidden="1">
+    <row r="165" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A165" s="15">
         <v>158</v>
       </c>
@@ -13669,7 +13714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="75" hidden="1">
+    <row r="166" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A166" s="15">
         <v>159</v>
       </c>
@@ -13703,7 +13748,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="75" hidden="1">
+    <row r="167" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A167" s="15">
         <v>160</v>
       </c>
@@ -13737,7 +13782,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="90" hidden="1">
+    <row r="168" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A168" s="15">
         <v>161</v>
       </c>
@@ -13771,7 +13816,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="90" hidden="1">
+    <row r="169" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A169" s="15">
         <v>162</v>
       </c>
@@ -13805,7 +13850,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="90" hidden="1">
+    <row r="170" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A170" s="15">
         <v>163</v>
       </c>
@@ -13839,7 +13884,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="90" hidden="1">
+    <row r="171" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A171" s="15">
         <v>164</v>
       </c>
@@ -13873,7 +13918,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="90" hidden="1">
+    <row r="172" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A172" s="15">
         <v>165</v>
       </c>
@@ -13907,7 +13952,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="90" hidden="1">
+    <row r="173" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A173" s="15">
         <v>166</v>
       </c>
@@ -13941,7 +13986,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="90" hidden="1">
+    <row r="174" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A174" s="15">
         <v>167</v>
       </c>
@@ -13975,7 +14020,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="90" hidden="1">
+    <row r="175" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A175" s="15">
         <v>168</v>
       </c>
@@ -14009,7 +14054,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="90" hidden="1">
+    <row r="176" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A176" s="15">
         <v>169</v>
       </c>
@@ -14043,7 +14088,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="120" hidden="1">
+    <row r="177" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A177" s="15">
         <v>170</v>
       </c>
@@ -14077,7 +14122,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="120" hidden="1">
+    <row r="178" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A178" s="15">
         <v>171</v>
       </c>
@@ -14111,7 +14156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="120" hidden="1">
+    <row r="179" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A179" s="15">
         <v>172</v>
       </c>
@@ -14145,7 +14190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="120" hidden="1">
+    <row r="180" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A180" s="15">
         <v>173</v>
       </c>
@@ -14179,7 +14224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="75" hidden="1">
+    <row r="181" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A181" s="15">
         <v>174</v>
       </c>
@@ -14213,7 +14258,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="90" hidden="1">
+    <row r="182" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A182" s="15">
         <v>175</v>
       </c>
@@ -14247,7 +14292,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="90" hidden="1">
+    <row r="183" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A183" s="15">
         <v>176</v>
       </c>
@@ -14281,7 +14326,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="90" hidden="1">
+    <row r="184" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A184" s="15">
         <v>177</v>
       </c>
@@ -14315,7 +14360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="90" hidden="1">
+    <row r="185" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A185" s="15">
         <v>178</v>
       </c>
@@ -14349,7 +14394,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="90" hidden="1">
+    <row r="186" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A186" s="15">
         <v>179</v>
       </c>
@@ -14383,7 +14428,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="90" hidden="1">
+    <row r="187" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A187" s="15">
         <v>180</v>
       </c>
@@ -14417,7 +14462,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="75" hidden="1">
+    <row r="188" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A188" s="15">
         <v>181</v>
       </c>
@@ -14451,7 +14496,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="90" hidden="1">
+    <row r="189" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A189" s="15">
         <v>182</v>
       </c>
@@ -14485,7 +14530,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="90" hidden="1">
+    <row r="190" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A190" s="15">
         <v>183</v>
       </c>
@@ -14519,7 +14564,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="90" hidden="1">
+    <row r="191" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A191" s="15">
         <v>184</v>
       </c>
@@ -14553,7 +14598,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="90" hidden="1">
+    <row r="192" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A192" s="15">
         <v>185</v>
       </c>
@@ -14587,7 +14632,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="90" hidden="1">
+    <row r="193" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A193" s="15">
         <v>186</v>
       </c>
@@ -14621,7 +14666,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="90" hidden="1">
+    <row r="194" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A194" s="15">
         <v>187</v>
       </c>
@@ -14655,7 +14700,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="90" hidden="1">
+    <row r="195" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A195" s="15">
         <v>188</v>
       </c>
@@ -14689,7 +14734,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="90" hidden="1">
+    <row r="196" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A196" s="15">
         <v>189</v>
       </c>
@@ -14723,7 +14768,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="90" hidden="1">
+    <row r="197" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A197" s="15">
         <v>190</v>
       </c>
@@ -14757,7 +14802,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="120">
+    <row r="198" spans="1:20" ht="120.75" thickBot="1">
       <c r="A198" s="15">
         <v>191</v>
       </c>
@@ -14781,13 +14826,13 @@
         <v>848</v>
       </c>
       <c r="K198" s="20" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="L198" s="20"/>
       <c r="M198" s="20"/>
       <c r="N198" s="20"/>
       <c r="O198" s="20"/>
-      <c r="P198" s="20"/>
+      <c r="P198" s="48"/>
       <c r="Q198" s="20" t="s">
         <v>846</v>
       </c>
@@ -14797,7 +14842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="241.5" hidden="1" customHeight="1">
+    <row r="199" spans="1:20" ht="135.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A199" s="15">
         <v>192</v>
       </c>
@@ -14831,7 +14876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="301.5" hidden="1" customHeight="1">
+    <row r="200" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A200" s="15">
         <v>193</v>
       </c>
@@ -14865,7 +14910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="201" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A201" s="15">
         <v>194</v>
       </c>
@@ -14899,7 +14944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="202" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A202" s="15">
         <v>195</v>
       </c>
@@ -14933,7 +14978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="203" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A203" s="15">
         <v>196</v>
       </c>
@@ -14967,7 +15012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="204" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A204" s="15">
         <v>197</v>
       </c>
@@ -15001,7 +15046,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="205" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A205" s="15">
         <v>198</v>
       </c>
@@ -15035,7 +15080,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="206" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A206" s="15">
         <v>199</v>
       </c>
@@ -15069,7 +15114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="207" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A207" s="15">
         <v>200</v>
       </c>
@@ -15103,7 +15148,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="208" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A208" s="15">
         <v>201</v>
       </c>
@@ -15137,7 +15182,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="209" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A209" s="15">
         <v>202</v>
       </c>
@@ -15171,7 +15216,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="210" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A210" s="15">
         <v>203</v>
       </c>
@@ -15205,7 +15250,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="211" spans="1:20" ht="90.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A211" s="15">
         <v>204</v>
       </c>
@@ -15239,7 +15284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="212" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A212" s="15">
         <v>205</v>
       </c>
@@ -15273,7 +15318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="213" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A213" s="15">
         <v>206</v>
       </c>
@@ -15307,7 +15352,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="214" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A214" s="15">
         <v>207</v>
       </c>
@@ -15341,7 +15386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="236.25" hidden="1" customHeight="1">
+    <row r="215" spans="1:20" ht="135.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A215" s="15">
         <v>208</v>
       </c>
@@ -15375,7 +15420,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="216" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A216" s="15">
         <v>209</v>
       </c>
@@ -15409,7 +15454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="284.25" hidden="1" customHeight="1">
+    <row r="217" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A217" s="15">
         <v>210</v>
       </c>
@@ -15443,7 +15488,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="218" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A218" s="15">
         <v>211</v>
       </c>
@@ -15477,7 +15522,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="267.75" hidden="1" customHeight="1">
+    <row r="219" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A219" s="15">
         <v>212</v>
       </c>
@@ -15511,7 +15556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="220" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A220" s="15">
         <v>213</v>
       </c>
@@ -15545,7 +15590,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="221" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A221" s="15">
         <v>214</v>
       </c>
@@ -15579,7 +15624,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="222" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A222" s="15">
         <v>215</v>
       </c>
@@ -15613,7 +15658,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="223" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A223" s="15">
         <v>216</v>
       </c>
@@ -15647,7 +15692,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="224" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A224" s="15">
         <v>217</v>
       </c>
@@ -15681,7 +15726,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="225" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A225" s="15">
         <v>218</v>
       </c>
@@ -15715,7 +15760,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="226" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A226" s="15">
         <v>219</v>
       </c>
@@ -15749,7 +15794,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="227" spans="1:20" ht="90.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A227" s="15">
         <v>220</v>
       </c>
@@ -15783,7 +15828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="268.5" hidden="1" customHeight="1">
+    <row r="228" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A228" s="15">
         <v>221</v>
       </c>
@@ -15817,7 +15862,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="229" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A229" s="15">
         <v>222</v>
       </c>
@@ -15851,7 +15896,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="230" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A230" s="15">
         <v>223</v>
       </c>
@@ -15885,7 +15930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="204" hidden="1" customHeight="1">
+    <row r="231" spans="1:20" ht="135.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A231" s="15">
         <v>224</v>
       </c>
@@ -15919,7 +15964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="232" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A232" s="15">
         <v>225</v>
       </c>
@@ -15953,7 +15998,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="233" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A233" s="15">
         <v>226</v>
       </c>
@@ -15987,7 +16032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="234" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A234" s="15">
         <v>227</v>
       </c>
@@ -16021,7 +16066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="235" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A235" s="15">
         <v>228</v>
       </c>
@@ -16055,7 +16100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="236" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A236" s="15">
         <v>229</v>
       </c>
@@ -16089,7 +16134,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="237" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A237" s="15">
         <v>230</v>
       </c>
@@ -16123,7 +16168,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="238" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A238" s="15">
         <v>231</v>
       </c>
@@ -16157,7 +16202,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="239" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A239" s="15">
         <v>232</v>
       </c>
@@ -16191,7 +16236,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="240" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A240" s="15">
         <v>233</v>
       </c>
@@ -16225,7 +16270,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="241" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A241" s="15">
         <v>234</v>
       </c>
@@ -16259,7 +16304,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="242" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A242" s="15">
         <v>235</v>
       </c>
@@ -16293,7 +16338,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="243" spans="1:20" ht="90.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A243" s="15">
         <v>236</v>
       </c>
@@ -16327,7 +16372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="244" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A244" s="15">
         <v>237</v>
       </c>
@@ -16361,7 +16406,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="245" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A245" s="15">
         <v>238</v>
       </c>
@@ -16395,7 +16440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="246" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A246" s="15">
         <v>239</v>
       </c>
@@ -16429,7 +16474,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="247" spans="1:20" ht="135.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A247" s="15">
         <v>240</v>
       </c>
@@ -16463,7 +16508,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="248" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A248" s="15">
         <v>241</v>
       </c>
@@ -16497,7 +16542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="249" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A249" s="15">
         <v>242</v>
       </c>
@@ -16531,7 +16576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="250" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A250" s="15">
         <v>243</v>
       </c>
@@ -16565,7 +16610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="251" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A251" s="15">
         <v>244</v>
       </c>
@@ -16599,7 +16644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="252" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A252" s="15">
         <v>245</v>
       </c>
@@ -16633,7 +16678,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="253" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A253" s="15">
         <v>246</v>
       </c>
@@ -16667,7 +16712,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="254" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A254" s="15">
         <v>247</v>
       </c>
@@ -16701,7 +16746,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="255" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A255" s="15">
         <v>248</v>
       </c>
@@ -16735,7 +16780,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="256" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A256" s="15">
         <v>249</v>
       </c>
@@ -16769,7 +16814,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="257" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A257" s="15">
         <v>250</v>
       </c>
@@ -16803,7 +16848,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="258" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A258" s="15">
         <v>251</v>
       </c>
@@ -16837,7 +16882,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="259" spans="1:20" ht="90.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A259" s="15">
         <v>252</v>
       </c>
@@ -16871,7 +16916,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="260" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A260" s="15">
         <v>253</v>
       </c>
@@ -16905,7 +16950,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="261" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A261" s="15">
         <v>254</v>
       </c>
@@ -16939,7 +16984,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="262" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A262" s="15">
         <v>255</v>
       </c>
@@ -16973,7 +17018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="263" spans="1:20" ht="135.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A263" s="15">
         <v>256</v>
       </c>
@@ -17007,7 +17052,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="264" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A264" s="15">
         <v>257</v>
       </c>
@@ -17041,7 +17086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="265" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A265" s="15">
         <v>258</v>
       </c>
@@ -17075,7 +17120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="266" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A266" s="15">
         <v>259</v>
       </c>
@@ -17109,7 +17154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="267" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A267" s="15">
         <v>260</v>
       </c>
@@ -17143,7 +17188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="268" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A268" s="15">
         <v>261</v>
       </c>
@@ -17177,7 +17222,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="269" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A269" s="15">
         <v>262</v>
       </c>
@@ -17211,7 +17256,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="270" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A270" s="15">
         <v>263</v>
       </c>
@@ -17245,7 +17290,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="271" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A271" s="15">
         <v>264</v>
       </c>
@@ -17279,7 +17324,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="272" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A272" s="15">
         <v>265</v>
       </c>
@@ -17313,7 +17358,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="273" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A273" s="15">
         <v>266</v>
       </c>
@@ -17347,7 +17392,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="274" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A274" s="15">
         <v>267</v>
       </c>
@@ -17381,7 +17426,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="275" spans="1:20" ht="90.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A275" s="15">
         <v>268</v>
       </c>
@@ -17415,7 +17460,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="276" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A276" s="15">
         <v>269</v>
       </c>
@@ -17449,7 +17494,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="277" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A277" s="15">
         <v>270</v>
       </c>
@@ -17483,7 +17528,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="278" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A278" s="15">
         <v>271</v>
       </c>
@@ -17517,7 +17562,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="237" hidden="1" customHeight="1">
+    <row r="279" spans="1:20" ht="135.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A279" s="15">
         <v>272</v>
       </c>
@@ -17551,7 +17596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="280" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A280" s="15">
         <v>273</v>
       </c>
@@ -17585,7 +17630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="281" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A281" s="15">
         <v>274</v>
       </c>
@@ -17619,7 +17664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="282" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A282" s="15">
         <v>275</v>
       </c>
@@ -17653,7 +17698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="283" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A283" s="15">
         <v>276</v>
       </c>
@@ -17687,7 +17732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="284" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A284" s="15">
         <v>277</v>
       </c>
@@ -17721,7 +17766,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="285" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A285" s="15">
         <v>278</v>
       </c>
@@ -17755,7 +17800,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="286" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A286" s="15">
         <v>279</v>
       </c>
@@ -17789,7 +17834,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="287" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A287" s="15">
         <v>280</v>
       </c>
@@ -17823,7 +17868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="288" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A288" s="15">
         <v>281</v>
       </c>
@@ -17857,7 +17902,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="289" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A289" s="15">
         <v>282</v>
       </c>
@@ -17891,7 +17936,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="290" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A290" s="15">
         <v>283</v>
       </c>
@@ -17925,7 +17970,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="291" spans="1:20" ht="90.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A291" s="15">
         <v>284</v>
       </c>
@@ -17959,7 +18004,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="292" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A292" s="15">
         <v>285</v>
       </c>
@@ -17993,7 +18038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="293" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A293" s="15">
         <v>286</v>
       </c>
@@ -18027,7 +18072,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="263.25" hidden="1" customHeight="1">
+    <row r="294" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A294" s="15">
         <v>287</v>
       </c>
@@ -18061,7 +18106,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="264" hidden="1" customHeight="1">
+    <row r="295" spans="1:20" ht="135.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A295" s="15">
         <v>288</v>
       </c>
@@ -18095,7 +18140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="296" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A296" s="15">
         <v>289</v>
       </c>
@@ -18129,7 +18174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="297" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A297" s="15">
         <v>290</v>
       </c>
@@ -18163,7 +18208,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="298" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A298" s="15">
         <v>291</v>
       </c>
@@ -18197,7 +18242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="299" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A299" s="15">
         <v>292</v>
       </c>
@@ -18231,7 +18276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="300" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A300" s="15">
         <v>293</v>
       </c>
@@ -18265,7 +18310,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="301" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A301" s="15">
         <v>294</v>
       </c>
@@ -18299,7 +18344,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="302" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A302" s="15">
         <v>295</v>
       </c>
@@ -18333,7 +18378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="303" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A303" s="15">
         <v>296</v>
       </c>
@@ -18367,7 +18412,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="304" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A304" s="15">
         <v>297</v>
       </c>
@@ -18401,7 +18446,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="305" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A305" s="15">
         <v>298</v>
       </c>
@@ -18435,7 +18480,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="306" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A306" s="15">
         <v>299</v>
       </c>
@@ -18469,7 +18514,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="307" spans="1:20" ht="90.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A307" s="15">
         <v>300</v>
       </c>
@@ -18503,7 +18548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="308" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A308" s="15">
         <v>301</v>
       </c>
@@ -18537,7 +18582,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="309" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A309" s="15">
         <v>302</v>
       </c>
@@ -18571,7 +18616,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="310" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A310" s="15">
         <v>303</v>
       </c>
@@ -18605,7 +18650,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="311" spans="1:20" ht="135.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A311" s="15">
         <v>304</v>
       </c>
@@ -18639,7 +18684,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="312" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A312" s="15">
         <v>305</v>
       </c>
@@ -18673,7 +18718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="313" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A313" s="15">
         <v>306</v>
       </c>
@@ -18707,7 +18752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="314" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A314" s="15">
         <v>307</v>
       </c>
@@ -18741,7 +18786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="315" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A315" s="15">
         <v>308</v>
       </c>
@@ -18775,7 +18820,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="316" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A316" s="15">
         <v>309</v>
       </c>
@@ -18809,7 +18854,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="317" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A317" s="15">
         <v>310</v>
       </c>
@@ -18843,7 +18888,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="318" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A318" s="15">
         <v>311</v>
       </c>
@@ -18877,7 +18922,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="319" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A319" s="15">
         <v>312</v>
       </c>
@@ -18911,7 +18956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="320" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A320" s="15">
         <v>313</v>
       </c>
@@ -18945,7 +18990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="321" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A321" s="15">
         <v>314</v>
       </c>
@@ -18979,7 +19024,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="322" spans="1:20" ht="165.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A322" s="15">
         <v>315</v>
       </c>
@@ -19013,7 +19058,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="323" spans="1:20" ht="90.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A323" s="15">
         <v>316</v>
       </c>
@@ -19047,7 +19092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="253.5" hidden="1" customHeight="1">
+    <row r="324" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A324" s="15">
         <v>317</v>
       </c>
@@ -19081,7 +19126,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="282.75" hidden="1" customHeight="1">
+    <row r="325" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A325" s="15">
         <v>318</v>
       </c>
@@ -19115,7 +19160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="326" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A326" s="15">
         <v>319</v>
       </c>
@@ -19149,7 +19194,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="327" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A327" s="15">
         <v>320</v>
       </c>
@@ -19183,7 +19228,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="328" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A328" s="15">
         <v>321</v>
       </c>
@@ -19217,7 +19262,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="329" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A329" s="15">
         <v>322</v>
       </c>
@@ -19251,7 +19296,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="330" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A330" s="15">
         <v>323</v>
       </c>
@@ -19285,7 +19330,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="331" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A331" s="15">
         <v>324</v>
       </c>
@@ -19319,7 +19364,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="332" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A332" s="15">
         <v>325</v>
       </c>
@@ -19353,7 +19398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="333" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A333" s="15">
         <v>326</v>
       </c>
@@ -19387,7 +19432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="334" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A334" s="15">
         <v>327</v>
       </c>
@@ -19421,7 +19466,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="335" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A335" s="15">
         <v>328</v>
       </c>
@@ -19455,7 +19500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="336" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="336" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A336" s="15">
         <v>329</v>
       </c>
@@ -19489,7 +19534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="337" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A337" s="15">
         <v>330</v>
       </c>
@@ -19523,7 +19568,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="338" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="338" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A338" s="15">
         <v>331</v>
       </c>
@@ -19557,7 +19602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="339" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A339" s="15">
         <v>332</v>
       </c>
@@ -19591,7 +19636,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="340" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A340" s="15">
         <v>333</v>
       </c>
@@ -19625,7 +19670,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="341" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A341" s="15">
         <v>334</v>
       </c>
@@ -19659,7 +19704,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="342" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A342" s="15">
         <v>335</v>
       </c>
@@ -19693,7 +19738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="343" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A343" s="15">
         <v>336</v>
       </c>
@@ -19727,7 +19772,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="344" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A344" s="15">
         <v>337</v>
       </c>
@@ -19761,7 +19806,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="345" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A345" s="15">
         <v>338</v>
       </c>
@@ -19795,7 +19840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="346" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A346" s="15">
         <v>339</v>
       </c>
@@ -19829,7 +19874,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="347" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A347" s="15">
         <v>340</v>
       </c>
@@ -19863,7 +19908,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="348" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A348" s="15">
         <v>341</v>
       </c>
@@ -19897,7 +19942,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="349" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A349" s="15">
         <v>342</v>
       </c>
@@ -19931,7 +19976,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="350" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A350" s="15">
         <v>343</v>
       </c>
@@ -19965,7 +20010,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="351" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A351" s="15">
         <v>344</v>
       </c>
@@ -19999,7 +20044,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="352" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A352" s="15">
         <v>345</v>
       </c>
@@ -20033,7 +20078,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="353" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A353" s="15">
         <v>346</v>
       </c>
@@ -20067,7 +20112,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="354" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A354" s="15">
         <v>347</v>
       </c>
@@ -20101,7 +20146,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="355" spans="1:20" ht="225.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A355" s="15">
         <v>348</v>
       </c>
@@ -20135,7 +20180,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="356" spans="1:20" ht="195.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A356" s="15">
         <v>349</v>
       </c>
@@ -20169,7 +20214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="357" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A357" s="15">
         <v>350</v>
       </c>
@@ -20203,7 +20248,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="358" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A358" s="15">
         <v>351</v>
       </c>
@@ -20237,7 +20282,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="359" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A359" s="15">
         <v>352</v>
       </c>
@@ -20271,7 +20316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="360" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A360" s="15">
         <v>353</v>
       </c>
@@ -20305,7 +20350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="361" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A361" s="15">
         <v>354</v>
       </c>
@@ -20339,7 +20384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="362" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A362" s="15">
         <v>355</v>
       </c>
@@ -20373,7 +20418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="363" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A363" s="15">
         <v>356</v>
       </c>
@@ -20407,7 +20452,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="364" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A364" s="15">
         <v>357</v>
       </c>
@@ -20441,7 +20486,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="365" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A365" s="15">
         <v>358</v>
       </c>
@@ -20475,7 +20520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="366" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A366" s="15">
         <v>359</v>
       </c>
@@ -20509,7 +20554,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="367" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A367" s="15">
         <v>360</v>
       </c>
@@ -20543,7 +20588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="368" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A368" s="15">
         <v>361</v>
       </c>
@@ -20577,7 +20622,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="369" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A369" s="15">
         <v>362</v>
       </c>
@@ -20611,7 +20656,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="370" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A370" s="15">
         <v>363</v>
       </c>
@@ -20645,7 +20690,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="371" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A371" s="15">
         <v>364</v>
       </c>
@@ -20679,7 +20724,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="372" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A372" s="15">
         <v>365</v>
       </c>
@@ -20713,7 +20758,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="373" spans="1:20" ht="210.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A373" s="15">
         <v>366</v>
       </c>
@@ -20747,7 +20792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="374" spans="1:20" ht="180.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A374" s="15">
         <v>367</v>
       </c>
@@ -20781,7 +20826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="14.25" customHeight="1">
+    <row r="375" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A375" s="15">
         <v>368</v>
       </c>
@@ -20801,13 +20846,13 @@
         <v>45295</v>
       </c>
       <c r="G375" s="19" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="H375" s="19" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I375" s="19" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="J375" s="20" t="s">
         <v>139</v>
@@ -20817,7 +20862,7 @@
       <c r="M375" s="20"/>
       <c r="N375" s="20"/>
       <c r="O375" s="20"/>
-      <c r="P375" s="20"/>
+      <c r="P375" s="48"/>
       <c r="Q375" s="20" t="s">
         <v>846</v>
       </c>
@@ -20827,7 +20872,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="376" spans="1:20" ht="105.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A376" s="15">
         <v>369</v>
       </c>
@@ -20861,7 +20906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="377" spans="1:20" ht="105.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A377" s="15">
         <v>370</v>
       </c>
@@ -20895,7 +20940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="378" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="378" spans="1:20" ht="105.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A378" s="15">
         <v>371</v>
       </c>
@@ -20929,7 +20974,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="379" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="379" spans="1:20" ht="105.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A379" s="15">
         <v>372</v>
       </c>
@@ -20963,7 +21008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="380" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="380" spans="1:20" ht="105.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A380" s="15">
         <v>373</v>
       </c>
@@ -20997,7 +21042,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="381" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A381" s="15">
         <v>374</v>
       </c>
@@ -21031,7 +21076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="382" spans="1:20" ht="120.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A382" s="15">
         <v>375</v>
       </c>
@@ -21089,13 +21134,13 @@
         <v>848</v>
       </c>
       <c r="K383" s="20" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="L383" s="20"/>
       <c r="M383" s="20"/>
       <c r="N383" s="20"/>
       <c r="O383" s="20"/>
-      <c r="P383" s="20"/>
+      <c r="P383" s="48"/>
       <c r="Q383" s="20" t="s">
         <v>846</v>
       </c>
@@ -21116,7 +21161,7 @@
       <c r="M384" s="8"/>
       <c r="N384" s="8"/>
       <c r="O384" s="8"/>
-      <c r="P384" s="8"/>
+      <c r="P384" s="49"/>
       <c r="Q384" s="8"/>
       <c r="R384" s="9"/>
       <c r="S384" s="1"/>
@@ -21133,7 +21178,7 @@
       <c r="M385" s="8"/>
       <c r="N385" s="8"/>
       <c r="O385" s="8"/>
-      <c r="P385" s="8"/>
+      <c r="P385" s="49"/>
       <c r="Q385" s="8"/>
       <c r="R385" s="9"/>
       <c r="S385" s="1"/>
@@ -21150,7 +21195,7 @@
       <c r="M386" s="8"/>
       <c r="N386" s="8"/>
       <c r="O386" s="8"/>
-      <c r="P386" s="8"/>
+      <c r="P386" s="49"/>
       <c r="Q386" s="8"/>
       <c r="R386" s="9"/>
       <c r="S386" s="1"/>
@@ -21167,7 +21212,7 @@
       <c r="M387" s="8"/>
       <c r="N387" s="8"/>
       <c r="O387" s="8"/>
-      <c r="P387" s="8"/>
+      <c r="P387" s="49"/>
       <c r="Q387" s="8"/>
       <c r="R387" s="9"/>
       <c r="S387" s="1"/>
@@ -21184,7 +21229,7 @@
       <c r="M388" s="8"/>
       <c r="N388" s="8"/>
       <c r="O388" s="8"/>
-      <c r="P388" s="8"/>
+      <c r="P388" s="49"/>
       <c r="Q388" s="8"/>
       <c r="R388" s="9"/>
       <c r="S388" s="1"/>
@@ -21201,7 +21246,7 @@
       <c r="M389" s="8"/>
       <c r="N389" s="8"/>
       <c r="O389" s="8"/>
-      <c r="P389" s="8"/>
+      <c r="P389" s="49"/>
       <c r="Q389" s="8"/>
       <c r="R389" s="9"/>
       <c r="S389" s="1"/>
@@ -21218,7 +21263,7 @@
       <c r="M390" s="8"/>
       <c r="N390" s="8"/>
       <c r="O390" s="8"/>
-      <c r="P390" s="8"/>
+      <c r="P390" s="49"/>
       <c r="Q390" s="8"/>
       <c r="R390" s="9"/>
       <c r="S390" s="1"/>
@@ -21235,7 +21280,7 @@
       <c r="M391" s="8"/>
       <c r="N391" s="8"/>
       <c r="O391" s="8"/>
-      <c r="P391" s="8"/>
+      <c r="P391" s="49"/>
       <c r="Q391" s="8"/>
       <c r="R391" s="9"/>
       <c r="S391" s="1"/>
@@ -21252,7 +21297,7 @@
       <c r="M392" s="8"/>
       <c r="N392" s="8"/>
       <c r="O392" s="8"/>
-      <c r="P392" s="8"/>
+      <c r="P392" s="49"/>
       <c r="Q392" s="8"/>
       <c r="R392" s="9"/>
       <c r="S392" s="1"/>
@@ -21269,7 +21314,7 @@
       <c r="M393" s="8"/>
       <c r="N393" s="8"/>
       <c r="O393" s="8"/>
-      <c r="P393" s="8"/>
+      <c r="P393" s="49"/>
       <c r="Q393" s="8"/>
       <c r="R393" s="9"/>
       <c r="S393" s="1"/>
@@ -21286,7 +21331,7 @@
       <c r="M394" s="8"/>
       <c r="N394" s="8"/>
       <c r="O394" s="8"/>
-      <c r="P394" s="8"/>
+      <c r="P394" s="49"/>
       <c r="Q394" s="8"/>
       <c r="R394" s="9"/>
       <c r="S394" s="1"/>
@@ -21303,7 +21348,7 @@
       <c r="M395" s="8"/>
       <c r="N395" s="8"/>
       <c r="O395" s="8"/>
-      <c r="P395" s="8"/>
+      <c r="P395" s="49"/>
       <c r="Q395" s="8"/>
       <c r="R395" s="9"/>
       <c r="S395" s="1"/>
@@ -21320,7 +21365,7 @@
       <c r="M396" s="8"/>
       <c r="N396" s="8"/>
       <c r="O396" s="8"/>
-      <c r="P396" s="8"/>
+      <c r="P396" s="49"/>
       <c r="Q396" s="8"/>
       <c r="R396" s="9"/>
       <c r="S396" s="1"/>
@@ -21337,7 +21382,7 @@
       <c r="M397" s="8"/>
       <c r="N397" s="8"/>
       <c r="O397" s="8"/>
-      <c r="P397" s="8"/>
+      <c r="P397" s="49"/>
       <c r="Q397" s="8"/>
       <c r="R397" s="9"/>
       <c r="S397" s="1"/>
@@ -21354,7 +21399,7 @@
       <c r="M398" s="8"/>
       <c r="N398" s="8"/>
       <c r="O398" s="8"/>
-      <c r="P398" s="8"/>
+      <c r="P398" s="49"/>
       <c r="Q398" s="8"/>
       <c r="R398" s="9"/>
       <c r="S398" s="1"/>
@@ -21371,7 +21416,7 @@
       <c r="M399" s="8"/>
       <c r="N399" s="8"/>
       <c r="O399" s="8"/>
-      <c r="P399" s="8"/>
+      <c r="P399" s="49"/>
       <c r="Q399" s="8"/>
       <c r="R399" s="9"/>
       <c r="S399" s="1"/>
@@ -21388,7 +21433,7 @@
       <c r="M400" s="8"/>
       <c r="N400" s="8"/>
       <c r="O400" s="8"/>
-      <c r="P400" s="8"/>
+      <c r="P400" s="49"/>
       <c r="Q400" s="8"/>
       <c r="R400" s="9"/>
       <c r="S400" s="1"/>
@@ -21405,7 +21450,7 @@
       <c r="M401" s="8"/>
       <c r="N401" s="8"/>
       <c r="O401" s="8"/>
-      <c r="P401" s="8"/>
+      <c r="P401" s="49"/>
       <c r="Q401" s="8"/>
       <c r="R401" s="9"/>
       <c r="S401" s="1"/>
@@ -21422,7 +21467,7 @@
       <c r="M402" s="8"/>
       <c r="N402" s="8"/>
       <c r="O402" s="8"/>
-      <c r="P402" s="8"/>
+      <c r="P402" s="49"/>
       <c r="Q402" s="8"/>
       <c r="R402" s="9"/>
       <c r="S402" s="1"/>
@@ -21439,7 +21484,7 @@
       <c r="M403" s="8"/>
       <c r="N403" s="8"/>
       <c r="O403" s="8"/>
-      <c r="P403" s="8"/>
+      <c r="P403" s="49"/>
       <c r="Q403" s="8"/>
       <c r="R403" s="9"/>
       <c r="S403" s="1"/>
@@ -21456,7 +21501,7 @@
       <c r="M404" s="8"/>
       <c r="N404" s="8"/>
       <c r="O404" s="8"/>
-      <c r="P404" s="8"/>
+      <c r="P404" s="49"/>
       <c r="Q404" s="8"/>
       <c r="R404" s="9"/>
       <c r="S404" s="1"/>
@@ -21473,7 +21518,7 @@
       <c r="M405" s="8"/>
       <c r="N405" s="8"/>
       <c r="O405" s="8"/>
-      <c r="P405" s="8"/>
+      <c r="P405" s="49"/>
       <c r="Q405" s="8"/>
       <c r="R405" s="9"/>
       <c r="S405" s="1"/>
@@ -21490,7 +21535,7 @@
       <c r="M406" s="8"/>
       <c r="N406" s="8"/>
       <c r="O406" s="8"/>
-      <c r="P406" s="8"/>
+      <c r="P406" s="49"/>
       <c r="Q406" s="8"/>
       <c r="R406" s="9"/>
       <c r="S406" s="1"/>
@@ -21507,7 +21552,7 @@
       <c r="M407" s="8"/>
       <c r="N407" s="8"/>
       <c r="O407" s="8"/>
-      <c r="P407" s="8"/>
+      <c r="P407" s="49"/>
       <c r="Q407" s="8"/>
       <c r="R407" s="9"/>
       <c r="S407" s="1"/>
@@ -21524,7 +21569,7 @@
       <c r="M408" s="8"/>
       <c r="N408" s="8"/>
       <c r="O408" s="8"/>
-      <c r="P408" s="8"/>
+      <c r="P408" s="49"/>
       <c r="Q408" s="8"/>
       <c r="R408" s="9"/>
       <c r="S408" s="1"/>
@@ -21541,7 +21586,7 @@
       <c r="M409" s="8"/>
       <c r="N409" s="8"/>
       <c r="O409" s="8"/>
-      <c r="P409" s="8"/>
+      <c r="P409" s="49"/>
       <c r="Q409" s="8"/>
       <c r="R409" s="9"/>
       <c r="S409" s="1"/>
@@ -21558,7 +21603,7 @@
       <c r="M410" s="8"/>
       <c r="N410" s="8"/>
       <c r="O410" s="8"/>
-      <c r="P410" s="8"/>
+      <c r="P410" s="49"/>
       <c r="Q410" s="8"/>
       <c r="R410" s="9"/>
       <c r="S410" s="1"/>
@@ -21575,7 +21620,7 @@
       <c r="M411" s="8"/>
       <c r="N411" s="8"/>
       <c r="O411" s="8"/>
-      <c r="P411" s="8"/>
+      <c r="P411" s="49"/>
       <c r="Q411" s="8"/>
       <c r="R411" s="9"/>
       <c r="S411" s="1"/>
@@ -21592,7 +21637,7 @@
       <c r="M412" s="8"/>
       <c r="N412" s="8"/>
       <c r="O412" s="8"/>
-      <c r="P412" s="8"/>
+      <c r="P412" s="49"/>
       <c r="Q412" s="8"/>
       <c r="R412" s="9"/>
       <c r="S412" s="1"/>
@@ -21609,7 +21654,7 @@
       <c r="M413" s="8"/>
       <c r="N413" s="8"/>
       <c r="O413" s="8"/>
-      <c r="P413" s="8"/>
+      <c r="P413" s="49"/>
       <c r="Q413" s="8"/>
       <c r="R413" s="9"/>
       <c r="S413" s="1"/>
@@ -21626,7 +21671,7 @@
       <c r="M414" s="8"/>
       <c r="N414" s="8"/>
       <c r="O414" s="8"/>
-      <c r="P414" s="8"/>
+      <c r="P414" s="49"/>
       <c r="Q414" s="8"/>
       <c r="R414" s="9"/>
       <c r="S414" s="1"/>
@@ -21643,7 +21688,7 @@
       <c r="M415" s="8"/>
       <c r="N415" s="8"/>
       <c r="O415" s="8"/>
-      <c r="P415" s="8"/>
+      <c r="P415" s="49"/>
       <c r="Q415" s="8"/>
       <c r="R415" s="9"/>
       <c r="S415" s="1"/>
@@ -21660,7 +21705,7 @@
       <c r="M416" s="8"/>
       <c r="N416" s="8"/>
       <c r="O416" s="8"/>
-      <c r="P416" s="8"/>
+      <c r="P416" s="49"/>
       <c r="Q416" s="8"/>
       <c r="R416" s="9"/>
       <c r="S416" s="1"/>
@@ -21677,7 +21722,7 @@
       <c r="M417" s="8"/>
       <c r="N417" s="8"/>
       <c r="O417" s="8"/>
-      <c r="P417" s="8"/>
+      <c r="P417" s="49"/>
       <c r="Q417" s="8"/>
       <c r="R417" s="9"/>
       <c r="S417" s="1"/>
@@ -21694,7 +21739,7 @@
       <c r="M418" s="8"/>
       <c r="N418" s="8"/>
       <c r="O418" s="8"/>
-      <c r="P418" s="8"/>
+      <c r="P418" s="49"/>
       <c r="Q418" s="8"/>
       <c r="R418" s="9"/>
       <c r="S418" s="1"/>
@@ -21711,7 +21756,7 @@
       <c r="M419" s="8"/>
       <c r="N419" s="8"/>
       <c r="O419" s="8"/>
-      <c r="P419" s="8"/>
+      <c r="P419" s="49"/>
       <c r="Q419" s="8"/>
       <c r="R419" s="9"/>
       <c r="S419" s="1"/>
@@ -21728,7 +21773,7 @@
       <c r="M420" s="8"/>
       <c r="N420" s="8"/>
       <c r="O420" s="8"/>
-      <c r="P420" s="8"/>
+      <c r="P420" s="49"/>
       <c r="Q420" s="8"/>
       <c r="R420" s="9"/>
       <c r="S420" s="1"/>
@@ -21745,7 +21790,7 @@
       <c r="M421" s="8"/>
       <c r="N421" s="8"/>
       <c r="O421" s="8"/>
-      <c r="P421" s="8"/>
+      <c r="P421" s="49"/>
       <c r="Q421" s="8"/>
       <c r="R421" s="9"/>
       <c r="S421" s="1"/>
@@ -21762,7 +21807,7 @@
       <c r="M422" s="8"/>
       <c r="N422" s="8"/>
       <c r="O422" s="8"/>
-      <c r="P422" s="8"/>
+      <c r="P422" s="49"/>
       <c r="Q422" s="8"/>
       <c r="R422" s="9"/>
       <c r="S422" s="1"/>
@@ -21779,7 +21824,7 @@
       <c r="M423" s="8"/>
       <c r="N423" s="8"/>
       <c r="O423" s="8"/>
-      <c r="P423" s="8"/>
+      <c r="P423" s="49"/>
       <c r="Q423" s="8"/>
       <c r="R423" s="9"/>
       <c r="S423" s="1"/>
@@ -21796,7 +21841,7 @@
       <c r="M424" s="8"/>
       <c r="N424" s="8"/>
       <c r="O424" s="8"/>
-      <c r="P424" s="8"/>
+      <c r="P424" s="49"/>
       <c r="Q424" s="8"/>
       <c r="R424" s="9"/>
       <c r="S424" s="1"/>
@@ -21813,7 +21858,7 @@
       <c r="M425" s="8"/>
       <c r="N425" s="8"/>
       <c r="O425" s="8"/>
-      <c r="P425" s="8"/>
+      <c r="P425" s="49"/>
       <c r="Q425" s="8"/>
       <c r="R425" s="9"/>
       <c r="S425" s="1"/>
@@ -21830,7 +21875,7 @@
       <c r="M426" s="8"/>
       <c r="N426" s="8"/>
       <c r="O426" s="8"/>
-      <c r="P426" s="8"/>
+      <c r="P426" s="49"/>
       <c r="Q426" s="8"/>
       <c r="R426" s="9"/>
       <c r="S426" s="1"/>
@@ -21847,7 +21892,7 @@
       <c r="M427" s="8"/>
       <c r="N427" s="8"/>
       <c r="O427" s="8"/>
-      <c r="P427" s="8"/>
+      <c r="P427" s="49"/>
       <c r="Q427" s="8"/>
       <c r="R427" s="9"/>
       <c r="S427" s="1"/>
@@ -21864,7 +21909,7 @@
       <c r="M428" s="8"/>
       <c r="N428" s="8"/>
       <c r="O428" s="8"/>
-      <c r="P428" s="8"/>
+      <c r="P428" s="49"/>
       <c r="Q428" s="8"/>
       <c r="R428" s="9"/>
       <c r="S428" s="1"/>
@@ -21881,7 +21926,7 @@
       <c r="M429" s="8"/>
       <c r="N429" s="8"/>
       <c r="O429" s="8"/>
-      <c r="P429" s="8"/>
+      <c r="P429" s="49"/>
       <c r="Q429" s="8"/>
       <c r="R429" s="9"/>
       <c r="S429" s="1"/>
@@ -21898,7 +21943,7 @@
       <c r="M430" s="8"/>
       <c r="N430" s="8"/>
       <c r="O430" s="8"/>
-      <c r="P430" s="8"/>
+      <c r="P430" s="49"/>
       <c r="Q430" s="8"/>
       <c r="R430" s="9"/>
       <c r="S430" s="1"/>
@@ -21915,7 +21960,7 @@
       <c r="M431" s="8"/>
       <c r="N431" s="8"/>
       <c r="O431" s="8"/>
-      <c r="P431" s="8"/>
+      <c r="P431" s="49"/>
       <c r="Q431" s="8"/>
       <c r="R431" s="9"/>
       <c r="S431" s="1"/>
@@ -21932,7 +21977,7 @@
       <c r="M432" s="8"/>
       <c r="N432" s="8"/>
       <c r="O432" s="8"/>
-      <c r="P432" s="8"/>
+      <c r="P432" s="49"/>
       <c r="Q432" s="8"/>
       <c r="R432" s="9"/>
       <c r="S432" s="1"/>
@@ -21949,7 +21994,7 @@
       <c r="M433" s="8"/>
       <c r="N433" s="8"/>
       <c r="O433" s="8"/>
-      <c r="P433" s="8"/>
+      <c r="P433" s="49"/>
       <c r="Q433" s="8"/>
       <c r="R433" s="9"/>
       <c r="S433" s="1"/>
@@ -21966,7 +22011,7 @@
       <c r="M434" s="8"/>
       <c r="N434" s="8"/>
       <c r="O434" s="8"/>
-      <c r="P434" s="8"/>
+      <c r="P434" s="49"/>
       <c r="Q434" s="8"/>
       <c r="R434" s="9"/>
       <c r="S434" s="1"/>
@@ -21983,7 +22028,7 @@
       <c r="M435" s="8"/>
       <c r="N435" s="8"/>
       <c r="O435" s="8"/>
-      <c r="P435" s="8"/>
+      <c r="P435" s="49"/>
       <c r="Q435" s="8"/>
       <c r="R435" s="9"/>
       <c r="S435" s="1"/>
@@ -22000,7 +22045,7 @@
       <c r="M436" s="8"/>
       <c r="N436" s="8"/>
       <c r="O436" s="8"/>
-      <c r="P436" s="8"/>
+      <c r="P436" s="49"/>
       <c r="Q436" s="8"/>
       <c r="R436" s="9"/>
       <c r="S436" s="1"/>
@@ -22017,7 +22062,7 @@
       <c r="M437" s="8"/>
       <c r="N437" s="8"/>
       <c r="O437" s="8"/>
-      <c r="P437" s="8"/>
+      <c r="P437" s="49"/>
       <c r="Q437" s="8"/>
       <c r="R437" s="9"/>
       <c r="S437" s="1"/>
@@ -22034,7 +22079,7 @@
       <c r="M438" s="8"/>
       <c r="N438" s="8"/>
       <c r="O438" s="8"/>
-      <c r="P438" s="8"/>
+      <c r="P438" s="49"/>
       <c r="Q438" s="8"/>
       <c r="R438" s="9"/>
       <c r="S438" s="1"/>
@@ -22051,7 +22096,7 @@
       <c r="M439" s="8"/>
       <c r="N439" s="8"/>
       <c r="O439" s="8"/>
-      <c r="P439" s="8"/>
+      <c r="P439" s="49"/>
       <c r="Q439" s="8"/>
       <c r="R439" s="9"/>
       <c r="S439" s="1"/>
@@ -22068,7 +22113,7 @@
       <c r="M440" s="8"/>
       <c r="N440" s="8"/>
       <c r="O440" s="8"/>
-      <c r="P440" s="8"/>
+      <c r="P440" s="49"/>
       <c r="Q440" s="8"/>
       <c r="R440" s="9"/>
       <c r="S440" s="1"/>
@@ -22085,7 +22130,7 @@
       <c r="M441" s="8"/>
       <c r="N441" s="8"/>
       <c r="O441" s="8"/>
-      <c r="P441" s="8"/>
+      <c r="P441" s="49"/>
       <c r="Q441" s="8"/>
       <c r="R441" s="9"/>
       <c r="S441" s="1"/>
@@ -22102,7 +22147,7 @@
       <c r="M442" s="8"/>
       <c r="N442" s="8"/>
       <c r="O442" s="8"/>
-      <c r="P442" s="8"/>
+      <c r="P442" s="49"/>
       <c r="Q442" s="8"/>
       <c r="R442" s="9"/>
       <c r="S442" s="1"/>
@@ -22119,7 +22164,7 @@
       <c r="M443" s="8"/>
       <c r="N443" s="8"/>
       <c r="O443" s="8"/>
-      <c r="P443" s="8"/>
+      <c r="P443" s="49"/>
       <c r="Q443" s="8"/>
       <c r="R443" s="9"/>
       <c r="S443" s="1"/>
@@ -22136,7 +22181,7 @@
       <c r="M444" s="8"/>
       <c r="N444" s="8"/>
       <c r="O444" s="8"/>
-      <c r="P444" s="8"/>
+      <c r="P444" s="49"/>
       <c r="Q444" s="8"/>
       <c r="R444" s="9"/>
       <c r="S444" s="1"/>
@@ -22153,7 +22198,7 @@
       <c r="M445" s="8"/>
       <c r="N445" s="8"/>
       <c r="O445" s="8"/>
-      <c r="P445" s="8"/>
+      <c r="P445" s="49"/>
       <c r="Q445" s="8"/>
       <c r="R445" s="9"/>
       <c r="S445" s="1"/>
@@ -22170,7 +22215,7 @@
       <c r="M446" s="8"/>
       <c r="N446" s="8"/>
       <c r="O446" s="8"/>
-      <c r="P446" s="8"/>
+      <c r="P446" s="49"/>
       <c r="Q446" s="8"/>
       <c r="R446" s="9"/>
       <c r="S446" s="1"/>
@@ -22187,7 +22232,7 @@
       <c r="M447" s="8"/>
       <c r="N447" s="8"/>
       <c r="O447" s="8"/>
-      <c r="P447" s="8"/>
+      <c r="P447" s="49"/>
       <c r="Q447" s="8"/>
       <c r="R447" s="9"/>
       <c r="S447" s="1"/>
@@ -22204,7 +22249,7 @@
       <c r="M448" s="8"/>
       <c r="N448" s="8"/>
       <c r="O448" s="8"/>
-      <c r="P448" s="8"/>
+      <c r="P448" s="49"/>
       <c r="Q448" s="8"/>
       <c r="R448" s="9"/>
       <c r="S448" s="1"/>
@@ -22221,7 +22266,7 @@
       <c r="M449" s="8"/>
       <c r="N449" s="8"/>
       <c r="O449" s="8"/>
-      <c r="P449" s="8"/>
+      <c r="P449" s="49"/>
       <c r="Q449" s="8"/>
       <c r="R449" s="9"/>
       <c r="S449" s="1"/>
@@ -22238,7 +22283,7 @@
       <c r="M450" s="8"/>
       <c r="N450" s="8"/>
       <c r="O450" s="8"/>
-      <c r="P450" s="8"/>
+      <c r="P450" s="49"/>
       <c r="Q450" s="8"/>
       <c r="R450" s="9"/>
       <c r="S450" s="1"/>
@@ -22255,7 +22300,7 @@
       <c r="M451" s="8"/>
       <c r="N451" s="8"/>
       <c r="O451" s="8"/>
-      <c r="P451" s="8"/>
+      <c r="P451" s="49"/>
       <c r="Q451" s="8"/>
       <c r="R451" s="9"/>
       <c r="S451" s="1"/>
@@ -22272,7 +22317,7 @@
       <c r="M452" s="8"/>
       <c r="N452" s="8"/>
       <c r="O452" s="8"/>
-      <c r="P452" s="8"/>
+      <c r="P452" s="49"/>
       <c r="Q452" s="8"/>
       <c r="R452" s="9"/>
       <c r="S452" s="1"/>
@@ -22289,7 +22334,7 @@
       <c r="M453" s="8"/>
       <c r="N453" s="8"/>
       <c r="O453" s="8"/>
-      <c r="P453" s="8"/>
+      <c r="P453" s="49"/>
       <c r="Q453" s="8"/>
       <c r="R453" s="9"/>
       <c r="S453" s="1"/>
@@ -22306,7 +22351,7 @@
       <c r="M454" s="8"/>
       <c r="N454" s="8"/>
       <c r="O454" s="8"/>
-      <c r="P454" s="8"/>
+      <c r="P454" s="49"/>
       <c r="Q454" s="8"/>
       <c r="R454" s="9"/>
       <c r="S454" s="1"/>
@@ -22323,7 +22368,7 @@
       <c r="M455" s="8"/>
       <c r="N455" s="8"/>
       <c r="O455" s="8"/>
-      <c r="P455" s="8"/>
+      <c r="P455" s="49"/>
       <c r="Q455" s="8"/>
       <c r="R455" s="9"/>
       <c r="S455" s="1"/>
@@ -22340,7 +22385,7 @@
       <c r="M456" s="8"/>
       <c r="N456" s="8"/>
       <c r="O456" s="8"/>
-      <c r="P456" s="8"/>
+      <c r="P456" s="49"/>
       <c r="Q456" s="8"/>
       <c r="R456" s="9"/>
       <c r="S456" s="1"/>
@@ -22357,7 +22402,7 @@
       <c r="M457" s="8"/>
       <c r="N457" s="8"/>
       <c r="O457" s="8"/>
-      <c r="P457" s="8"/>
+      <c r="P457" s="49"/>
       <c r="Q457" s="8"/>
       <c r="R457" s="9"/>
       <c r="S457" s="1"/>
@@ -22374,7 +22419,7 @@
       <c r="M458" s="8"/>
       <c r="N458" s="8"/>
       <c r="O458" s="8"/>
-      <c r="P458" s="8"/>
+      <c r="P458" s="49"/>
       <c r="Q458" s="8"/>
       <c r="R458" s="9"/>
       <c r="S458" s="1"/>
@@ -22391,7 +22436,7 @@
       <c r="M459" s="8"/>
       <c r="N459" s="8"/>
       <c r="O459" s="8"/>
-      <c r="P459" s="8"/>
+      <c r="P459" s="49"/>
       <c r="Q459" s="8"/>
       <c r="R459" s="9"/>
       <c r="S459" s="1"/>
@@ -22408,7 +22453,7 @@
       <c r="M460" s="8"/>
       <c r="N460" s="8"/>
       <c r="O460" s="8"/>
-      <c r="P460" s="8"/>
+      <c r="P460" s="49"/>
       <c r="Q460" s="8"/>
       <c r="R460" s="9"/>
       <c r="S460" s="1"/>
@@ -22425,7 +22470,7 @@
       <c r="M461" s="8"/>
       <c r="N461" s="8"/>
       <c r="O461" s="8"/>
-      <c r="P461" s="8"/>
+      <c r="P461" s="49"/>
       <c r="Q461" s="8"/>
       <c r="R461" s="9"/>
       <c r="S461" s="1"/>
@@ -22442,7 +22487,7 @@
       <c r="M462" s="8"/>
       <c r="N462" s="8"/>
       <c r="O462" s="8"/>
-      <c r="P462" s="8"/>
+      <c r="P462" s="49"/>
       <c r="Q462" s="8"/>
       <c r="R462" s="9"/>
       <c r="S462" s="1"/>
@@ -22459,7 +22504,7 @@
       <c r="M463" s="8"/>
       <c r="N463" s="8"/>
       <c r="O463" s="8"/>
-      <c r="P463" s="8"/>
+      <c r="P463" s="49"/>
       <c r="Q463" s="8"/>
       <c r="R463" s="9"/>
       <c r="S463" s="1"/>
@@ -22476,7 +22521,7 @@
       <c r="M464" s="8"/>
       <c r="N464" s="8"/>
       <c r="O464" s="8"/>
-      <c r="P464" s="8"/>
+      <c r="P464" s="49"/>
       <c r="Q464" s="8"/>
       <c r="R464" s="9"/>
       <c r="S464" s="1"/>
@@ -22493,7 +22538,7 @@
       <c r="M465" s="8"/>
       <c r="N465" s="8"/>
       <c r="O465" s="8"/>
-      <c r="P465" s="8"/>
+      <c r="P465" s="49"/>
       <c r="Q465" s="8"/>
       <c r="R465" s="9"/>
       <c r="S465" s="1"/>
@@ -22510,7 +22555,7 @@
       <c r="M466" s="8"/>
       <c r="N466" s="8"/>
       <c r="O466" s="8"/>
-      <c r="P466" s="8"/>
+      <c r="P466" s="49"/>
       <c r="Q466" s="8"/>
       <c r="R466" s="9"/>
       <c r="S466" s="1"/>
@@ -22527,7 +22572,7 @@
       <c r="M467" s="8"/>
       <c r="N467" s="8"/>
       <c r="O467" s="8"/>
-      <c r="P467" s="8"/>
+      <c r="P467" s="49"/>
       <c r="Q467" s="8"/>
       <c r="R467" s="9"/>
       <c r="S467" s="1"/>
@@ -22544,7 +22589,7 @@
       <c r="M468" s="8"/>
       <c r="N468" s="8"/>
       <c r="O468" s="8"/>
-      <c r="P468" s="8"/>
+      <c r="P468" s="49"/>
       <c r="Q468" s="8"/>
       <c r="R468" s="9"/>
       <c r="S468" s="1"/>
@@ -22561,7 +22606,7 @@
       <c r="M469" s="8"/>
       <c r="N469" s="8"/>
       <c r="O469" s="8"/>
-      <c r="P469" s="8"/>
+      <c r="P469" s="49"/>
       <c r="Q469" s="8"/>
       <c r="R469" s="9"/>
       <c r="S469" s="1"/>
@@ -22578,7 +22623,7 @@
       <c r="M470" s="8"/>
       <c r="N470" s="8"/>
       <c r="O470" s="8"/>
-      <c r="P470" s="8"/>
+      <c r="P470" s="49"/>
       <c r="Q470" s="8"/>
       <c r="R470" s="9"/>
       <c r="S470" s="1"/>
@@ -22595,7 +22640,7 @@
       <c r="M471" s="8"/>
       <c r="N471" s="8"/>
       <c r="O471" s="8"/>
-      <c r="P471" s="8"/>
+      <c r="P471" s="49"/>
       <c r="Q471" s="8"/>
       <c r="R471" s="9"/>
       <c r="S471" s="1"/>
@@ -22612,7 +22657,7 @@
       <c r="M472" s="8"/>
       <c r="N472" s="8"/>
       <c r="O472" s="8"/>
-      <c r="P472" s="8"/>
+      <c r="P472" s="49"/>
       <c r="Q472" s="8"/>
       <c r="R472" s="9"/>
       <c r="S472" s="1"/>
@@ -22629,7 +22674,7 @@
       <c r="M473" s="8"/>
       <c r="N473" s="8"/>
       <c r="O473" s="8"/>
-      <c r="P473" s="8"/>
+      <c r="P473" s="49"/>
       <c r="Q473" s="8"/>
       <c r="R473" s="9"/>
       <c r="S473" s="1"/>
@@ -22646,7 +22691,7 @@
       <c r="M474" s="8"/>
       <c r="N474" s="8"/>
       <c r="O474" s="8"/>
-      <c r="P474" s="8"/>
+      <c r="P474" s="49"/>
       <c r="Q474" s="8"/>
       <c r="R474" s="9"/>
       <c r="S474" s="1"/>
@@ -22663,7 +22708,7 @@
       <c r="M475" s="8"/>
       <c r="N475" s="8"/>
       <c r="O475" s="8"/>
-      <c r="P475" s="8"/>
+      <c r="P475" s="49"/>
       <c r="Q475" s="8"/>
       <c r="R475" s="9"/>
       <c r="S475" s="1"/>
@@ -22680,7 +22725,7 @@
       <c r="M476" s="8"/>
       <c r="N476" s="8"/>
       <c r="O476" s="8"/>
-      <c r="P476" s="8"/>
+      <c r="P476" s="49"/>
       <c r="Q476" s="8"/>
       <c r="R476" s="9"/>
       <c r="S476" s="1"/>
@@ -22697,7 +22742,7 @@
       <c r="M477" s="8"/>
       <c r="N477" s="8"/>
       <c r="O477" s="8"/>
-      <c r="P477" s="8"/>
+      <c r="P477" s="49"/>
       <c r="Q477" s="8"/>
       <c r="R477" s="9"/>
       <c r="S477" s="1"/>
@@ -22714,7 +22759,7 @@
       <c r="M478" s="8"/>
       <c r="N478" s="8"/>
       <c r="O478" s="8"/>
-      <c r="P478" s="8"/>
+      <c r="P478" s="49"/>
       <c r="Q478" s="8"/>
       <c r="R478" s="9"/>
       <c r="S478" s="1"/>
@@ -22731,7 +22776,7 @@
       <c r="M479" s="8"/>
       <c r="N479" s="8"/>
       <c r="O479" s="8"/>
-      <c r="P479" s="8"/>
+      <c r="P479" s="49"/>
       <c r="Q479" s="8"/>
       <c r="R479" s="9"/>
       <c r="S479" s="1"/>
@@ -22748,7 +22793,7 @@
       <c r="M480" s="8"/>
       <c r="N480" s="8"/>
       <c r="O480" s="8"/>
-      <c r="P480" s="8"/>
+      <c r="P480" s="49"/>
       <c r="Q480" s="8"/>
       <c r="R480" s="9"/>
       <c r="S480" s="1"/>
@@ -22765,7 +22810,7 @@
       <c r="M481" s="8"/>
       <c r="N481" s="8"/>
       <c r="O481" s="8"/>
-      <c r="P481" s="8"/>
+      <c r="P481" s="49"/>
       <c r="Q481" s="8"/>
       <c r="R481" s="9"/>
       <c r="S481" s="1"/>
@@ -22782,7 +22827,7 @@
       <c r="M482" s="8"/>
       <c r="N482" s="8"/>
       <c r="O482" s="8"/>
-      <c r="P482" s="8"/>
+      <c r="P482" s="49"/>
       <c r="Q482" s="8"/>
       <c r="R482" s="9"/>
       <c r="S482" s="1"/>
@@ -22799,7 +22844,7 @@
       <c r="M483" s="8"/>
       <c r="N483" s="8"/>
       <c r="O483" s="8"/>
-      <c r="P483" s="8"/>
+      <c r="P483" s="49"/>
       <c r="Q483" s="8"/>
       <c r="R483" s="9"/>
       <c r="S483" s="1"/>
@@ -22816,7 +22861,7 @@
       <c r="M484" s="8"/>
       <c r="N484" s="8"/>
       <c r="O484" s="8"/>
-      <c r="P484" s="8"/>
+      <c r="P484" s="49"/>
       <c r="Q484" s="8"/>
       <c r="R484" s="9"/>
       <c r="S484" s="1"/>
@@ -22833,7 +22878,7 @@
       <c r="M485" s="8"/>
       <c r="N485" s="8"/>
       <c r="O485" s="8"/>
-      <c r="P485" s="8"/>
+      <c r="P485" s="49"/>
       <c r="Q485" s="8"/>
       <c r="R485" s="9"/>
       <c r="S485" s="1"/>
@@ -22850,7 +22895,7 @@
       <c r="M486" s="8"/>
       <c r="N486" s="8"/>
       <c r="O486" s="8"/>
-      <c r="P486" s="8"/>
+      <c r="P486" s="49"/>
       <c r="Q486" s="8"/>
       <c r="R486" s="9"/>
       <c r="S486" s="1"/>
@@ -22867,7 +22912,7 @@
       <c r="M487" s="8"/>
       <c r="N487" s="8"/>
       <c r="O487" s="8"/>
-      <c r="P487" s="8"/>
+      <c r="P487" s="49"/>
       <c r="Q487" s="8"/>
       <c r="R487" s="9"/>
       <c r="S487" s="1"/>
@@ -22884,7 +22929,7 @@
       <c r="M488" s="8"/>
       <c r="N488" s="8"/>
       <c r="O488" s="8"/>
-      <c r="P488" s="8"/>
+      <c r="P488" s="49"/>
       <c r="Q488" s="8"/>
       <c r="R488" s="9"/>
       <c r="S488" s="1"/>
@@ -22901,7 +22946,7 @@
       <c r="M489" s="8"/>
       <c r="N489" s="8"/>
       <c r="O489" s="8"/>
-      <c r="P489" s="8"/>
+      <c r="P489" s="49"/>
       <c r="Q489" s="8"/>
       <c r="R489" s="9"/>
       <c r="S489" s="1"/>
@@ -22918,7 +22963,7 @@
       <c r="M490" s="8"/>
       <c r="N490" s="8"/>
       <c r="O490" s="8"/>
-      <c r="P490" s="8"/>
+      <c r="P490" s="49"/>
       <c r="Q490" s="8"/>
       <c r="R490" s="9"/>
       <c r="S490" s="1"/>
@@ -22935,7 +22980,7 @@
       <c r="M491" s="8"/>
       <c r="N491" s="8"/>
       <c r="O491" s="8"/>
-      <c r="P491" s="8"/>
+      <c r="P491" s="49"/>
       <c r="Q491" s="8"/>
       <c r="R491" s="9"/>
       <c r="S491" s="1"/>
@@ -22952,7 +22997,7 @@
       <c r="M492" s="8"/>
       <c r="N492" s="8"/>
       <c r="O492" s="8"/>
-      <c r="P492" s="8"/>
+      <c r="P492" s="49"/>
       <c r="Q492" s="8"/>
       <c r="R492" s="9"/>
       <c r="S492" s="1"/>
@@ -22969,7 +23014,7 @@
       <c r="M493" s="8"/>
       <c r="N493" s="8"/>
       <c r="O493" s="8"/>
-      <c r="P493" s="8"/>
+      <c r="P493" s="49"/>
       <c r="Q493" s="8"/>
       <c r="R493" s="9"/>
       <c r="S493" s="1"/>
@@ -22986,7 +23031,7 @@
       <c r="M494" s="8"/>
       <c r="N494" s="8"/>
       <c r="O494" s="8"/>
-      <c r="P494" s="8"/>
+      <c r="P494" s="49"/>
       <c r="Q494" s="8"/>
       <c r="R494" s="9"/>
       <c r="S494" s="1"/>
@@ -23003,7 +23048,7 @@
       <c r="M495" s="8"/>
       <c r="N495" s="8"/>
       <c r="O495" s="8"/>
-      <c r="P495" s="8"/>
+      <c r="P495" s="49"/>
       <c r="Q495" s="8"/>
       <c r="R495" s="9"/>
       <c r="S495" s="1"/>
@@ -23020,7 +23065,7 @@
       <c r="M496" s="8"/>
       <c r="N496" s="8"/>
       <c r="O496" s="8"/>
-      <c r="P496" s="8"/>
+      <c r="P496" s="49"/>
       <c r="Q496" s="8"/>
       <c r="R496" s="9"/>
       <c r="S496" s="1"/>
@@ -23037,7 +23082,7 @@
       <c r="M497" s="8"/>
       <c r="N497" s="8"/>
       <c r="O497" s="8"/>
-      <c r="P497" s="8"/>
+      <c r="P497" s="49"/>
       <c r="Q497" s="8"/>
       <c r="R497" s="9"/>
       <c r="S497" s="1"/>
@@ -23054,7 +23099,7 @@
       <c r="M498" s="8"/>
       <c r="N498" s="8"/>
       <c r="O498" s="8"/>
-      <c r="P498" s="8"/>
+      <c r="P498" s="49"/>
       <c r="Q498" s="8"/>
       <c r="R498" s="9"/>
       <c r="S498" s="1"/>
@@ -23071,7 +23116,7 @@
       <c r="M499" s="8"/>
       <c r="N499" s="8"/>
       <c r="O499" s="8"/>
-      <c r="P499" s="8"/>
+      <c r="P499" s="49"/>
       <c r="Q499" s="8"/>
       <c r="R499" s="9"/>
       <c r="S499" s="1"/>
@@ -23088,7 +23133,7 @@
       <c r="M500" s="8"/>
       <c r="N500" s="8"/>
       <c r="O500" s="8"/>
-      <c r="P500" s="8"/>
+      <c r="P500" s="49"/>
       <c r="Q500" s="8"/>
       <c r="R500" s="9"/>
       <c r="S500" s="1"/>
@@ -23105,7 +23150,7 @@
       <c r="M501" s="8"/>
       <c r="N501" s="8"/>
       <c r="O501" s="8"/>
-      <c r="P501" s="8"/>
+      <c r="P501" s="49"/>
       <c r="Q501" s="8"/>
       <c r="R501" s="9"/>
       <c r="S501" s="1"/>
@@ -23122,7 +23167,7 @@
       <c r="M502" s="8"/>
       <c r="N502" s="8"/>
       <c r="O502" s="8"/>
-      <c r="P502" s="8"/>
+      <c r="P502" s="49"/>
       <c r="Q502" s="8"/>
       <c r="R502" s="9"/>
       <c r="S502" s="1"/>
@@ -23139,7 +23184,7 @@
       <c r="M503" s="8"/>
       <c r="N503" s="8"/>
       <c r="O503" s="8"/>
-      <c r="P503" s="8"/>
+      <c r="P503" s="49"/>
       <c r="Q503" s="8"/>
       <c r="R503" s="9"/>
       <c r="S503" s="1"/>
@@ -23156,7 +23201,7 @@
       <c r="M504" s="8"/>
       <c r="N504" s="8"/>
       <c r="O504" s="8"/>
-      <c r="P504" s="8"/>
+      <c r="P504" s="49"/>
       <c r="Q504" s="8"/>
       <c r="R504" s="9"/>
       <c r="S504" s="1"/>
@@ -23173,7 +23218,7 @@
       <c r="M505" s="8"/>
       <c r="N505" s="8"/>
       <c r="O505" s="8"/>
-      <c r="P505" s="8"/>
+      <c r="P505" s="49"/>
       <c r="Q505" s="8"/>
       <c r="R505" s="9"/>
       <c r="S505" s="1"/>
@@ -23190,7 +23235,7 @@
       <c r="M506" s="8"/>
       <c r="N506" s="8"/>
       <c r="O506" s="8"/>
-      <c r="P506" s="8"/>
+      <c r="P506" s="49"/>
       <c r="Q506" s="8"/>
       <c r="R506" s="9"/>
       <c r="S506" s="1"/>
@@ -23207,7 +23252,7 @@
       <c r="M507" s="8"/>
       <c r="N507" s="8"/>
       <c r="O507" s="8"/>
-      <c r="P507" s="8"/>
+      <c r="P507" s="49"/>
       <c r="Q507" s="8"/>
       <c r="R507" s="9"/>
       <c r="S507" s="1"/>
@@ -23224,7 +23269,7 @@
       <c r="M508" s="8"/>
       <c r="N508" s="8"/>
       <c r="O508" s="8"/>
-      <c r="P508" s="8"/>
+      <c r="P508" s="49"/>
       <c r="Q508" s="8"/>
       <c r="R508" s="9"/>
       <c r="S508" s="1"/>
@@ -23241,7 +23286,7 @@
       <c r="M509" s="8"/>
       <c r="N509" s="8"/>
       <c r="O509" s="8"/>
-      <c r="P509" s="8"/>
+      <c r="P509" s="49"/>
       <c r="Q509" s="8"/>
       <c r="R509" s="9"/>
       <c r="S509" s="1"/>
@@ -23258,7 +23303,7 @@
       <c r="M510" s="8"/>
       <c r="N510" s="8"/>
       <c r="O510" s="8"/>
-      <c r="P510" s="8"/>
+      <c r="P510" s="49"/>
       <c r="Q510" s="8"/>
       <c r="R510" s="9"/>
       <c r="S510" s="1"/>
@@ -23275,7 +23320,7 @@
       <c r="M511" s="8"/>
       <c r="N511" s="8"/>
       <c r="O511" s="8"/>
-      <c r="P511" s="8"/>
+      <c r="P511" s="49"/>
       <c r="Q511" s="8"/>
       <c r="R511" s="9"/>
       <c r="S511" s="1"/>
@@ -23292,7 +23337,7 @@
       <c r="M512" s="8"/>
       <c r="N512" s="8"/>
       <c r="O512" s="8"/>
-      <c r="P512" s="8"/>
+      <c r="P512" s="49"/>
       <c r="Q512" s="8"/>
       <c r="R512" s="9"/>
       <c r="S512" s="1"/>
@@ -23309,7 +23354,7 @@
       <c r="M513" s="8"/>
       <c r="N513" s="8"/>
       <c r="O513" s="8"/>
-      <c r="P513" s="8"/>
+      <c r="P513" s="49"/>
       <c r="Q513" s="8"/>
       <c r="R513" s="9"/>
       <c r="S513" s="1"/>
@@ -23326,7 +23371,7 @@
       <c r="M514" s="8"/>
       <c r="N514" s="8"/>
       <c r="O514" s="8"/>
-      <c r="P514" s="8"/>
+      <c r="P514" s="49"/>
       <c r="Q514" s="8"/>
       <c r="R514" s="9"/>
       <c r="S514" s="1"/>
@@ -23343,7 +23388,7 @@
       <c r="M515" s="8"/>
       <c r="N515" s="8"/>
       <c r="O515" s="8"/>
-      <c r="P515" s="8"/>
+      <c r="P515" s="49"/>
       <c r="Q515" s="8"/>
       <c r="R515" s="9"/>
       <c r="S515" s="1"/>
@@ -23360,7 +23405,7 @@
       <c r="M516" s="8"/>
       <c r="N516" s="8"/>
       <c r="O516" s="8"/>
-      <c r="P516" s="8"/>
+      <c r="P516" s="49"/>
       <c r="Q516" s="8"/>
       <c r="R516" s="9"/>
       <c r="S516" s="1"/>
@@ -23377,7 +23422,7 @@
       <c r="M517" s="8"/>
       <c r="N517" s="8"/>
       <c r="O517" s="8"/>
-      <c r="P517" s="8"/>
+      <c r="P517" s="49"/>
       <c r="Q517" s="8"/>
       <c r="R517" s="9"/>
       <c r="S517" s="1"/>
@@ -23394,7 +23439,7 @@
       <c r="M518" s="8"/>
       <c r="N518" s="8"/>
       <c r="O518" s="8"/>
-      <c r="P518" s="8"/>
+      <c r="P518" s="49"/>
       <c r="Q518" s="8"/>
       <c r="R518" s="9"/>
       <c r="S518" s="1"/>
@@ -23411,7 +23456,7 @@
       <c r="M519" s="8"/>
       <c r="N519" s="8"/>
       <c r="O519" s="8"/>
-      <c r="P519" s="8"/>
+      <c r="P519" s="49"/>
       <c r="Q519" s="8"/>
       <c r="R519" s="9"/>
       <c r="S519" s="1"/>
@@ -23428,7 +23473,7 @@
       <c r="M520" s="8"/>
       <c r="N520" s="8"/>
       <c r="O520" s="8"/>
-      <c r="P520" s="8"/>
+      <c r="P520" s="49"/>
       <c r="Q520" s="8"/>
       <c r="R520" s="9"/>
       <c r="S520" s="1"/>
@@ -23445,7 +23490,7 @@
       <c r="M521" s="8"/>
       <c r="N521" s="8"/>
       <c r="O521" s="8"/>
-      <c r="P521" s="8"/>
+      <c r="P521" s="49"/>
       <c r="Q521" s="8"/>
       <c r="R521" s="9"/>
       <c r="S521" s="1"/>
@@ -23462,7 +23507,7 @@
       <c r="M522" s="8"/>
       <c r="N522" s="8"/>
       <c r="O522" s="8"/>
-      <c r="P522" s="8"/>
+      <c r="P522" s="49"/>
       <c r="Q522" s="8"/>
       <c r="R522" s="9"/>
       <c r="S522" s="1"/>
@@ -23479,7 +23524,7 @@
       <c r="M523" s="8"/>
       <c r="N523" s="8"/>
       <c r="O523" s="8"/>
-      <c r="P523" s="8"/>
+      <c r="P523" s="49"/>
       <c r="Q523" s="8"/>
       <c r="R523" s="9"/>
       <c r="S523" s="1"/>
@@ -23496,7 +23541,7 @@
       <c r="M524" s="8"/>
       <c r="N524" s="8"/>
       <c r="O524" s="8"/>
-      <c r="P524" s="8"/>
+      <c r="P524" s="49"/>
       <c r="Q524" s="8"/>
       <c r="R524" s="9"/>
       <c r="S524" s="1"/>
@@ -23513,7 +23558,7 @@
       <c r="M525" s="8"/>
       <c r="N525" s="8"/>
       <c r="O525" s="8"/>
-      <c r="P525" s="8"/>
+      <c r="P525" s="49"/>
       <c r="Q525" s="8"/>
       <c r="R525" s="9"/>
       <c r="S525" s="1"/>
@@ -23530,7 +23575,7 @@
       <c r="M526" s="8"/>
       <c r="N526" s="8"/>
       <c r="O526" s="8"/>
-      <c r="P526" s="8"/>
+      <c r="P526" s="49"/>
       <c r="Q526" s="8"/>
       <c r="R526" s="9"/>
       <c r="S526" s="1"/>
@@ -23547,7 +23592,7 @@
       <c r="M527" s="8"/>
       <c r="N527" s="8"/>
       <c r="O527" s="8"/>
-      <c r="P527" s="8"/>
+      <c r="P527" s="49"/>
       <c r="Q527" s="8"/>
       <c r="R527" s="9"/>
       <c r="S527" s="1"/>
@@ -23564,7 +23609,7 @@
       <c r="M528" s="8"/>
       <c r="N528" s="8"/>
       <c r="O528" s="8"/>
-      <c r="P528" s="8"/>
+      <c r="P528" s="49"/>
       <c r="Q528" s="8"/>
       <c r="R528" s="9"/>
       <c r="S528" s="1"/>
@@ -23581,7 +23626,7 @@
       <c r="M529" s="8"/>
       <c r="N529" s="8"/>
       <c r="O529" s="8"/>
-      <c r="P529" s="8"/>
+      <c r="P529" s="49"/>
       <c r="Q529" s="8"/>
       <c r="R529" s="9"/>
       <c r="S529" s="1"/>
@@ -23598,7 +23643,7 @@
       <c r="M530" s="8"/>
       <c r="N530" s="8"/>
       <c r="O530" s="8"/>
-      <c r="P530" s="8"/>
+      <c r="P530" s="49"/>
       <c r="Q530" s="8"/>
       <c r="R530" s="9"/>
       <c r="S530" s="1"/>
@@ -23615,7 +23660,7 @@
       <c r="M531" s="8"/>
       <c r="N531" s="8"/>
       <c r="O531" s="8"/>
-      <c r="P531" s="8"/>
+      <c r="P531" s="49"/>
       <c r="Q531" s="8"/>
       <c r="R531" s="9"/>
       <c r="S531" s="1"/>
@@ -23632,7 +23677,7 @@
       <c r="M532" s="8"/>
       <c r="N532" s="8"/>
       <c r="O532" s="8"/>
-      <c r="P532" s="8"/>
+      <c r="P532" s="49"/>
       <c r="Q532" s="8"/>
       <c r="R532" s="9"/>
       <c r="S532" s="1"/>
@@ -23649,7 +23694,7 @@
       <c r="M533" s="8"/>
       <c r="N533" s="8"/>
       <c r="O533" s="8"/>
-      <c r="P533" s="8"/>
+      <c r="P533" s="49"/>
       <c r="Q533" s="8"/>
       <c r="R533" s="9"/>
       <c r="S533" s="1"/>
@@ -23666,7 +23711,7 @@
       <c r="M534" s="8"/>
       <c r="N534" s="8"/>
       <c r="O534" s="8"/>
-      <c r="P534" s="8"/>
+      <c r="P534" s="49"/>
       <c r="Q534" s="8"/>
       <c r="R534" s="9"/>
       <c r="S534" s="1"/>
@@ -23683,7 +23728,7 @@
       <c r="M535" s="8"/>
       <c r="N535" s="8"/>
       <c r="O535" s="8"/>
-      <c r="P535" s="8"/>
+      <c r="P535" s="49"/>
       <c r="Q535" s="8"/>
       <c r="R535" s="9"/>
       <c r="S535" s="1"/>
@@ -23700,7 +23745,7 @@
       <c r="M536" s="8"/>
       <c r="N536" s="8"/>
       <c r="O536" s="8"/>
-      <c r="P536" s="8"/>
+      <c r="P536" s="49"/>
       <c r="Q536" s="8"/>
       <c r="R536" s="9"/>
       <c r="S536" s="1"/>
@@ -23717,7 +23762,7 @@
       <c r="M537" s="8"/>
       <c r="N537" s="8"/>
       <c r="O537" s="8"/>
-      <c r="P537" s="8"/>
+      <c r="P537" s="49"/>
       <c r="Q537" s="8"/>
       <c r="R537" s="9"/>
       <c r="S537" s="1"/>
@@ -23734,7 +23779,7 @@
       <c r="M538" s="8"/>
       <c r="N538" s="8"/>
       <c r="O538" s="8"/>
-      <c r="P538" s="8"/>
+      <c r="P538" s="49"/>
       <c r="Q538" s="8"/>
       <c r="R538" s="9"/>
       <c r="S538" s="1"/>
@@ -23751,7 +23796,7 @@
       <c r="M539" s="8"/>
       <c r="N539" s="8"/>
       <c r="O539" s="8"/>
-      <c r="P539" s="8"/>
+      <c r="P539" s="49"/>
       <c r="Q539" s="8"/>
       <c r="R539" s="9"/>
       <c r="S539" s="1"/>
@@ -23768,7 +23813,7 @@
       <c r="M540" s="8"/>
       <c r="N540" s="8"/>
       <c r="O540" s="8"/>
-      <c r="P540" s="8"/>
+      <c r="P540" s="49"/>
       <c r="Q540" s="8"/>
       <c r="R540" s="9"/>
       <c r="S540" s="1"/>
@@ -23785,7 +23830,7 @@
       <c r="M541" s="8"/>
       <c r="N541" s="8"/>
       <c r="O541" s="8"/>
-      <c r="P541" s="8"/>
+      <c r="P541" s="49"/>
       <c r="Q541" s="8"/>
       <c r="R541" s="9"/>
       <c r="S541" s="1"/>
@@ -23802,7 +23847,7 @@
       <c r="M542" s="8"/>
       <c r="N542" s="8"/>
       <c r="O542" s="8"/>
-      <c r="P542" s="8"/>
+      <c r="P542" s="49"/>
       <c r="Q542" s="8"/>
       <c r="R542" s="9"/>
       <c r="S542" s="1"/>
@@ -23819,7 +23864,7 @@
       <c r="M543" s="8"/>
       <c r="N543" s="8"/>
       <c r="O543" s="8"/>
-      <c r="P543" s="8"/>
+      <c r="P543" s="49"/>
       <c r="Q543" s="8"/>
       <c r="R543" s="9"/>
       <c r="S543" s="1"/>
@@ -23836,7 +23881,7 @@
       <c r="M544" s="8"/>
       <c r="N544" s="8"/>
       <c r="O544" s="8"/>
-      <c r="P544" s="8"/>
+      <c r="P544" s="49"/>
       <c r="Q544" s="8"/>
       <c r="R544" s="9"/>
       <c r="S544" s="1"/>
@@ -23853,7 +23898,7 @@
       <c r="M545" s="8"/>
       <c r="N545" s="8"/>
       <c r="O545" s="8"/>
-      <c r="P545" s="8"/>
+      <c r="P545" s="49"/>
       <c r="Q545" s="8"/>
       <c r="R545" s="9"/>
       <c r="S545" s="1"/>
@@ -23870,7 +23915,7 @@
       <c r="M546" s="8"/>
       <c r="N546" s="8"/>
       <c r="O546" s="8"/>
-      <c r="P546" s="8"/>
+      <c r="P546" s="49"/>
       <c r="Q546" s="8"/>
       <c r="R546" s="9"/>
       <c r="S546" s="1"/>
@@ -23887,7 +23932,7 @@
       <c r="M547" s="8"/>
       <c r="N547" s="8"/>
       <c r="O547" s="8"/>
-      <c r="P547" s="8"/>
+      <c r="P547" s="49"/>
       <c r="Q547" s="8"/>
       <c r="R547" s="9"/>
       <c r="S547" s="1"/>
@@ -23904,7 +23949,7 @@
       <c r="M548" s="8"/>
       <c r="N548" s="8"/>
       <c r="O548" s="8"/>
-      <c r="P548" s="8"/>
+      <c r="P548" s="49"/>
       <c r="Q548" s="8"/>
       <c r="R548" s="9"/>
       <c r="S548" s="1"/>
@@ -23921,7 +23966,7 @@
       <c r="M549" s="8"/>
       <c r="N549" s="8"/>
       <c r="O549" s="8"/>
-      <c r="P549" s="8"/>
+      <c r="P549" s="49"/>
       <c r="Q549" s="8"/>
       <c r="R549" s="9"/>
       <c r="S549" s="1"/>
@@ -23938,7 +23983,7 @@
       <c r="M550" s="8"/>
       <c r="N550" s="8"/>
       <c r="O550" s="8"/>
-      <c r="P550" s="8"/>
+      <c r="P550" s="49"/>
       <c r="Q550" s="8"/>
       <c r="R550" s="9"/>
       <c r="S550" s="1"/>
@@ -23955,7 +24000,7 @@
       <c r="M551" s="8"/>
       <c r="N551" s="8"/>
       <c r="O551" s="8"/>
-      <c r="P551" s="8"/>
+      <c r="P551" s="49"/>
       <c r="Q551" s="8"/>
       <c r="R551" s="9"/>
       <c r="S551" s="1"/>
@@ -23972,7 +24017,7 @@
       <c r="M552" s="8"/>
       <c r="N552" s="8"/>
       <c r="O552" s="8"/>
-      <c r="P552" s="8"/>
+      <c r="P552" s="49"/>
       <c r="Q552" s="8"/>
       <c r="R552" s="9"/>
       <c r="S552" s="1"/>
@@ -23989,7 +24034,7 @@
       <c r="M553" s="8"/>
       <c r="N553" s="8"/>
       <c r="O553" s="8"/>
-      <c r="P553" s="8"/>
+      <c r="P553" s="49"/>
       <c r="Q553" s="8"/>
       <c r="R553" s="9"/>
       <c r="S553" s="1"/>
@@ -24006,7 +24051,7 @@
       <c r="M554" s="8"/>
       <c r="N554" s="8"/>
       <c r="O554" s="8"/>
-      <c r="P554" s="8"/>
+      <c r="P554" s="49"/>
       <c r="Q554" s="8"/>
       <c r="R554" s="9"/>
       <c r="S554" s="1"/>
@@ -24023,7 +24068,7 @@
       <c r="M555" s="8"/>
       <c r="N555" s="8"/>
       <c r="O555" s="8"/>
-      <c r="P555" s="8"/>
+      <c r="P555" s="49"/>
       <c r="Q555" s="8"/>
       <c r="R555" s="9"/>
       <c r="S555" s="1"/>
@@ -24040,7 +24085,7 @@
       <c r="M556" s="8"/>
       <c r="N556" s="8"/>
       <c r="O556" s="8"/>
-      <c r="P556" s="8"/>
+      <c r="P556" s="49"/>
       <c r="Q556" s="8"/>
       <c r="R556" s="9"/>
       <c r="S556" s="1"/>
@@ -24057,7 +24102,7 @@
       <c r="M557" s="8"/>
       <c r="N557" s="8"/>
       <c r="O557" s="8"/>
-      <c r="P557" s="8"/>
+      <c r="P557" s="49"/>
       <c r="Q557" s="8"/>
       <c r="R557" s="9"/>
       <c r="S557" s="1"/>
@@ -24074,7 +24119,7 @@
       <c r="M558" s="8"/>
       <c r="N558" s="8"/>
       <c r="O558" s="8"/>
-      <c r="P558" s="8"/>
+      <c r="P558" s="49"/>
       <c r="Q558" s="8"/>
       <c r="R558" s="9"/>
       <c r="S558" s="1"/>
@@ -24091,7 +24136,7 @@
       <c r="M559" s="8"/>
       <c r="N559" s="8"/>
       <c r="O559" s="8"/>
-      <c r="P559" s="8"/>
+      <c r="P559" s="49"/>
       <c r="Q559" s="8"/>
       <c r="R559" s="9"/>
       <c r="S559" s="1"/>
@@ -24108,7 +24153,7 @@
       <c r="M560" s="8"/>
       <c r="N560" s="8"/>
       <c r="O560" s="8"/>
-      <c r="P560" s="8"/>
+      <c r="P560" s="49"/>
       <c r="Q560" s="8"/>
       <c r="R560" s="9"/>
       <c r="S560" s="1"/>
@@ -24125,7 +24170,7 @@
       <c r="M561" s="8"/>
       <c r="N561" s="8"/>
       <c r="O561" s="8"/>
-      <c r="P561" s="8"/>
+      <c r="P561" s="49"/>
       <c r="Q561" s="8"/>
       <c r="R561" s="9"/>
       <c r="S561" s="1"/>
@@ -24142,7 +24187,7 @@
       <c r="M562" s="8"/>
       <c r="N562" s="8"/>
       <c r="O562" s="8"/>
-      <c r="P562" s="8"/>
+      <c r="P562" s="49"/>
       <c r="Q562" s="8"/>
       <c r="R562" s="9"/>
       <c r="S562" s="1"/>
@@ -24159,7 +24204,7 @@
       <c r="M563" s="8"/>
       <c r="N563" s="8"/>
       <c r="O563" s="8"/>
-      <c r="P563" s="8"/>
+      <c r="P563" s="49"/>
       <c r="Q563" s="8"/>
       <c r="R563" s="9"/>
       <c r="S563" s="1"/>
@@ -24176,7 +24221,7 @@
       <c r="M564" s="8"/>
       <c r="N564" s="8"/>
       <c r="O564" s="8"/>
-      <c r="P564" s="8"/>
+      <c r="P564" s="49"/>
       <c r="Q564" s="8"/>
       <c r="R564" s="9"/>
       <c r="S564" s="1"/>
@@ -24193,7 +24238,7 @@
       <c r="M565" s="8"/>
       <c r="N565" s="8"/>
       <c r="O565" s="8"/>
-      <c r="P565" s="8"/>
+      <c r="P565" s="49"/>
       <c r="Q565" s="8"/>
       <c r="R565" s="9"/>
       <c r="S565" s="1"/>
@@ -24210,7 +24255,7 @@
       <c r="M566" s="8"/>
       <c r="N566" s="8"/>
       <c r="O566" s="8"/>
-      <c r="P566" s="8"/>
+      <c r="P566" s="49"/>
       <c r="Q566" s="8"/>
       <c r="R566" s="9"/>
       <c r="S566" s="1"/>
@@ -24227,7 +24272,7 @@
       <c r="M567" s="8"/>
       <c r="N567" s="8"/>
       <c r="O567" s="8"/>
-      <c r="P567" s="8"/>
+      <c r="P567" s="49"/>
       <c r="Q567" s="8"/>
       <c r="R567" s="9"/>
       <c r="S567" s="1"/>
@@ -24244,7 +24289,7 @@
       <c r="M568" s="8"/>
       <c r="N568" s="8"/>
       <c r="O568" s="8"/>
-      <c r="P568" s="8"/>
+      <c r="P568" s="49"/>
       <c r="Q568" s="8"/>
       <c r="R568" s="9"/>
       <c r="S568" s="1"/>
@@ -24261,7 +24306,7 @@
       <c r="M569" s="8"/>
       <c r="N569" s="8"/>
       <c r="O569" s="8"/>
-      <c r="P569" s="8"/>
+      <c r="P569" s="49"/>
       <c r="Q569" s="8"/>
       <c r="R569" s="9"/>
       <c r="S569" s="1"/>
@@ -24278,7 +24323,7 @@
       <c r="M570" s="8"/>
       <c r="N570" s="8"/>
       <c r="O570" s="8"/>
-      <c r="P570" s="8"/>
+      <c r="P570" s="49"/>
       <c r="Q570" s="8"/>
       <c r="R570" s="9"/>
       <c r="S570" s="1"/>
@@ -24295,7 +24340,7 @@
       <c r="M571" s="8"/>
       <c r="N571" s="8"/>
       <c r="O571" s="8"/>
-      <c r="P571" s="8"/>
+      <c r="P571" s="49"/>
       <c r="Q571" s="8"/>
       <c r="R571" s="9"/>
       <c r="S571" s="1"/>
@@ -24312,7 +24357,7 @@
       <c r="M572" s="8"/>
       <c r="N572" s="8"/>
       <c r="O572" s="8"/>
-      <c r="P572" s="8"/>
+      <c r="P572" s="49"/>
       <c r="Q572" s="8"/>
       <c r="R572" s="9"/>
       <c r="S572" s="1"/>
@@ -24329,7 +24374,7 @@
       <c r="M573" s="8"/>
       <c r="N573" s="8"/>
       <c r="O573" s="8"/>
-      <c r="P573" s="8"/>
+      <c r="P573" s="49"/>
       <c r="Q573" s="8"/>
       <c r="R573" s="9"/>
       <c r="S573" s="1"/>
@@ -24346,7 +24391,7 @@
       <c r="M574" s="8"/>
       <c r="N574" s="8"/>
       <c r="O574" s="8"/>
-      <c r="P574" s="8"/>
+      <c r="P574" s="49"/>
       <c r="Q574" s="8"/>
       <c r="R574" s="9"/>
       <c r="S574" s="1"/>
@@ -24363,7 +24408,7 @@
       <c r="M575" s="8"/>
       <c r="N575" s="8"/>
       <c r="O575" s="8"/>
-      <c r="P575" s="8"/>
+      <c r="P575" s="49"/>
       <c r="Q575" s="8"/>
       <c r="R575" s="9"/>
       <c r="S575" s="1"/>
@@ -24380,7 +24425,7 @@
       <c r="M576" s="8"/>
       <c r="N576" s="8"/>
       <c r="O576" s="8"/>
-      <c r="P576" s="8"/>
+      <c r="P576" s="49"/>
       <c r="Q576" s="8"/>
       <c r="R576" s="9"/>
       <c r="S576" s="1"/>
@@ -24397,7 +24442,7 @@
       <c r="M577" s="8"/>
       <c r="N577" s="8"/>
       <c r="O577" s="8"/>
-      <c r="P577" s="8"/>
+      <c r="P577" s="49"/>
       <c r="Q577" s="8"/>
       <c r="R577" s="9"/>
       <c r="S577" s="1"/>
@@ -24414,7 +24459,7 @@
       <c r="M578" s="8"/>
       <c r="N578" s="8"/>
       <c r="O578" s="8"/>
-      <c r="P578" s="8"/>
+      <c r="P578" s="49"/>
       <c r="Q578" s="8"/>
       <c r="R578" s="9"/>
       <c r="S578" s="1"/>
@@ -24431,7 +24476,7 @@
       <c r="M579" s="8"/>
       <c r="N579" s="8"/>
       <c r="O579" s="8"/>
-      <c r="P579" s="8"/>
+      <c r="P579" s="49"/>
       <c r="Q579" s="8"/>
       <c r="R579" s="9"/>
       <c r="S579" s="1"/>
@@ -24448,7 +24493,7 @@
       <c r="M580" s="8"/>
       <c r="N580" s="8"/>
       <c r="O580" s="8"/>
-      <c r="P580" s="8"/>
+      <c r="P580" s="49"/>
       <c r="Q580" s="8"/>
       <c r="R580" s="9"/>
       <c r="S580" s="1"/>
@@ -24465,7 +24510,7 @@
       <c r="M581" s="8"/>
       <c r="N581" s="8"/>
       <c r="O581" s="8"/>
-      <c r="P581" s="8"/>
+      <c r="P581" s="49"/>
       <c r="Q581" s="8"/>
       <c r="R581" s="9"/>
       <c r="S581" s="1"/>
@@ -24482,7 +24527,7 @@
       <c r="M582" s="8"/>
       <c r="N582" s="8"/>
       <c r="O582" s="8"/>
-      <c r="P582" s="8"/>
+      <c r="P582" s="49"/>
       <c r="Q582" s="8"/>
       <c r="R582" s="9"/>
       <c r="S582" s="1"/>
@@ -24499,7 +24544,7 @@
       <c r="M583" s="8"/>
       <c r="N583" s="8"/>
       <c r="O583" s="8"/>
-      <c r="P583" s="8"/>
+      <c r="P583" s="49"/>
       <c r="Q583" s="8"/>
       <c r="R583" s="9"/>
       <c r="S583" s="1"/>

--- a/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
+++ b/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\Accreditamento 2025\INVIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\Accreditamento 2025\INVIO\S1#111#RBSOFTWARECENTERSRLXX\RBSoftware\WGesLaAn\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5792BFCF-0D19-43A9-9D28-4EC81A493911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AA2DED-02C7-41C6-8331-004A840778CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="0" windowWidth="57525" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="28305" windowHeight="8415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="656">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1891,9 +1891,6 @@
 Al verificarsi di tale tipo di errore dopo esser stato notificato viene consentito all’utente di:
 - correggerlo contestualmente e reinviare il documento
 - proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore tramite un processo interno semiautomatico in cui può intervenire un operatore di backoffice.</t>
-  </si>
-  <si>
-    <t>Come provider non gestiamo le trasfusioni come tipologia di esame.</t>
   </si>
   <si>
     <t>2025-10-29T06:52:36Z</t>
@@ -4590,7 +4587,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="S191" sqref="S191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4665,7 +4662,7 @@
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="80" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D3" s="79"/>
       <c r="F3" s="6"/>
@@ -4691,7 +4688,7 @@
       <c r="A4" s="74"/>
       <c r="B4" s="75"/>
       <c r="C4" s="80" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D4" s="79"/>
       <c r="E4" s="4"/>
@@ -4718,7 +4715,7 @@
       <c r="A5" s="76"/>
       <c r="B5" s="77"/>
       <c r="C5" s="80" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D5" s="79"/>
       <c r="F5" s="6"/>
@@ -4927,7 +4924,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="270.75" thickBot="1">
@@ -5178,7 +5175,7 @@
         <v>64</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P15" s="38" t="s">
         <v>64</v>
@@ -5932,7 +5929,7 @@
         <v>228</v>
       </c>
       <c r="K31" s="64" t="s">
-        <v>490</v>
+        <v>231</v>
       </c>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
@@ -5943,12 +5940,12 @@
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
       <c r="T31" s="38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U31" s="39"/>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="90.75" hidden="1" customHeight="1" thickBot="1">
@@ -6092,7 +6089,7 @@
         <v>228</v>
       </c>
       <c r="K35" s="64" t="s">
-        <v>490</v>
+        <v>231</v>
       </c>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
@@ -6103,12 +6100,12 @@
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
       <c r="T35" s="38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="150.75" thickBot="1">
@@ -6131,13 +6128,13 @@
         <v>45959</v>
       </c>
       <c r="G36" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="H36" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="I36" s="42" t="s">
         <v>492</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>493</v>
       </c>
       <c r="J36" s="38" t="s">
         <v>64</v>
@@ -6180,13 +6177,13 @@
         <v>45959</v>
       </c>
       <c r="G37" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="H37" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="I37" s="45" t="s">
         <v>495</v>
-      </c>
-      <c r="I37" s="45" t="s">
-        <v>496</v>
       </c>
       <c r="J37" s="38" t="s">
         <v>64</v>
@@ -6200,7 +6197,7 @@
         <v>64</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P37" s="38" t="s">
         <v>64</v>
@@ -6239,13 +6236,13 @@
         <v>45959</v>
       </c>
       <c r="G38" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="H38" s="37" t="s">
         <v>498</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="I38" s="42" t="s">
         <v>499</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>500</v>
       </c>
       <c r="J38" s="38" t="s">
         <v>64</v>
@@ -6259,7 +6256,7 @@
         <v>64</v>
       </c>
       <c r="O38" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P38" s="38" t="s">
         <v>64</v>
@@ -6890,10 +6887,10 @@
         <v>45959</v>
       </c>
       <c r="G55" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="H55" s="37" t="s">
         <v>502</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>503</v>
       </c>
       <c r="I55" s="42" t="s">
         <v>443</v>
@@ -6949,10 +6946,10 @@
         <v>45959</v>
       </c>
       <c r="G56" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="H56" s="37" t="s">
         <v>504</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>505</v>
       </c>
       <c r="I56" s="42" t="s">
         <v>443</v>
@@ -7061,13 +7058,13 @@
         <v>45959</v>
       </c>
       <c r="G58" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="H58" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="I58" s="42" t="s">
         <v>508</v>
-      </c>
-      <c r="I58" s="42" t="s">
-        <v>509</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>64</v>
@@ -7081,7 +7078,7 @@
         <v>64</v>
       </c>
       <c r="O58" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P58" s="38" t="s">
         <v>64</v>
@@ -7120,13 +7117,13 @@
         <v>45959</v>
       </c>
       <c r="G59" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="H59" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="H59" s="37" t="s">
+      <c r="I59" s="42" t="s">
         <v>511</v>
-      </c>
-      <c r="I59" s="42" t="s">
-        <v>512</v>
       </c>
       <c r="J59" s="38" t="s">
         <v>64</v>
@@ -7179,13 +7176,13 @@
         <v>45959</v>
       </c>
       <c r="G60" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="H60" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="I60" s="42" t="s">
         <v>514</v>
-      </c>
-      <c r="I60" s="42" t="s">
-        <v>515</v>
       </c>
       <c r="J60" s="38" t="s">
         <v>64</v>
@@ -7238,13 +7235,13 @@
         <v>45959</v>
       </c>
       <c r="G61" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="H61" s="37" t="s">
         <v>516</v>
       </c>
-      <c r="H61" s="37" t="s">
+      <c r="I61" s="42" t="s">
         <v>517</v>
-      </c>
-      <c r="I61" s="42" t="s">
-        <v>518</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>64</v>
@@ -7258,7 +7255,7 @@
         <v>64</v>
       </c>
       <c r="O61" s="64" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P61" s="38" t="s">
         <v>64</v>
@@ -7297,13 +7294,13 @@
         <v>45959</v>
       </c>
       <c r="G62" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="H62" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="I62" s="42" t="s">
         <v>521</v>
-      </c>
-      <c r="I62" s="42" t="s">
-        <v>522</v>
       </c>
       <c r="J62" s="38" t="s">
         <v>64</v>
@@ -7317,7 +7314,7 @@
         <v>64</v>
       </c>
       <c r="O62" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P62" s="38" t="s">
         <v>64</v>
@@ -7356,13 +7353,13 @@
         <v>45959</v>
       </c>
       <c r="G63" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="H63" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="H63" s="37" t="s">
+      <c r="I63" s="42" t="s">
         <v>525</v>
-      </c>
-      <c r="I63" s="42" t="s">
-        <v>526</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>64</v>
@@ -7376,7 +7373,7 @@
         <v>64</v>
       </c>
       <c r="O63" s="38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P63" s="38" t="s">
         <v>64</v>
@@ -7415,13 +7412,13 @@
         <v>45959</v>
       </c>
       <c r="G64" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="H64" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="H64" s="37" t="s">
+      <c r="I64" s="42" t="s">
         <v>529</v>
-      </c>
-      <c r="I64" s="42" t="s">
-        <v>530</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>64</v>
@@ -7435,7 +7432,7 @@
         <v>64</v>
       </c>
       <c r="O64" s="38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P64" s="38" t="s">
         <v>64</v>
@@ -7474,13 +7471,13 @@
         <v>45959</v>
       </c>
       <c r="G65" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="H65" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="H65" s="37" t="s">
+      <c r="I65" s="42" t="s">
         <v>533</v>
-      </c>
-      <c r="I65" s="42" t="s">
-        <v>534</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>64</v>
@@ -7494,7 +7491,7 @@
         <v>64</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P65" s="38" t="s">
         <v>64</v>
@@ -7533,13 +7530,13 @@
         <v>45959</v>
       </c>
       <c r="G66" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="H66" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="H66" s="37" t="s">
+      <c r="I66" s="42" t="s">
         <v>536</v>
-      </c>
-      <c r="I66" s="42" t="s">
-        <v>537</v>
       </c>
       <c r="J66" s="38" t="s">
         <v>64</v>
@@ -7553,7 +7550,7 @@
         <v>64</v>
       </c>
       <c r="O66" s="38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P66" s="38" t="s">
         <v>64</v>
@@ -7592,13 +7589,13 @@
         <v>45959</v>
       </c>
       <c r="G67" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="H67" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="I67" s="42" t="s">
         <v>540</v>
-      </c>
-      <c r="I67" s="42" t="s">
-        <v>541</v>
       </c>
       <c r="J67" s="38" t="s">
         <v>64</v>
@@ -7612,7 +7609,7 @@
         <v>64</v>
       </c>
       <c r="O67" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P67" s="38" t="s">
         <v>64</v>
@@ -7651,13 +7648,13 @@
         <v>45959</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H68" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="I68" s="42" t="s">
         <v>543</v>
-      </c>
-      <c r="I68" s="42" t="s">
-        <v>544</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>64</v>
@@ -7671,7 +7668,7 @@
         <v>64</v>
       </c>
       <c r="O68" s="38" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P68" s="38" t="s">
         <v>64</v>
@@ -9449,13 +9446,13 @@
         <v>45959</v>
       </c>
       <c r="G116" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="H116" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="H116" s="37" t="s">
+      <c r="I116" s="42" t="s">
         <v>548</v>
-      </c>
-      <c r="I116" s="42" t="s">
-        <v>549</v>
       </c>
       <c r="J116" s="38" t="s">
         <v>64</v>
@@ -9469,7 +9466,7 @@
         <v>64</v>
       </c>
       <c r="O116" s="38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P116" s="38" t="s">
         <v>64</v>
@@ -9508,13 +9505,13 @@
         <v>45959</v>
       </c>
       <c r="G117" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="H117" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="H117" s="37" t="s">
+      <c r="I117" s="42" t="s">
         <v>552</v>
-      </c>
-      <c r="I117" s="42" t="s">
-        <v>553</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>64</v>
@@ -9528,7 +9525,7 @@
         <v>64</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P117" s="38" t="s">
         <v>64</v>
@@ -9567,13 +9564,13 @@
         <v>45959</v>
       </c>
       <c r="G118" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="H118" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="H118" s="37" t="s">
+      <c r="I118" s="42" t="s">
         <v>556</v>
-      </c>
-      <c r="I118" s="42" t="s">
-        <v>557</v>
       </c>
       <c r="J118" s="38" t="s">
         <v>64</v>
@@ -9587,11 +9584,17 @@
         <v>64</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="P118" s="38"/>
-      <c r="Q118" s="38"/>
-      <c r="R118" s="38"/>
+        <v>557</v>
+      </c>
+      <c r="P118" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q118" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R118" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="S118" s="65" t="s">
         <v>489</v>
       </c>
@@ -9624,13 +9627,13 @@
         <v>45960</v>
       </c>
       <c r="G119" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="H119" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="H119" s="37" t="s">
+      <c r="I119" s="42" t="s">
         <v>560</v>
-      </c>
-      <c r="I119" s="42" t="s">
-        <v>561</v>
       </c>
       <c r="J119" s="38" t="s">
         <v>64</v>
@@ -9644,11 +9647,17 @@
         <v>64</v>
       </c>
       <c r="O119" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="P119" s="38"/>
-      <c r="Q119" s="38"/>
-      <c r="R119" s="38"/>
+        <v>561</v>
+      </c>
+      <c r="P119" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q119" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R119" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="S119" s="65" t="s">
         <v>489</v>
       </c>
@@ -9681,13 +9690,13 @@
         <v>45960</v>
       </c>
       <c r="G120" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="H120" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="H120" s="37" t="s">
+      <c r="I120" s="42" t="s">
         <v>564</v>
-      </c>
-      <c r="I120" s="42" t="s">
-        <v>565</v>
       </c>
       <c r="J120" s="38" t="s">
         <v>64</v>
@@ -9701,11 +9710,17 @@
         <v>64</v>
       </c>
       <c r="O120" s="38" t="s">
-        <v>566</v>
-      </c>
-      <c r="P120" s="38"/>
-      <c r="Q120" s="38"/>
-      <c r="R120" s="38"/>
+        <v>565</v>
+      </c>
+      <c r="P120" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q120" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R120" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="S120" s="65" t="s">
         <v>489</v>
       </c>
@@ -9738,13 +9753,13 @@
         <v>45960</v>
       </c>
       <c r="G121" s="35" t="s">
+        <v>566</v>
+      </c>
+      <c r="H121" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="H121" s="35" t="s">
+      <c r="I121" s="45" t="s">
         <v>568</v>
-      </c>
-      <c r="I121" s="45" t="s">
-        <v>569</v>
       </c>
       <c r="J121" s="38" t="s">
         <v>64</v>
@@ -9758,11 +9773,17 @@
         <v>64</v>
       </c>
       <c r="O121" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="P121" s="38"/>
-      <c r="Q121" s="38"/>
-      <c r="R121" s="38"/>
+        <v>496</v>
+      </c>
+      <c r="P121" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q121" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R121" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="S121" s="65" t="s">
         <v>489</v>
       </c>
@@ -9795,13 +9816,13 @@
         <v>45960</v>
       </c>
       <c r="G122" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="H122" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="H122" s="37" t="s">
+      <c r="I122" s="42" t="s">
         <v>568</v>
-      </c>
-      <c r="I122" s="42" t="s">
-        <v>569</v>
       </c>
       <c r="J122" s="38" t="s">
         <v>64</v>
@@ -9846,13 +9867,13 @@
         <v>45960</v>
       </c>
       <c r="G123" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="H123" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="H123" s="37" t="s">
+      <c r="I123" s="42" t="s">
         <v>571</v>
-      </c>
-      <c r="I123" s="42" t="s">
-        <v>572</v>
       </c>
       <c r="J123" s="38" t="s">
         <v>64</v>
@@ -9897,13 +9918,13 @@
         <v>45960</v>
       </c>
       <c r="G124" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H124" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="H124" s="37" t="s">
+      <c r="I124" s="42" t="s">
         <v>574</v>
-      </c>
-      <c r="I124" s="42" t="s">
-        <v>575</v>
       </c>
       <c r="J124" s="38" t="s">
         <v>64</v>
@@ -9913,15 +9934,21 @@
       <c r="M124" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="N124" s="38"/>
+      <c r="N124" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O124" s="38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P124" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q124" s="38"/>
-      <c r="R124" s="38"/>
+      <c r="Q124" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R124" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="S124" s="65" t="s">
         <v>489</v>
       </c>
@@ -9954,10 +9981,10 @@
         <v>45960</v>
       </c>
       <c r="G125" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="H125" s="37" t="s">
         <v>577</v>
-      </c>
-      <c r="H125" s="37" t="s">
-        <v>578</v>
       </c>
       <c r="I125" s="42" t="s">
         <v>443</v>
@@ -10013,10 +10040,10 @@
         <v>45960</v>
       </c>
       <c r="G126" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="H126" s="37" t="s">
         <v>579</v>
-      </c>
-      <c r="H126" s="37" t="s">
-        <v>580</v>
       </c>
       <c r="I126" s="42" t="s">
         <v>443</v>
@@ -10125,13 +10152,13 @@
         <v>45960</v>
       </c>
       <c r="G128" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="H128" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="H128" s="37" t="s">
+      <c r="I128" s="42" t="s">
         <v>582</v>
-      </c>
-      <c r="I128" s="42" t="s">
-        <v>583</v>
       </c>
       <c r="J128" s="38" t="s">
         <v>64</v>
@@ -10145,7 +10172,7 @@
         <v>64</v>
       </c>
       <c r="O128" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P128" s="38" t="s">
         <v>64</v>
@@ -10184,13 +10211,13 @@
         <v>45960</v>
       </c>
       <c r="G129" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="H129" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="H129" s="37" t="s">
+      <c r="I129" s="42" t="s">
         <v>585</v>
-      </c>
-      <c r="I129" s="42" t="s">
-        <v>586</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>64</v>
@@ -10243,13 +10270,13 @@
         <v>45960</v>
       </c>
       <c r="G130" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H130" s="37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I130" s="42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J130" s="38" t="s">
         <v>64</v>
@@ -10857,13 +10884,13 @@
         <v>45960</v>
       </c>
       <c r="G146" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H146" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="I146" s="42" t="s">
         <v>590</v>
-      </c>
-      <c r="I146" s="42" t="s">
-        <v>591</v>
       </c>
       <c r="J146" s="38" t="s">
         <v>64</v>
@@ -10877,7 +10904,7 @@
         <v>64</v>
       </c>
       <c r="O146" s="64" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P146" s="38" t="s">
         <v>64</v>
@@ -10916,13 +10943,13 @@
         <v>45960</v>
       </c>
       <c r="G147" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="H147" s="37" t="s">
         <v>594</v>
       </c>
-      <c r="H147" s="37" t="s">
+      <c r="I147" s="42" t="s">
         <v>595</v>
-      </c>
-      <c r="I147" s="42" t="s">
-        <v>596</v>
       </c>
       <c r="J147" s="38" t="s">
         <v>64</v>
@@ -10936,7 +10963,7 @@
         <v>64</v>
       </c>
       <c r="O147" s="38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P147" s="38" t="s">
         <v>64</v>
@@ -11641,13 +11668,13 @@
         <v>45960</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H166" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="I166" s="42" t="s">
         <v>597</v>
-      </c>
-      <c r="I166" s="42" t="s">
-        <v>598</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -11661,7 +11688,7 @@
         <v>64</v>
       </c>
       <c r="O166" s="38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P166" s="38" t="s">
         <v>64</v>
@@ -11700,13 +11727,13 @@
         <v>45960</v>
       </c>
       <c r="G167" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="H167" s="37" t="s">
         <v>600</v>
       </c>
-      <c r="H167" s="37" t="s">
+      <c r="I167" s="42" t="s">
         <v>601</v>
-      </c>
-      <c r="I167" s="42" t="s">
-        <v>602</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -11720,7 +11747,7 @@
         <v>64</v>
       </c>
       <c r="O167" s="38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P167" s="38" t="s">
         <v>64</v>
@@ -11759,13 +11786,13 @@
         <v>45960</v>
       </c>
       <c r="G168" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="H168" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="H168" s="37" t="s">
+      <c r="I168" s="42" t="s">
         <v>605</v>
-      </c>
-      <c r="I168" s="42" t="s">
-        <v>606</v>
       </c>
       <c r="J168" s="38" t="s">
         <v>64</v>
@@ -11779,7 +11806,7 @@
         <v>64</v>
       </c>
       <c r="O168" s="38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P168" s="38" t="s">
         <v>64</v>
@@ -11818,13 +11845,13 @@
         <v>45960</v>
       </c>
       <c r="G169" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="H169" s="37" t="s">
         <v>608</v>
       </c>
-      <c r="H169" s="37" t="s">
+      <c r="I169" s="42" t="s">
         <v>609</v>
-      </c>
-      <c r="I169" s="42" t="s">
-        <v>610</v>
       </c>
       <c r="J169" s="38" t="s">
         <v>64</v>
@@ -11838,7 +11865,7 @@
         <v>64</v>
       </c>
       <c r="O169" s="38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P169" s="38" t="s">
         <v>64</v>
@@ -11877,13 +11904,13 @@
         <v>45960</v>
       </c>
       <c r="G170" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="H170" s="37" t="s">
         <v>612</v>
       </c>
-      <c r="H170" s="37" t="s">
+      <c r="I170" s="42" t="s">
         <v>613</v>
-      </c>
-      <c r="I170" s="42" t="s">
-        <v>614</v>
       </c>
       <c r="J170" s="38" t="s">
         <v>64</v>
@@ -11897,7 +11924,7 @@
         <v>64</v>
       </c>
       <c r="O170" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P170" s="38" t="s">
         <v>64</v>
@@ -12195,13 +12222,13 @@
         <v>45960</v>
       </c>
       <c r="G178" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="H178" s="37" t="s">
         <v>616</v>
       </c>
-      <c r="H178" s="37" t="s">
+      <c r="I178" s="37" t="s">
         <v>617</v>
-      </c>
-      <c r="I178" s="37" t="s">
-        <v>618</v>
       </c>
       <c r="J178" s="38" t="s">
         <v>64</v>
@@ -12215,7 +12242,7 @@
         <v>64</v>
       </c>
       <c r="O178" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P178" s="38" t="s">
         <v>64</v>
@@ -12254,13 +12281,13 @@
         <v>45960</v>
       </c>
       <c r="G179" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="H179" s="37" t="s">
         <v>620</v>
       </c>
-      <c r="H179" s="37" t="s">
+      <c r="I179" s="37" t="s">
         <v>621</v>
-      </c>
-      <c r="I179" s="37" t="s">
-        <v>622</v>
       </c>
       <c r="J179" s="38" t="s">
         <v>64</v>
@@ -12274,7 +12301,7 @@
         <v>64</v>
       </c>
       <c r="O179" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P179" s="38" t="s">
         <v>64</v>
@@ -12424,13 +12451,13 @@
         <v>45960</v>
       </c>
       <c r="G183" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="H183" s="37" t="s">
         <v>624</v>
       </c>
-      <c r="H183" s="37" t="s">
+      <c r="I183" s="37" t="s">
         <v>625</v>
-      </c>
-      <c r="I183" s="37" t="s">
-        <v>626</v>
       </c>
       <c r="J183" s="38" t="s">
         <v>64</v>
@@ -12444,7 +12471,7 @@
         <v>64</v>
       </c>
       <c r="O183" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P183" s="38" t="s">
         <v>64</v>
@@ -12483,13 +12510,13 @@
         <v>45960</v>
       </c>
       <c r="G184" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="H184" s="37" t="s">
         <v>631</v>
       </c>
-      <c r="H184" s="37" t="s">
+      <c r="I184" s="37" t="s">
         <v>632</v>
-      </c>
-      <c r="I184" s="37" t="s">
-        <v>633</v>
       </c>
       <c r="J184" s="38" t="s">
         <v>64</v>
@@ -12503,7 +12530,7 @@
         <v>64</v>
       </c>
       <c r="O184" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P184" s="38" t="s">
         <v>64</v>
@@ -12542,13 +12569,13 @@
         <v>45960</v>
       </c>
       <c r="G185" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="H185" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="H185" s="37" t="s">
+      <c r="I185" s="37" t="s">
         <v>636</v>
-      </c>
-      <c r="I185" s="37" t="s">
-        <v>637</v>
       </c>
       <c r="J185" s="38" t="s">
         <v>64</v>
@@ -12562,7 +12589,7 @@
         <v>64</v>
       </c>
       <c r="O185" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P185" s="38" t="s">
         <v>64</v>
@@ -12675,13 +12702,13 @@
         <v>45807</v>
       </c>
       <c r="G188" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="H188" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="H188" s="37" t="s">
+      <c r="I188" s="42" t="s">
         <v>649</v>
-      </c>
-      <c r="I188" s="42" t="s">
-        <v>650</v>
       </c>
       <c r="J188" s="38" t="s">
         <v>64</v>
@@ -12728,13 +12755,13 @@
         <v>45807</v>
       </c>
       <c r="G189" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="H189" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="H189" s="37" t="s">
+      <c r="I189" s="42" t="s">
         <v>652</v>
-      </c>
-      <c r="I189" s="42" t="s">
-        <v>653</v>
       </c>
       <c r="J189" s="38" t="s">
         <v>64</v>
@@ -12781,13 +12808,13 @@
         <v>45807</v>
       </c>
       <c r="G190" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="H190" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="H190" s="38" t="s">
+      <c r="I190" s="45" t="s">
         <v>640</v>
-      </c>
-      <c r="I190" s="45" t="s">
-        <v>641</v>
       </c>
       <c r="J190" s="38" t="s">
         <v>64</v>
@@ -12801,11 +12828,17 @@
         <v>64</v>
       </c>
       <c r="O190" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="P190" s="38"/>
-      <c r="Q190" s="38"/>
-      <c r="R190" s="38"/>
+        <v>641</v>
+      </c>
+      <c r="P190" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q190" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R190" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="S190" s="66" t="s">
         <v>489</v>
       </c>
@@ -12838,13 +12871,13 @@
         <v>45807</v>
       </c>
       <c r="G191" s="35" t="s">
+        <v>653</v>
+      </c>
+      <c r="H191" s="35" t="s">
         <v>654</v>
       </c>
-      <c r="H191" s="35" t="s">
+      <c r="I191" s="45" t="s">
         <v>655</v>
-      </c>
-      <c r="I191" s="45" t="s">
-        <v>656</v>
       </c>
       <c r="J191" s="38" t="s">
         <v>64</v>
@@ -12858,7 +12891,7 @@
         <v>64</v>
       </c>
       <c r="O191" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P191" s="38" t="s">
         <v>64</v>
@@ -12897,13 +12930,13 @@
         <v>45807</v>
       </c>
       <c r="G192" s="37" t="s">
+        <v>643</v>
+      </c>
+      <c r="H192" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="H192" s="37" t="s">
+      <c r="I192" s="42" t="s">
         <v>645</v>
-      </c>
-      <c r="I192" s="42" t="s">
-        <v>646</v>
       </c>
       <c r="J192" s="38" t="s">
         <v>64</v>
@@ -12917,7 +12950,7 @@
         <v>64</v>
       </c>
       <c r="O192" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P192" s="38" t="s">
         <v>64</v>
@@ -19248,27 +19281,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19526,32 +19538,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19570,6 +19578,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
+++ b/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\Accreditamento 2025\INVIO\S1#111#RBSOFTWARECENTERSRLXX\RBSoftware\WGesLaAn\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AA2DED-02C7-41C6-8331-004A840778CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7D97D1-F5FA-4D4F-B4A7-0991D8D38D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="28305" windowHeight="8415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="0" windowWidth="28305" windowHeight="8415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="656">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4587,7 +4587,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S191" sqref="S191"/>
+      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4924,7 +4924,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="270.75" thickBot="1">
@@ -5940,7 +5940,7 @@
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
       <c r="T31" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U31" s="39"/>
       <c r="V31" s="40"/>
@@ -6100,7 +6100,7 @@
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
       <c r="T35" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
@@ -6141,8 +6141,12 @@
       </c>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
+      <c r="M36" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="N36" s="38" t="s">
+        <v>228</v>
+      </c>
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
@@ -9832,7 +9836,9 @@
       <c r="M122" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="N122" s="38"/>
+      <c r="N122" s="38" t="s">
+        <v>228</v>
+      </c>
       <c r="O122" s="38"/>
       <c r="P122" s="38"/>
       <c r="Q122" s="38"/>
@@ -9883,7 +9889,9 @@
       <c r="M123" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="N123" s="38"/>
+      <c r="N123" s="38" t="s">
+        <v>228</v>
+      </c>
       <c r="O123" s="38"/>
       <c r="P123" s="38"/>
       <c r="Q123" s="38"/>
@@ -19281,6 +19289,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19538,28 +19567,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19578,31 +19611,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
+++ b/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\Accreditamento 2025\INVIO\S1#111#RBSOFTWARECENTERSRLXX\RBSoftware\WGesLaAn\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7D97D1-F5FA-4D4F-B4A7-0991D8D38D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BDBD79-69DC-465A-B0C9-AC887CEFA921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="0" windowWidth="28305" windowHeight="8415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="0" windowWidth="28305" windowHeight="8415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1711,12 +1711,6 @@
     <t>R.B. Software Center S.r.l.</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:24Z</t>
-  </si>
-  <si>
-    <t>6f893c73d651f9ae58208b206fff8809</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -1725,12 +1719,6 @@
   <si>
     <t>Il controllo sulla generazione del Token viene fatto a monte prima della procedura di validazione. In caso di errore viene visualizzato un messaggio a video riportante il tipo di errore.
 Il verificarsi di tale tipo di errore  dopo esser stato notificato consente all’utente di proseguire  con il processo e produrre il documento; il documento sarà però gestito tramite una coda e reinviato a valle della risoluzione dell’errore.</t>
-  </si>
-  <si>
-    <t>7e97c4cf0ec943fe48df802691e7d434</t>
-  </si>
-  <si>
-    <t>2025-10-29T05:13:04Z</t>
   </si>
   <si>
     <t>Il campo action_id non è corretto</t>
@@ -1926,18 +1914,6 @@
     <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: X]</t>
   </si>
   <si>
-    <t>2025-10-29T08:35:48Z</t>
-  </si>
-  <si>
-    <t>c2d880de6f6aed5eabfea55503b92816</t>
-  </si>
-  <si>
-    <t>2025-10-29T08:40:16Z</t>
-  </si>
-  <si>
-    <t>d85fb59ccc03c632c844e890bffa0b23</t>
-  </si>
-  <si>
     <t>codice fiscale 'prvprv00a41h501w' cittadino ed operatore: 16 cifre [A-Z0-9]{16}</t>
   </si>
   <si>
@@ -2155,18 +2131,6 @@
   <si>
     <t>Errore vocabolario.
 Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: RX]</t>
-  </si>
-  <si>
-    <t>2025-10-30T10:23:08Z</t>
-  </si>
-  <si>
-    <t>639d743f10b595213dee805c17b4c839</t>
-  </si>
-  <si>
-    <t>2025-10-30T10:25:01Z</t>
-  </si>
-  <si>
-    <t>1b73e93c6cabb089c0507ea86316ab43</t>
   </si>
   <si>
     <t>2025-10-30T10:35:29Z</t>
@@ -2422,6 +2386,42 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.e099f584cc9eb012b53a9bea661f73bf22cf1bafe2c8d86a005df6f7fa7a0242.d23332be6e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-04T03:52:26Z</t>
+  </si>
+  <si>
+    <t>40c12b6c72eb374e6567ab04b38e513c</t>
+  </si>
+  <si>
+    <t>2025-11-04T03:57:03Z</t>
+  </si>
+  <si>
+    <t>d8e9ae6cad4b44b59b528f80528ccca1</t>
+  </si>
+  <si>
+    <t>2025-11-04T04:01:21Z</t>
+  </si>
+  <si>
+    <t>510166072f2a2242e3a9f2062ab36f7f</t>
+  </si>
+  <si>
+    <t>2025-11-04T04:04:48Z</t>
+  </si>
+  <si>
+    <t>142a6c73e1c922b5806c207fbc6022ed</t>
+  </si>
+  <si>
+    <t>2025-11-04T04:07:30Z</t>
+  </si>
+  <si>
+    <t>c240ba19a98707e0f7ef91a65358af28</t>
+  </si>
+  <si>
+    <t>2025-11-04T04:10:24Z</t>
+  </si>
+  <si>
+    <t>8cefdef1c6422095093870ed5bb45bc0</t>
   </si>
 </sst>
 </file>
@@ -4587,7 +4587,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
+      <selection pane="bottomRight" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="80" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="D3" s="79"/>
       <c r="F3" s="6"/>
@@ -4688,7 +4688,7 @@
       <c r="A4" s="74"/>
       <c r="B4" s="75"/>
       <c r="C4" s="80" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="D4" s="79"/>
       <c r="E4" s="4"/>
@@ -4715,7 +4715,7 @@
       <c r="A5" s="76"/>
       <c r="B5" s="77"/>
       <c r="C5" s="80" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="D5" s="79"/>
       <c r="F5" s="6"/>
@@ -4944,16 +4944,16 @@
         <v>43</v>
       </c>
       <c r="F11" s="36">
-        <v>45959</v>
+        <v>45965</v>
       </c>
       <c r="G11" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="I11" s="42" t="s">
         <v>441</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>443</v>
       </c>
       <c r="J11" s="38" t="s">
         <v>64</v>
@@ -4967,7 +4967,7 @@
         <v>64</v>
       </c>
       <c r="O11" s="46" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P11" s="38" t="s">
         <v>64</v>
@@ -4975,7 +4975,7 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="47" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T11" s="38" t="s">
         <v>226</v>
@@ -5003,16 +5003,16 @@
         <v>55</v>
       </c>
       <c r="F12" s="36">
-        <v>45959</v>
+        <v>45965</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>447</v>
+        <v>646</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>446</v>
+        <v>647</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>64</v>
@@ -5026,7 +5026,7 @@
         <v>64</v>
       </c>
       <c r="O12" s="48" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P12" s="38" t="s">
         <v>64</v>
@@ -5034,7 +5034,7 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="49" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T12" s="38" t="s">
         <v>226</v>
@@ -5114,7 +5114,7 @@
         <v>64</v>
       </c>
       <c r="O14" s="50" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P14" s="38" t="s">
         <v>64</v>
@@ -5122,7 +5122,7 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="51" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="T14" s="38" t="s">
         <v>226</v>
@@ -5155,13 +5155,13 @@
         <v>45959</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="J15" s="38" t="s">
         <v>64</v>
@@ -5175,7 +5175,7 @@
         <v>64</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P15" s="38" t="s">
         <v>64</v>
@@ -5183,7 +5183,7 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="52" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="T15" s="38" t="s">
         <v>226</v>
@@ -5325,13 +5325,13 @@
         <v>45959</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J19" s="38" t="s">
         <v>64</v>
@@ -5345,7 +5345,7 @@
         <v>64</v>
       </c>
       <c r="O19" s="53" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P19" s="38" t="s">
         <v>64</v>
@@ -5353,7 +5353,7 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="54" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T19" s="38" t="s">
         <v>226</v>
@@ -5384,13 +5384,13 @@
         <v>45959</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J20" s="38" t="s">
         <v>64</v>
@@ -5404,7 +5404,7 @@
         <v>64</v>
       </c>
       <c r="O20" s="55" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P20" s="38" t="s">
         <v>64</v>
@@ -5412,7 +5412,7 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
       <c r="S20" s="56" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T20" s="38" t="s">
         <v>226</v>
@@ -5480,13 +5480,13 @@
         <v>45959</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J22" s="38" t="s">
         <v>64</v>
@@ -5500,7 +5500,7 @@
         <v>64</v>
       </c>
       <c r="O22" s="57" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P22" s="38" t="s">
         <v>64</v>
@@ -5508,7 +5508,7 @@
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="58" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T22" s="38" t="s">
         <v>226</v>
@@ -5539,13 +5539,13 @@
         <v>45959</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>64</v>
@@ -5559,7 +5559,7 @@
         <v>64</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P23" s="38" t="s">
         <v>64</v>
@@ -5567,7 +5567,7 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="59" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T23" s="38" t="s">
         <v>226</v>
@@ -5709,13 +5709,13 @@
         <v>45959</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J27" s="38" t="s">
         <v>64</v>
@@ -5729,7 +5729,7 @@
         <v>64</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P27" s="38" t="s">
         <v>64</v>
@@ -5737,7 +5737,7 @@
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
       <c r="S27" s="60" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="T27" s="38" t="s">
         <v>226</v>
@@ -5768,13 +5768,13 @@
         <v>45959</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J28" s="38" t="s">
         <v>64</v>
@@ -5788,7 +5788,7 @@
         <v>64</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="P28" s="38" t="s">
         <v>64</v>
@@ -5796,7 +5796,7 @@
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
       <c r="S28" s="61" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="T28" s="38" t="s">
         <v>226</v>
@@ -5839,7 +5839,7 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
@@ -5866,13 +5866,13 @@
         <v>45959</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J30" s="38" t="s">
         <v>64</v>
@@ -5886,7 +5886,7 @@
         <v>64</v>
       </c>
       <c r="O30" s="38" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P30" s="38" t="s">
         <v>64</v>
@@ -5894,7 +5894,7 @@
       <c r="Q30" s="62"/>
       <c r="R30" s="38"/>
       <c r="S30" s="63" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T30" s="38" t="s">
         <v>226</v>
@@ -5980,7 +5980,7 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
@@ -6019,7 +6019,7 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
@@ -6058,7 +6058,7 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
@@ -6128,13 +6128,13 @@
         <v>45959</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J36" s="38" t="s">
         <v>64</v>
@@ -6181,13 +6181,13 @@
         <v>45959</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J37" s="38" t="s">
         <v>64</v>
@@ -6201,7 +6201,7 @@
         <v>64</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="P37" s="38" t="s">
         <v>64</v>
@@ -6209,7 +6209,7 @@
       <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
       <c r="S37" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T37" s="38" t="s">
         <v>226</v>
@@ -6240,13 +6240,13 @@
         <v>45959</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I38" s="42" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J38" s="38" t="s">
         <v>64</v>
@@ -6260,7 +6260,7 @@
         <v>64</v>
       </c>
       <c r="O38" s="38" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P38" s="38" t="s">
         <v>64</v>
@@ -6268,7 +6268,7 @@
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T38" s="38" t="s">
         <v>226</v>
@@ -6888,16 +6888,16 @@
         <v>43</v>
       </c>
       <c r="F55" s="36">
-        <v>45959</v>
+        <v>45965</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>501</v>
+        <v>650</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>502</v>
+        <v>651</v>
       </c>
       <c r="I55" s="42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J55" s="38" t="s">
         <v>64</v>
@@ -6911,7 +6911,7 @@
         <v>64</v>
       </c>
       <c r="O55" s="64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P55" s="38" t="s">
         <v>64</v>
@@ -6919,7 +6919,7 @@
       <c r="Q55" s="38"/>
       <c r="R55" s="38"/>
       <c r="S55" s="65" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T55" s="38" t="s">
         <v>226</v>
@@ -6947,16 +6947,16 @@
         <v>55</v>
       </c>
       <c r="F56" s="36">
-        <v>45959</v>
+        <v>45965</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>503</v>
+        <v>648</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>504</v>
+        <v>649</v>
       </c>
       <c r="I56" s="42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J56" s="38" t="s">
         <v>64</v>
@@ -6970,7 +6970,7 @@
         <v>64</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P56" s="38" t="s">
         <v>64</v>
@@ -6978,7 +6978,7 @@
       <c r="Q56" s="38"/>
       <c r="R56" s="38"/>
       <c r="S56" s="65" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T56" s="38" t="s">
         <v>226</v>
@@ -7021,7 +7021,7 @@
         <v>64</v>
       </c>
       <c r="O57" s="64" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P57" s="38" t="s">
         <v>64</v>
@@ -7029,7 +7029,7 @@
       <c r="Q57" s="38"/>
       <c r="R57" s="38"/>
       <c r="S57" s="65" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="T57" s="38" t="s">
         <v>226</v>
@@ -7062,13 +7062,13 @@
         <v>45959</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="I58" s="42" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>64</v>
@@ -7082,7 +7082,7 @@
         <v>64</v>
       </c>
       <c r="O58" s="38" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P58" s="38" t="s">
         <v>64</v>
@@ -7090,7 +7090,7 @@
       <c r="Q58" s="38"/>
       <c r="R58" s="38"/>
       <c r="S58" s="65" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="T58" s="38" t="s">
         <v>226</v>
@@ -7121,13 +7121,13 @@
         <v>45959</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H59" s="37" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="I59" s="42" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="J59" s="38" t="s">
         <v>64</v>
@@ -7141,7 +7141,7 @@
         <v>64</v>
       </c>
       <c r="O59" s="64" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P59" s="38" t="s">
         <v>64</v>
@@ -7149,7 +7149,7 @@
       <c r="Q59" s="38"/>
       <c r="R59" s="38"/>
       <c r="S59" s="65" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T59" s="38" t="s">
         <v>226</v>
@@ -7180,13 +7180,13 @@
         <v>45959</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="J60" s="38" t="s">
         <v>64</v>
@@ -7200,7 +7200,7 @@
         <v>64</v>
       </c>
       <c r="O60" s="64" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P60" s="38" t="s">
         <v>64</v>
@@ -7208,7 +7208,7 @@
       <c r="Q60" s="38"/>
       <c r="R60" s="38"/>
       <c r="S60" s="65" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T60" s="38" t="s">
         <v>226</v>
@@ -7239,13 +7239,13 @@
         <v>45959</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I61" s="42" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>64</v>
@@ -7259,7 +7259,7 @@
         <v>64</v>
       </c>
       <c r="O61" s="64" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="P61" s="38" t="s">
         <v>64</v>
@@ -7267,7 +7267,7 @@
       <c r="Q61" s="38"/>
       <c r="R61" s="38"/>
       <c r="S61" s="65" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T61" s="38" t="s">
         <v>226</v>
@@ -7298,13 +7298,13 @@
         <v>45959</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="I62" s="42" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="J62" s="38" t="s">
         <v>64</v>
@@ -7318,7 +7318,7 @@
         <v>64</v>
       </c>
       <c r="O62" s="38" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="P62" s="38" t="s">
         <v>64</v>
@@ -7326,7 +7326,7 @@
       <c r="Q62" s="38"/>
       <c r="R62" s="38"/>
       <c r="S62" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T62" s="38" t="s">
         <v>226</v>
@@ -7357,13 +7357,13 @@
         <v>45959</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="I63" s="42" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>64</v>
@@ -7377,7 +7377,7 @@
         <v>64</v>
       </c>
       <c r="O63" s="38" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="P63" s="38" t="s">
         <v>64</v>
@@ -7385,7 +7385,7 @@
       <c r="Q63" s="38"/>
       <c r="R63" s="38"/>
       <c r="S63" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T63" s="38" t="s">
         <v>226</v>
@@ -7416,13 +7416,13 @@
         <v>45959</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="I64" s="42" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>64</v>
@@ -7436,7 +7436,7 @@
         <v>64</v>
       </c>
       <c r="O64" s="38" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P64" s="38" t="s">
         <v>64</v>
@@ -7444,7 +7444,7 @@
       <c r="Q64" s="38"/>
       <c r="R64" s="38"/>
       <c r="S64" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T64" s="38" t="s">
         <v>226</v>
@@ -7475,13 +7475,13 @@
         <v>45959</v>
       </c>
       <c r="G65" s="37" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="I65" s="42" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>64</v>
@@ -7495,7 +7495,7 @@
         <v>64</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P65" s="38" t="s">
         <v>64</v>
@@ -7503,7 +7503,7 @@
       <c r="Q65" s="38"/>
       <c r="R65" s="38"/>
       <c r="S65" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T65" s="38" t="s">
         <v>226</v>
@@ -7534,13 +7534,13 @@
         <v>45959</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H66" s="37" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="I66" s="42" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="J66" s="38" t="s">
         <v>64</v>
@@ -7554,7 +7554,7 @@
         <v>64</v>
       </c>
       <c r="O66" s="38" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="P66" s="38" t="s">
         <v>64</v>
@@ -7562,7 +7562,7 @@
       <c r="Q66" s="38"/>
       <c r="R66" s="38"/>
       <c r="S66" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T66" s="38" t="s">
         <v>226</v>
@@ -7593,13 +7593,13 @@
         <v>45959</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="I67" s="42" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J67" s="38" t="s">
         <v>64</v>
@@ -7613,7 +7613,7 @@
         <v>64</v>
       </c>
       <c r="O67" s="38" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="P67" s="38" t="s">
         <v>64</v>
@@ -7621,7 +7621,7 @@
       <c r="Q67" s="38"/>
       <c r="R67" s="38"/>
       <c r="S67" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T67" s="38" t="s">
         <v>226</v>
@@ -7652,13 +7652,13 @@
         <v>45959</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>64</v>
@@ -7672,7 +7672,7 @@
         <v>64</v>
       </c>
       <c r="O68" s="38" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="P68" s="38" t="s">
         <v>64</v>
@@ -7680,7 +7680,7 @@
       <c r="Q68" s="38"/>
       <c r="R68" s="38"/>
       <c r="S68" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T68" s="38" t="s">
         <v>226</v>
@@ -9450,13 +9450,13 @@
         <v>45959</v>
       </c>
       <c r="G116" s="37" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="I116" s="42" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="J116" s="38" t="s">
         <v>64</v>
@@ -9470,7 +9470,7 @@
         <v>64</v>
       </c>
       <c r="O116" s="38" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="P116" s="38" t="s">
         <v>64</v>
@@ -9478,7 +9478,7 @@
       <c r="Q116" s="38"/>
       <c r="R116" s="38"/>
       <c r="S116" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T116" s="38" t="s">
         <v>226</v>
@@ -9509,13 +9509,13 @@
         <v>45959</v>
       </c>
       <c r="G117" s="37" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="I117" s="42" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="J117" s="38" t="s">
         <v>64</v>
@@ -9529,7 +9529,7 @@
         <v>64</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="P117" s="38" t="s">
         <v>64</v>
@@ -9537,7 +9537,7 @@
       <c r="Q117" s="38"/>
       <c r="R117" s="38"/>
       <c r="S117" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T117" s="38" t="s">
         <v>226</v>
@@ -9568,13 +9568,13 @@
         <v>45959</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="H118" s="37" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="J118" s="38" t="s">
         <v>64</v>
@@ -9588,7 +9588,7 @@
         <v>64</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="P118" s="38" t="s">
         <v>64</v>
@@ -9600,7 +9600,7 @@
         <v>64</v>
       </c>
       <c r="S118" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T118" s="38" t="s">
         <v>226</v>
@@ -9631,13 +9631,13 @@
         <v>45960</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="J119" s="38" t="s">
         <v>64</v>
@@ -9651,7 +9651,7 @@
         <v>64</v>
       </c>
       <c r="O119" s="38" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="P119" s="38" t="s">
         <v>64</v>
@@ -9663,7 +9663,7 @@
         <v>64</v>
       </c>
       <c r="S119" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T119" s="38" t="s">
         <v>226</v>
@@ -9694,13 +9694,13 @@
         <v>45960</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="J120" s="38" t="s">
         <v>64</v>
@@ -9714,7 +9714,7 @@
         <v>64</v>
       </c>
       <c r="O120" s="38" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="P120" s="38" t="s">
         <v>64</v>
@@ -9726,7 +9726,7 @@
         <v>64</v>
       </c>
       <c r="S120" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T120" s="38" t="s">
         <v>226</v>
@@ -9757,13 +9757,13 @@
         <v>45960</v>
       </c>
       <c r="G121" s="35" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="H121" s="35" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="I121" s="45" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="J121" s="38" t="s">
         <v>64</v>
@@ -9777,7 +9777,7 @@
         <v>64</v>
       </c>
       <c r="O121" s="38" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="P121" s="38" t="s">
         <v>64</v>
@@ -9789,7 +9789,7 @@
         <v>64</v>
       </c>
       <c r="S121" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T121" s="38" t="s">
         <v>226</v>
@@ -9820,13 +9820,13 @@
         <v>45960</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="I122" s="42" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="J122" s="38" t="s">
         <v>64</v>
@@ -9873,13 +9873,13 @@
         <v>45960</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="J123" s="38" t="s">
         <v>64</v>
@@ -9926,13 +9926,13 @@
         <v>45960</v>
       </c>
       <c r="G124" s="37" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J124" s="38" t="s">
         <v>64</v>
@@ -9946,7 +9946,7 @@
         <v>64</v>
       </c>
       <c r="O124" s="38" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="P124" s="38" t="s">
         <v>64</v>
@@ -9958,7 +9958,7 @@
         <v>64</v>
       </c>
       <c r="S124" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T124" s="38" t="s">
         <v>226</v>
@@ -9986,16 +9986,16 @@
         <v>43</v>
       </c>
       <c r="F125" s="37">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="G125" s="37" t="s">
-        <v>576</v>
+        <v>652</v>
       </c>
       <c r="H125" s="37" t="s">
-        <v>577</v>
+        <v>653</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J125" s="38" t="s">
         <v>64</v>
@@ -10009,7 +10009,7 @@
         <v>64</v>
       </c>
       <c r="O125" s="64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P125" s="38" t="s">
         <v>64</v>
@@ -10017,7 +10017,7 @@
       <c r="Q125" s="38"/>
       <c r="R125" s="38"/>
       <c r="S125" s="65" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T125" s="38" t="s">
         <v>226</v>
@@ -10045,16 +10045,16 @@
         <v>55</v>
       </c>
       <c r="F126" s="37">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="G126" s="37" t="s">
-        <v>578</v>
+        <v>654</v>
       </c>
       <c r="H126" s="37" t="s">
-        <v>579</v>
+        <v>655</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J126" s="38" t="s">
         <v>64</v>
@@ -10068,7 +10068,7 @@
         <v>64</v>
       </c>
       <c r="O126" s="64" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P126" s="38" t="s">
         <v>64</v>
@@ -10076,7 +10076,7 @@
       <c r="Q126" s="38"/>
       <c r="R126" s="38"/>
       <c r="S126" s="65" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T126" s="38" t="s">
         <v>226</v>
@@ -10119,7 +10119,7 @@
         <v>64</v>
       </c>
       <c r="O127" s="64" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P127" s="38" t="s">
         <v>64</v>
@@ -10127,7 +10127,7 @@
       <c r="Q127" s="38"/>
       <c r="R127" s="38"/>
       <c r="S127" s="65" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="T127" s="38" t="s">
         <v>226</v>
@@ -10160,13 +10160,13 @@
         <v>45960</v>
       </c>
       <c r="G128" s="37" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="H128" s="37" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="J128" s="38" t="s">
         <v>64</v>
@@ -10180,7 +10180,7 @@
         <v>64</v>
       </c>
       <c r="O128" s="38" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="P128" s="38" t="s">
         <v>64</v>
@@ -10188,7 +10188,7 @@
       <c r="Q128" s="38"/>
       <c r="R128" s="38"/>
       <c r="S128" s="65" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="T128" s="38" t="s">
         <v>226</v>
@@ -10219,13 +10219,13 @@
         <v>45960</v>
       </c>
       <c r="G129" s="37" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="H129" s="37" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>64</v>
@@ -10239,7 +10239,7 @@
         <v>64</v>
       </c>
       <c r="O129" s="64" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P129" s="38" t="s">
         <v>64</v>
@@ -10247,7 +10247,7 @@
       <c r="Q129" s="38"/>
       <c r="R129" s="38"/>
       <c r="S129" s="65" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T129" s="38" t="s">
         <v>226</v>
@@ -10278,13 +10278,13 @@
         <v>45960</v>
       </c>
       <c r="G130" s="37" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="H130" s="37" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="I130" s="42" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="J130" s="38" t="s">
         <v>64</v>
@@ -10298,7 +10298,7 @@
         <v>64</v>
       </c>
       <c r="O130" s="64" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P130" s="38" t="s">
         <v>64</v>
@@ -10306,7 +10306,7 @@
       <c r="Q130" s="38"/>
       <c r="R130" s="38"/>
       <c r="S130" s="65" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T130" s="38" t="s">
         <v>226</v>
@@ -10892,13 +10892,13 @@
         <v>45960</v>
       </c>
       <c r="G146" s="37" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="H146" s="37" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="I146" s="42" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="J146" s="38" t="s">
         <v>64</v>
@@ -10912,7 +10912,7 @@
         <v>64</v>
       </c>
       <c r="O146" s="64" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="P146" s="38" t="s">
         <v>64</v>
@@ -10920,7 +10920,7 @@
       <c r="Q146" s="38"/>
       <c r="R146" s="38"/>
       <c r="S146" s="65" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T146" s="38" t="s">
         <v>226</v>
@@ -10951,13 +10951,13 @@
         <v>45960</v>
       </c>
       <c r="G147" s="37" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="H147" s="37" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="I147" s="42" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="J147" s="38" t="s">
         <v>64</v>
@@ -10971,7 +10971,7 @@
         <v>64</v>
       </c>
       <c r="O147" s="38" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="P147" s="38" t="s">
         <v>64</v>
@@ -10979,7 +10979,7 @@
       <c r="Q147" s="38"/>
       <c r="R147" s="38"/>
       <c r="S147" s="65" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T147" s="38" t="s">
         <v>226</v>
@@ -11676,13 +11676,13 @@
         <v>45960</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="J166" s="38" t="s">
         <v>64</v>
@@ -11696,7 +11696,7 @@
         <v>64</v>
       </c>
       <c r="O166" s="38" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P166" s="38" t="s">
         <v>64</v>
@@ -11704,7 +11704,7 @@
       <c r="Q166" s="38"/>
       <c r="R166" s="38"/>
       <c r="S166" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T166" s="38" t="s">
         <v>226</v>
@@ -11735,13 +11735,13 @@
         <v>45960</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="H167" s="37" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -11755,7 +11755,7 @@
         <v>64</v>
       </c>
       <c r="O167" s="38" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="P167" s="38" t="s">
         <v>64</v>
@@ -11763,7 +11763,7 @@
       <c r="Q167" s="38"/>
       <c r="R167" s="38"/>
       <c r="S167" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T167" s="38" t="s">
         <v>226</v>
@@ -11794,13 +11794,13 @@
         <v>45960</v>
       </c>
       <c r="G168" s="37" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="H168" s="37" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="I168" s="42" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="J168" s="38" t="s">
         <v>64</v>
@@ -11814,7 +11814,7 @@
         <v>64</v>
       </c>
       <c r="O168" s="38" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="P168" s="38" t="s">
         <v>64</v>
@@ -11822,7 +11822,7 @@
       <c r="Q168" s="38"/>
       <c r="R168" s="38"/>
       <c r="S168" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T168" s="38" t="s">
         <v>226</v>
@@ -11853,13 +11853,13 @@
         <v>45960</v>
       </c>
       <c r="G169" s="37" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="J169" s="38" t="s">
         <v>64</v>
@@ -11873,7 +11873,7 @@
         <v>64</v>
       </c>
       <c r="O169" s="38" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="P169" s="38" t="s">
         <v>64</v>
@@ -11881,7 +11881,7 @@
       <c r="Q169" s="38"/>
       <c r="R169" s="38"/>
       <c r="S169" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T169" s="38" t="s">
         <v>226</v>
@@ -11912,13 +11912,13 @@
         <v>45960</v>
       </c>
       <c r="G170" s="37" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="J170" s="38" t="s">
         <v>64</v>
@@ -11932,7 +11932,7 @@
         <v>64</v>
       </c>
       <c r="O170" s="38" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="P170" s="38" t="s">
         <v>64</v>
@@ -11940,7 +11940,7 @@
       <c r="Q170" s="38"/>
       <c r="R170" s="38"/>
       <c r="S170" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T170" s="38" t="s">
         <v>226</v>
@@ -12230,13 +12230,13 @@
         <v>45960</v>
       </c>
       <c r="G178" s="37" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="H178" s="37" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I178" s="37" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="J178" s="38" t="s">
         <v>64</v>
@@ -12250,7 +12250,7 @@
         <v>64</v>
       </c>
       <c r="O178" s="38" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="P178" s="38" t="s">
         <v>64</v>
@@ -12258,7 +12258,7 @@
       <c r="Q178" s="38"/>
       <c r="R178" s="38"/>
       <c r="S178" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T178" s="38" t="s">
         <v>226</v>
@@ -12289,13 +12289,13 @@
         <v>45960</v>
       </c>
       <c r="G179" s="37" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="H179" s="37" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="I179" s="37" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="J179" s="38" t="s">
         <v>64</v>
@@ -12309,7 +12309,7 @@
         <v>64</v>
       </c>
       <c r="O179" s="38" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="P179" s="38" t="s">
         <v>64</v>
@@ -12317,7 +12317,7 @@
       <c r="Q179" s="38"/>
       <c r="R179" s="38"/>
       <c r="S179" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T179" s="38" t="s">
         <v>226</v>
@@ -12459,13 +12459,13 @@
         <v>45960</v>
       </c>
       <c r="G183" s="37" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="H183" s="37" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="I183" s="37" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="J183" s="38" t="s">
         <v>64</v>
@@ -12479,7 +12479,7 @@
         <v>64</v>
       </c>
       <c r="O183" s="38" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="P183" s="38" t="s">
         <v>64</v>
@@ -12487,7 +12487,7 @@
       <c r="Q183" s="38"/>
       <c r="R183" s="38"/>
       <c r="S183" s="65" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T183" s="38" t="s">
         <v>226</v>
@@ -12518,13 +12518,13 @@
         <v>45960</v>
       </c>
       <c r="G184" s="37" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="H184" s="37" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="I184" s="37" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="J184" s="38" t="s">
         <v>64</v>
@@ -12538,7 +12538,7 @@
         <v>64</v>
       </c>
       <c r="O184" s="38" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="P184" s="38" t="s">
         <v>64</v>
@@ -12546,7 +12546,7 @@
       <c r="Q184" s="38"/>
       <c r="R184" s="38"/>
       <c r="S184" s="66" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T184" s="38" t="s">
         <v>226</v>
@@ -12577,13 +12577,13 @@
         <v>45960</v>
       </c>
       <c r="G185" s="37" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="H185" s="37" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="I185" s="37" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="J185" s="38" t="s">
         <v>64</v>
@@ -12597,7 +12597,7 @@
         <v>64</v>
       </c>
       <c r="O185" s="38" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="P185" s="38" t="s">
         <v>64</v>
@@ -12605,7 +12605,7 @@
       <c r="Q185" s="38"/>
       <c r="R185" s="38"/>
       <c r="S185" s="66" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T185" s="38" t="s">
         <v>226</v>
@@ -12710,13 +12710,13 @@
         <v>45807</v>
       </c>
       <c r="G188" s="37" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H188" s="37" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="I188" s="42" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="J188" s="38" t="s">
         <v>64</v>
@@ -12763,13 +12763,13 @@
         <v>45807</v>
       </c>
       <c r="G189" s="37" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="J189" s="38" t="s">
         <v>64</v>
@@ -12816,13 +12816,13 @@
         <v>45807</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H190" s="38" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="I190" s="45" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="J190" s="38" t="s">
         <v>64</v>
@@ -12836,7 +12836,7 @@
         <v>64</v>
       </c>
       <c r="O190" s="38" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="P190" s="38" t="s">
         <v>64</v>
@@ -12848,7 +12848,7 @@
         <v>64</v>
       </c>
       <c r="S190" s="66" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T190" s="38" t="s">
         <v>226</v>
@@ -12879,13 +12879,13 @@
         <v>45807</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="I191" s="45" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="J191" s="38" t="s">
         <v>64</v>
@@ -12899,7 +12899,7 @@
         <v>64</v>
       </c>
       <c r="O191" s="38" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="P191" s="38" t="s">
         <v>64</v>
@@ -12907,7 +12907,7 @@
       <c r="Q191" s="38"/>
       <c r="R191" s="38"/>
       <c r="S191" s="66" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T191" s="38" t="s">
         <v>226</v>
@@ -12938,13 +12938,13 @@
         <v>45807</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="H192" s="37" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="I192" s="42" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="J192" s="38" t="s">
         <v>64</v>
@@ -12958,7 +12958,7 @@
         <v>64</v>
       </c>
       <c r="O192" s="38" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="P192" s="38" t="s">
         <v>64</v>
@@ -12966,7 +12966,7 @@
       <c r="Q192" s="38"/>
       <c r="R192" s="38"/>
       <c r="S192" s="66" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="T192" s="38" t="s">
         <v>226</v>
@@ -19289,27 +19289,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19567,32 +19546,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19611,6 +19586,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
+++ b/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\Accreditamento 2025\INVIO\S1#111#RBSOFTWARECENTERSRLXX\RBSoftware\WGesLaAn\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335715B7-2ADB-44E4-900A-1CF3ECC96BF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C9666B-1E88-4E1B-A413-517ACC64DB97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="28305" windowHeight="8415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="0" windowWidth="28305" windowHeight="8415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1609,15 +1609,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.3ce08b3c3374dd7b007da951ab6f30834a775fdb80077b4d17b093ecf740f239.468f948b7e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-11-08T10:08:16Z</t>
-  </si>
-  <si>
-    <t>821cf3596e900fe698a08f9d19f9ebdd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.4bb854b3881cd410b716ca9cdb03c80cbebfdc80716c994cfea9769f1f757b49.d29e356b3e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-11-08T10:45:51Z</t>
   </si>
   <si>
@@ -1625,6 +1616,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.d89965edcf43c9a6eff3bde2e935341706be38b902aa3e69aead7d756dd6044b.904120d66c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-11T02:22:00Z</t>
+  </si>
+  <si>
+    <t>8deaef989815052f3629efa8d255735f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.53712ac3c23f3ff6df176a509d9cd2fea9cc27467a2f08536cfd8f7c7f1eed45.4d3a1d7672^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3790,7 +3790,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6237,16 +6237,16 @@
         <v>193</v>
       </c>
       <c r="F47" s="37">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J47" s="38" t="s">
         <v>54</v>
@@ -7455,13 +7455,13 @@
         <v>45969</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>54</v>
@@ -14017,27 +14017,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -14295,32 +14274,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14339,6 +14314,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
+++ b/GATEWAY/S1#111RBSOFTWARECENTERSRLXX/RBSoftware/WGesLaAn/1/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VB6\WGesLaAn\Documenti\FSE\FSE 2.0\Accreditamento 2025\INVIO\S1#111#RBSOFTWARECENTERSRLXX\RBSoftware\WGesLaAn\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C9666B-1E88-4E1B-A413-517ACC64DB97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9876106-89BA-4C7E-94C5-0276354D03F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="0" windowWidth="28305" windowHeight="8415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="0" windowWidth="28305" windowHeight="8415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="426">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1399,19 +1399,6 @@
 			93341-6 Sezione Terapia Farmacologica Consigliata</t>
   </si>
   <si>
-    <t>2025-10-30T01:54:41Z</t>
-  </si>
-  <si>
-    <t>97ccc10325fa9c66e7bafb37c2d2b94f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.edb6bad1cfe33598a34cf321c6d8d9837812e461bf0a3b08c3fcadbdc88dde88.401da7d089^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore di sintassi.
-ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'displayName' on element 'code' is not valid with respect to its type, 'st'.</t>
-  </si>
-  <si>
     <t>2025-10-30T02:02:21Z</t>
   </si>
   <si>
@@ -1625,6 +1612,18 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.53712ac3c23f3ff6df176a509d9cd2fea9cc27467a2f08536cfd8f7c7f1eed45.4d3a1d7672^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']</t>
+  </si>
+  <si>
+    <t>2025-11-18T04:24:45Z</t>
+  </si>
+  <si>
+    <t>23f18b0c6225ff50a2a3ea9ed0dfb7fb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8d4ed3f73322327ba9eb67c2efe4a148aacbcdef9295416aee7b2ae6a9dd0e56.03ee99500c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2280,9 +2279,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3784,16 +3780,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W632"/>
+  <dimension ref="A1:W627"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
@@ -3803,14 +3799,14 @@
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="18" width="36.42578125" customWidth="1"/>
-    <col min="19" max="19" width="27.140625" customWidth="1"/>
+    <col min="19" max="19" width="75.140625" customWidth="1"/>
     <col min="20" max="20" width="33.140625" customWidth="1"/>
     <col min="21" max="21" width="36.42578125" customWidth="1"/>
     <col min="22" max="23" width="31.85546875" customWidth="1"/>
     <col min="27" max="27" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.25" customHeight="1">
+    <row r="1" spans="1:23">
       <c r="C1" s="4"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3831,15 +3827,15 @@
       <c r="V1" s="2"/>
       <c r="W1" s="9"/>
     </row>
-    <row r="2" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:23" ht="18.75">
+      <c r="A2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="79"/>
+      <c r="D2" s="78"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3859,15 +3855,15 @@
       <c r="V2" s="2"/>
       <c r="W2" s="9"/>
     </row>
-    <row r="3" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+    <row r="3" spans="1:23" ht="15.75">
+      <c r="A3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="80" t="s">
-        <v>379</v>
-      </c>
-      <c r="D3" s="79"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3887,13 +3883,13 @@
       <c r="V3" s="2"/>
       <c r="W3" s="9"/>
     </row>
-    <row r="4" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="80" t="s">
-        <v>380</v>
-      </c>
-      <c r="D4" s="79"/>
+    <row r="4" spans="1:23" ht="15.75">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="79" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="78"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3914,13 +3910,13 @@
       <c r="V4" s="2"/>
       <c r="W4" s="9"/>
     </row>
-    <row r="5" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="80" t="s">
-        <v>381</v>
-      </c>
-      <c r="D5" s="79"/>
+    <row r="5" spans="1:23" ht="15.75">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="78"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3940,9 +3936,9 @@
       <c r="V5" s="2"/>
       <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
+    <row r="6" spans="1:23">
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3963,7 +3959,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1">
+    <row r="7" spans="1:23">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3986,7 +3982,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="9"/>
     </row>
-    <row r="8" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:23" ht="15.75" thickBot="1">
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4006,7 +4002,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:23" s="18" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:23" s="18" customFormat="1" ht="132" thickBot="1">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -4097,13 +4093,13 @@
         <v>45969</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>54</v>
@@ -4130,7 +4126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="270.75" thickBot="1">
+    <row r="11" spans="1:23" ht="150.75" thickBot="1">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -4150,10 +4146,10 @@
         <v>45965</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I11" s="42" t="s">
         <v>215</v>
@@ -4175,8 +4171,12 @@
       <c r="P11" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
+      <c r="Q11" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="S11" s="47" t="s">
         <v>217</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="270.75" thickBot="1">
+    <row r="12" spans="1:23" ht="165.75" thickBot="1">
       <c r="A12" s="35">
         <v>36</v>
       </c>
@@ -4209,10 +4209,10 @@
         <v>45965</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I12" s="42" t="s">
         <v>215</v>
@@ -4234,8 +4234,12 @@
       <c r="P12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
+      <c r="Q12" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="S12" s="49" t="s">
         <v>217</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="195.75" thickBot="1">
+    <row r="13" spans="1:23" ht="90.75" thickBot="1">
       <c r="A13" s="35">
         <v>44</v>
       </c>
@@ -4285,8 +4289,12 @@
       <c r="P13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
+      <c r="Q13" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="S13" s="51" t="s">
         <v>220</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="409.6" thickBot="1">
+    <row r="14" spans="1:23" ht="180.75" thickBot="1">
       <c r="A14" s="35">
         <v>53</v>
       </c>
@@ -4346,8 +4354,12 @@
       <c r="P14" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
+      <c r="Q14" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="S14" s="52" t="s">
         <v>224</v>
       </c>
@@ -4360,7 +4372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="390.75" thickBot="1">
+    <row r="15" spans="1:23" ht="165.75" thickBot="1">
       <c r="A15" s="35">
         <v>55</v>
       </c>
@@ -4405,8 +4417,12 @@
       <c r="P15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
+      <c r="Q15" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="S15" s="54" t="s">
         <v>229</v>
       </c>
@@ -4419,7 +4435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="390.75" thickBot="1">
+    <row r="16" spans="1:23" ht="165.75" thickBot="1">
       <c r="A16" s="35">
         <v>56</v>
       </c>
@@ -4464,8 +4480,12 @@
       <c r="P16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
+      <c r="Q16" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="S16" s="56" t="s">
         <v>229</v>
       </c>
@@ -4478,7 +4498,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="390.75" thickBot="1">
+    <row r="17" spans="1:23" ht="165.75" thickBot="1">
       <c r="A17" s="35">
         <v>57</v>
       </c>
@@ -4523,8 +4543,12 @@
       <c r="P17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
+      <c r="Q17" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="S17" s="58" t="s">
         <v>229</v>
       </c>
@@ -4537,7 +4561,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="390.75" thickBot="1">
+    <row r="18" spans="1:23" ht="165.75" thickBot="1">
       <c r="A18" s="35">
         <v>59</v>
       </c>
@@ -4582,8 +4606,12 @@
       <c r="P18" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
+      <c r="Q18" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="S18" s="59" t="s">
         <v>229</v>
       </c>
@@ -4641,8 +4669,12 @@
       <c r="P19" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
+      <c r="Q19" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="S19" s="60" t="s">
         <v>243</v>
       </c>
@@ -4655,7 +4687,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="315.75" thickBot="1">
+    <row r="20" spans="1:23" ht="150.75" thickBot="1">
       <c r="A20" s="35">
         <v>61</v>
       </c>
@@ -4700,8 +4732,12 @@
       <c r="P20" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
+      <c r="Q20" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="S20" s="61" t="s">
         <v>243</v>
       </c>
@@ -4714,7 +4750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="315.75" thickBot="1">
+    <row r="21" spans="1:23" ht="150.75" thickBot="1">
       <c r="A21" s="35">
         <v>62</v>
       </c>
@@ -4759,9 +4795,13 @@
       <c r="P21" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="63" t="s">
+      <c r="Q21" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="62" t="s">
         <v>255</v>
       </c>
       <c r="T21" s="38" t="s">
@@ -4796,7 +4836,7 @@
       <c r="J22" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="64" t="s">
+      <c r="K22" s="63" t="s">
         <v>122</v>
       </c>
       <c r="L22" s="38"/>
@@ -4839,7 +4879,7 @@
       <c r="J23" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="K23" s="64" t="s">
+      <c r="K23" s="63" t="s">
         <v>122</v>
       </c>
       <c r="L23" s="38"/>
@@ -4879,13 +4919,13 @@
         <v>45969</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J24" s="38" t="s">
         <v>54</v>
@@ -4912,7 +4952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="315.75" thickBot="1">
+    <row r="25" spans="1:23" ht="150.75" thickBot="1">
       <c r="A25" s="35">
         <v>466</v>
       </c>
@@ -4957,9 +4997,13 @@
       <c r="P25" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="65" t="s">
+      <c r="Q25" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T25" s="38" t="s">
@@ -4971,7 +5015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="315.75" thickBot="1">
+    <row r="26" spans="1:23" ht="150.75" thickBot="1">
       <c r="A26" s="35">
         <v>473</v>
       </c>
@@ -5016,9 +5060,13 @@
       <c r="P26" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="65" t="s">
+      <c r="Q26" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R26" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T26" s="38" t="s">
@@ -5030,7 +5078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="270.75" thickBot="1">
+    <row r="27" spans="1:23" ht="150.75" thickBot="1">
       <c r="A27" s="35">
         <v>31</v>
       </c>
@@ -5050,10 +5098,10 @@
         <v>45965</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I27" s="42" t="s">
         <v>215</v>
@@ -5069,15 +5117,19 @@
       <c r="N27" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O27" s="64" t="s">
+      <c r="O27" s="63" t="s">
         <v>216</v>
       </c>
       <c r="P27" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="65" t="s">
+      <c r="Q27" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R27" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S27" s="64" t="s">
         <v>217</v>
       </c>
       <c r="T27" s="38" t="s">
@@ -5089,7 +5141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="270.75" thickBot="1">
+    <row r="28" spans="1:23" ht="165.75" thickBot="1">
       <c r="A28" s="35">
         <v>39</v>
       </c>
@@ -5109,10 +5161,10 @@
         <v>45965</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I28" s="42" t="s">
         <v>215</v>
@@ -5128,15 +5180,19 @@
       <c r="N28" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="64" t="s">
+      <c r="O28" s="63" t="s">
         <v>218</v>
       </c>
       <c r="P28" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="65" t="s">
+      <c r="Q28" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S28" s="64" t="s">
         <v>217</v>
       </c>
       <c r="T28" s="38" t="s">
@@ -5148,7 +5204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="195.75" thickBot="1">
+    <row r="29" spans="1:23" ht="90.75" thickBot="1">
       <c r="A29" s="35">
         <v>47</v>
       </c>
@@ -5179,15 +5235,19 @@
       <c r="N29" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="64" t="s">
+      <c r="O29" s="63" t="s">
         <v>219</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="65" t="s">
+      <c r="Q29" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" s="64" t="s">
         <v>220</v>
       </c>
       <c r="T29" s="38" t="s">
@@ -5201,7 +5261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="409.6" thickBot="1">
+    <row r="30" spans="1:23" ht="180.75" thickBot="1">
       <c r="A30" s="35">
         <v>76</v>
       </c>
@@ -5246,9 +5306,13 @@
       <c r="P30" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="65" t="s">
+      <c r="Q30" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R30" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S30" s="64" t="s">
         <v>224</v>
       </c>
       <c r="T30" s="38" t="s">
@@ -5260,7 +5324,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="390.75" thickBot="1">
+    <row r="31" spans="1:23" ht="165.75" thickBot="1">
       <c r="A31" s="35">
         <v>78</v>
       </c>
@@ -5299,15 +5363,19 @@
       <c r="N31" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O31" s="64" t="s">
+      <c r="O31" s="63" t="s">
         <v>228</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="65" t="s">
+      <c r="Q31" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R31" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" s="64" t="s">
         <v>229</v>
       </c>
       <c r="T31" s="38" t="s">
@@ -5319,7 +5387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="390.75" thickBot="1">
+    <row r="32" spans="1:23" ht="165.75" thickBot="1">
       <c r="A32" s="35">
         <v>79</v>
       </c>
@@ -5358,15 +5426,19 @@
       <c r="N32" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O32" s="64" t="s">
+      <c r="O32" s="63" t="s">
         <v>233</v>
       </c>
       <c r="P32" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="65" t="s">
+      <c r="Q32" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R32" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S32" s="64" t="s">
         <v>229</v>
       </c>
       <c r="T32" s="38" t="s">
@@ -5378,7 +5450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="390.75" thickBot="1">
+    <row r="33" spans="1:23" ht="165.75" thickBot="1">
       <c r="A33" s="35">
         <v>80</v>
       </c>
@@ -5417,15 +5489,19 @@
       <c r="N33" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O33" s="64" t="s">
+      <c r="O33" s="63" t="s">
         <v>277</v>
       </c>
       <c r="P33" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="65" t="s">
+      <c r="Q33" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R33" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S33" s="64" t="s">
         <v>229</v>
       </c>
       <c r="T33" s="38" t="s">
@@ -5437,7 +5513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="315.75" thickBot="1">
+    <row r="34" spans="1:23" ht="150.75" thickBot="1">
       <c r="A34" s="35">
         <v>81</v>
       </c>
@@ -5482,9 +5558,13 @@
       <c r="P34" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="65" t="s">
+      <c r="Q34" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R34" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S34" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T34" s="38" t="s">
@@ -5496,7 +5576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="315.75" thickBot="1">
+    <row r="35" spans="1:23" ht="150.75" thickBot="1">
       <c r="A35" s="35">
         <v>83</v>
       </c>
@@ -5541,9 +5621,13 @@
       <c r="P35" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="65" t="s">
+      <c r="Q35" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R35" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T35" s="38" t="s">
@@ -5600,9 +5684,13 @@
       <c r="P36" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="65" t="s">
+      <c r="Q36" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R36" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S36" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T36" s="38" t="s">
@@ -5659,9 +5747,13 @@
       <c r="P37" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="65" t="s">
+      <c r="Q37" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R37" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S37" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T37" s="38" t="s">
@@ -5673,7 +5765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="315.75" thickBot="1">
+    <row r="38" spans="1:23" ht="150.75" thickBot="1">
       <c r="A38" s="35">
         <v>86</v>
       </c>
@@ -5718,9 +5810,13 @@
       <c r="P38" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="65" t="s">
+      <c r="Q38" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R38" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S38" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T38" s="38" t="s">
@@ -5732,7 +5828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="315.75" thickBot="1">
+    <row r="39" spans="1:23" ht="150.75" thickBot="1">
       <c r="A39" s="35">
         <v>87</v>
       </c>
@@ -5777,9 +5873,13 @@
       <c r="P39" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="65" t="s">
+      <c r="Q39" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R39" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S39" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T39" s="38" t="s">
@@ -5791,7 +5891,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="315.75" thickBot="1">
+    <row r="40" spans="1:23" ht="150.75" thickBot="1">
       <c r="A40" s="35">
         <v>88</v>
       </c>
@@ -5836,9 +5936,13 @@
       <c r="P40" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="65" t="s">
+      <c r="Q40" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R40" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S40" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T40" s="38" t="s">
@@ -5850,7 +5954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="315.75" thickBot="1">
+    <row r="41" spans="1:23" ht="150.75" thickBot="1">
       <c r="A41" s="35">
         <v>89</v>
       </c>
@@ -5895,9 +5999,13 @@
       <c r="P41" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="65" t="s">
+      <c r="Q41" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R41" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S41" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T41" s="38" t="s">
@@ -5909,7 +6017,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="315.75" thickBot="1">
+    <row r="42" spans="1:23" ht="150.75" thickBot="1">
       <c r="A42" s="35">
         <v>90</v>
       </c>
@@ -5954,9 +6062,13 @@
       <c r="P42" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="65" t="s">
+      <c r="Q42" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R42" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S42" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T42" s="38" t="s">
@@ -5968,7 +6080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="315.75" thickBot="1">
+    <row r="43" spans="1:23" ht="225.75" thickBot="1">
       <c r="A43" s="35">
         <v>91</v>
       </c>
@@ -6019,7 +6131,7 @@
       <c r="R43" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="65" t="s">
+      <c r="S43" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T43" s="38" t="s">
@@ -6031,7 +6143,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="315.75" thickBot="1">
+    <row r="44" spans="1:23" ht="150.75" thickBot="1">
       <c r="A44" s="35">
         <v>92</v>
       </c>
@@ -6082,7 +6194,7 @@
       <c r="R44" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="S44" s="65" t="s">
+      <c r="S44" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T44" s="38" t="s">
@@ -6094,7 +6206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="315.75" thickBot="1">
+    <row r="45" spans="1:23" ht="150.75" thickBot="1">
       <c r="A45" s="35">
         <v>93</v>
       </c>
@@ -6145,7 +6257,7 @@
       <c r="R45" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="S45" s="65" t="s">
+      <c r="S45" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T45" s="38" t="s">
@@ -6157,7 +6269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="315.75" thickBot="1">
+    <row r="46" spans="1:23" ht="150.75" thickBot="1">
       <c r="A46" s="35">
         <v>462</v>
       </c>
@@ -6208,7 +6320,7 @@
       <c r="R46" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="S46" s="65" t="s">
+      <c r="S46" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T46" s="38" t="s">
@@ -6240,13 +6352,13 @@
         <v>45972</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J47" s="38" t="s">
         <v>54</v>
@@ -6263,7 +6375,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="38"/>
       <c r="R47" s="38"/>
-      <c r="S47" s="65"/>
+      <c r="S47" s="64"/>
       <c r="T47" s="38" t="s">
         <v>117</v>
       </c>
@@ -6316,7 +6428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="315.75" thickBot="1">
+    <row r="49" spans="1:23" ht="150.75" thickBot="1">
       <c r="A49" s="35">
         <v>474</v>
       </c>
@@ -6367,7 +6479,7 @@
       <c r="R49" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="S49" s="65" t="s">
+      <c r="S49" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T49" s="38" t="s">
@@ -6379,7 +6491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="270.75" thickBot="1">
+    <row r="50" spans="1:23" ht="150.75" thickBot="1">
       <c r="A50" s="35">
         <v>32</v>
       </c>
@@ -6399,10 +6511,10 @@
         <v>45965</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I50" s="42" t="s">
         <v>215</v>
@@ -6418,15 +6530,19 @@
       <c r="N50" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O50" s="64" t="s">
+      <c r="O50" s="63" t="s">
         <v>216</v>
       </c>
       <c r="P50" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="65" t="s">
+      <c r="Q50" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R50" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S50" s="64" t="s">
         <v>217</v>
       </c>
       <c r="T50" s="38" t="s">
@@ -6438,7 +6554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="270.75" thickBot="1">
+    <row r="51" spans="1:23" ht="165.75" thickBot="1">
       <c r="A51" s="35">
         <v>40</v>
       </c>
@@ -6458,10 +6574,10 @@
         <v>45965</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I51" s="42" t="s">
         <v>215</v>
@@ -6477,15 +6593,19 @@
       <c r="N51" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O51" s="64" t="s">
+      <c r="O51" s="63" t="s">
         <v>218</v>
       </c>
       <c r="P51" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="65" t="s">
+      <c r="Q51" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R51" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51" s="64" t="s">
         <v>217</v>
       </c>
       <c r="T51" s="38" t="s">
@@ -6497,7 +6617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="195.75" thickBot="1">
+    <row r="52" spans="1:23" ht="90.75" thickBot="1">
       <c r="A52" s="35">
         <v>48</v>
       </c>
@@ -6528,15 +6648,19 @@
       <c r="N52" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O52" s="64" t="s">
+      <c r="O52" s="63" t="s">
         <v>219</v>
       </c>
       <c r="P52" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="65" t="s">
+      <c r="Q52" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R52" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S52" s="64" t="s">
         <v>220</v>
       </c>
       <c r="T52" s="38" t="s">
@@ -6550,7 +6674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="409.6" thickBot="1">
+    <row r="53" spans="1:23" ht="180.75" thickBot="1">
       <c r="A53" s="35">
         <v>152</v>
       </c>
@@ -6595,9 +6719,13 @@
       <c r="P53" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="65" t="s">
+      <c r="Q53" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R53" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S53" s="64" t="s">
         <v>224</v>
       </c>
       <c r="T53" s="38" t="s">
@@ -6609,7 +6737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="390.75" thickBot="1">
+    <row r="54" spans="1:23" ht="165.75" thickBot="1">
       <c r="A54" s="35">
         <v>154</v>
       </c>
@@ -6648,15 +6776,19 @@
       <c r="N54" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O54" s="64" t="s">
+      <c r="O54" s="63" t="s">
         <v>228</v>
       </c>
       <c r="P54" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="65" t="s">
+      <c r="Q54" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R54" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S54" s="64" t="s">
         <v>229</v>
       </c>
       <c r="T54" s="38" t="s">
@@ -6668,7 +6800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="390.75" thickBot="1">
+    <row r="55" spans="1:23" ht="165.75" thickBot="1">
       <c r="A55" s="35">
         <v>155</v>
       </c>
@@ -6707,15 +6839,19 @@
       <c r="N55" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O55" s="64" t="s">
+      <c r="O55" s="63" t="s">
         <v>233</v>
       </c>
       <c r="P55" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="65" t="s">
+      <c r="Q55" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R55" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S55" s="64" t="s">
         <v>229</v>
       </c>
       <c r="T55" s="38" t="s">
@@ -6727,7 +6863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="390.75" thickBot="1">
+    <row r="56" spans="1:23" ht="165.75" thickBot="1">
       <c r="A56" s="35">
         <v>156</v>
       </c>
@@ -6766,15 +6902,19 @@
       <c r="N56" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O56" s="64" t="s">
+      <c r="O56" s="63" t="s">
         <v>277</v>
       </c>
       <c r="P56" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="65" t="s">
+      <c r="Q56" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R56" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S56" s="64" t="s">
         <v>229</v>
       </c>
       <c r="T56" s="38" t="s">
@@ -6786,7 +6926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="390.75" thickBot="1">
+    <row r="57" spans="1:23" ht="165.75" thickBot="1">
       <c r="A57" s="35">
         <v>159</v>
       </c>
@@ -6831,9 +6971,13 @@
       <c r="P57" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="65" t="s">
+      <c r="Q57" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R57" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S57" s="64" t="s">
         <v>229</v>
       </c>
       <c r="T57" s="38" t="s">
@@ -6890,9 +7034,13 @@
       <c r="P58" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="65" t="s">
+      <c r="Q58" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R58" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S58" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T58" s="38" t="s">
@@ -6949,9 +7097,13 @@
       <c r="P59" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="65" t="s">
+      <c r="Q59" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R59" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S59" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T59" s="38" t="s">
@@ -6963,7 +7115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="315.75" thickBot="1">
+    <row r="60" spans="1:23" ht="150.75" thickBot="1">
       <c r="A60" s="35">
         <v>162</v>
       </c>
@@ -6980,16 +7132,16 @@
         <v>138</v>
       </c>
       <c r="F60" s="37">
-        <v>45960</v>
+        <v>45979</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="J60" s="38" t="s">
         <v>54</v>
@@ -7003,14 +7155,18 @@
         <v>54</v>
       </c>
       <c r="O60" s="38" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="P60" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="65" t="s">
+      <c r="Q60" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R60" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S60" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T60" s="38" t="s">
@@ -7042,13 +7198,13 @@
         <v>45960</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I61" s="42" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>54</v>
@@ -7062,14 +7218,18 @@
         <v>54</v>
       </c>
       <c r="O61" s="38" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P61" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="65" t="s">
+      <c r="Q61" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R61" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S61" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T61" s="38" t="s">
@@ -7081,7 +7241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="315.75" thickBot="1">
+    <row r="62" spans="1:23" ht="150.75" thickBot="1">
       <c r="A62" s="35">
         <v>164</v>
       </c>
@@ -7101,13 +7261,13 @@
         <v>45960</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I62" s="42" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J62" s="38" t="s">
         <v>54</v>
@@ -7121,14 +7281,18 @@
         <v>54</v>
       </c>
       <c r="O62" s="38" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P62" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="65" t="s">
+      <c r="Q62" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R62" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S62" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T62" s="38" t="s">
@@ -7140,7 +7304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="315.75" thickBot="1">
+    <row r="63" spans="1:23" ht="150.75" thickBot="1">
       <c r="A63" s="35">
         <v>165</v>
       </c>
@@ -7160,13 +7324,13 @@
         <v>45960</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>54</v>
@@ -7180,14 +7344,18 @@
         <v>54</v>
       </c>
       <c r="O63" s="38" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P63" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="65" t="s">
+      <c r="Q63" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R63" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S63" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T63" s="38" t="s">
@@ -7199,7 +7367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="315.75" thickBot="1">
+    <row r="64" spans="1:23" ht="150.75" thickBot="1">
       <c r="A64" s="35">
         <v>166</v>
       </c>
@@ -7219,13 +7387,13 @@
         <v>45960</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I64" s="37" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>54</v>
@@ -7239,14 +7407,18 @@
         <v>54</v>
       </c>
       <c r="O64" s="38" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P64" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="65" t="s">
+      <c r="Q64" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R64" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S64" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T64" s="38" t="s">
@@ -7258,7 +7430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="315.75" thickBot="1">
+    <row r="65" spans="1:23" ht="150.75" thickBot="1">
       <c r="A65" s="35">
         <v>167</v>
       </c>
@@ -7278,13 +7450,13 @@
         <v>45960</v>
       </c>
       <c r="G65" s="37" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>54</v>
@@ -7298,14 +7470,18 @@
         <v>54</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P65" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="65" t="s">
+      <c r="Q65" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R65" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S65" s="64" t="s">
         <v>255</v>
       </c>
       <c r="T65" s="38" t="s">
@@ -7317,7 +7493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="315.75" thickBot="1">
+    <row r="66" spans="1:23" ht="150.75" thickBot="1">
       <c r="A66" s="35">
         <v>168</v>
       </c>
@@ -7337,13 +7513,13 @@
         <v>45960</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H66" s="37" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I66" s="37" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J66" s="38" t="s">
         <v>54</v>
@@ -7357,14 +7533,18 @@
         <v>54</v>
       </c>
       <c r="O66" s="38" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P66" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="66" t="s">
+      <c r="Q66" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R66" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S66" s="65" t="s">
         <v>255</v>
       </c>
       <c r="T66" s="38" t="s">
@@ -7376,7 +7556,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="315.75" thickBot="1">
+    <row r="67" spans="1:23" ht="150.75" thickBot="1">
       <c r="A67" s="35">
         <v>169</v>
       </c>
@@ -7396,13 +7576,13 @@
         <v>45960</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J67" s="38" t="s">
         <v>54</v>
@@ -7416,14 +7596,18 @@
         <v>54</v>
       </c>
       <c r="O67" s="38" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P67" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="66" t="s">
+      <c r="Q67" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R67" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S67" s="65" t="s">
         <v>255</v>
       </c>
       <c r="T67" s="38" t="s">
@@ -7451,17 +7635,17 @@
       <c r="E68" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="F68" s="67">
+      <c r="F68" s="66">
         <v>45969</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>54</v>
@@ -7504,7 +7688,7 @@
       <c r="E69" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F69" s="67"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="42"/>
@@ -7531,7 +7715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="315.75" thickBot="1">
+    <row r="70" spans="1:23" ht="150.75" thickBot="1">
       <c r="A70" s="35">
         <v>461</v>
       </c>
@@ -7547,17 +7731,17 @@
       <c r="E70" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="F70" s="67">
+      <c r="F70" s="66">
         <v>45960</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I70" s="45" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J70" s="38" t="s">
         <v>54</v>
@@ -7571,7 +7755,7 @@
         <v>54</v>
       </c>
       <c r="O70" s="38" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P70" s="38" t="s">
         <v>54</v>
@@ -7582,7 +7766,7 @@
       <c r="R70" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="S70" s="66" t="s">
+      <c r="S70" s="65" t="s">
         <v>255</v>
       </c>
       <c r="T70" s="38" t="s">
@@ -7594,7 +7778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="315.75" thickBot="1">
+    <row r="71" spans="1:23" ht="150.75" thickBot="1">
       <c r="A71" s="35">
         <v>468</v>
       </c>
@@ -7610,17 +7794,17 @@
       <c r="E71" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="F71" s="67">
+      <c r="F71" s="66">
         <v>45960</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I71" s="45" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J71" s="38" t="s">
         <v>54</v>
@@ -7634,14 +7818,18 @@
         <v>54</v>
       </c>
       <c r="O71" s="38" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P71" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="66" t="s">
+      <c r="Q71" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R71" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S71" s="65" t="s">
         <v>255</v>
       </c>
       <c r="T71" s="38" t="s">
@@ -7653,7 +7841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="315.75" thickBot="1">
+    <row r="72" spans="1:23" ht="150.75" thickBot="1">
       <c r="A72" s="35">
         <v>475</v>
       </c>
@@ -7669,17 +7857,17 @@
       <c r="E72" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="F72" s="67">
+      <c r="F72" s="66">
         <v>45960</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I72" s="42" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J72" s="38" t="s">
         <v>54</v>
@@ -7693,14 +7881,18 @@
         <v>54</v>
       </c>
       <c r="O72" s="38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P72" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="66" t="s">
+      <c r="Q72" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="R72" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S72" s="65" t="s">
         <v>255</v>
       </c>
       <c r="T72" s="38" t="s">
@@ -7712,7 +7904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="14.25" customHeight="1">
+    <row r="73" spans="1:23">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -7732,7 +7924,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="9"/>
     </row>
-    <row r="74" spans="1:23" ht="14.25" customHeight="1">
+    <row r="74" spans="1:23">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -7752,7 +7944,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="9"/>
     </row>
-    <row r="75" spans="1:23" ht="14.25" customHeight="1">
+    <row r="75" spans="1:23">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -7772,7 +7964,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="9"/>
     </row>
-    <row r="76" spans="1:23" ht="14.25" customHeight="1">
+    <row r="76" spans="1:23">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -7792,7 +7984,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="9"/>
     </row>
-    <row r="77" spans="1:23" ht="14.25" customHeight="1">
+    <row r="77" spans="1:23">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -7812,7 +8004,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="9"/>
     </row>
-    <row r="78" spans="1:23" ht="14.25" customHeight="1">
+    <row r="78" spans="1:23">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -7832,7 +8024,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="9"/>
     </row>
-    <row r="79" spans="1:23" ht="14.25" customHeight="1">
+    <row r="79" spans="1:23">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -7852,7 +8044,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="9"/>
     </row>
-    <row r="80" spans="1:23" ht="14.25" customHeight="1">
+    <row r="80" spans="1:23">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -7872,7 +8064,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="9"/>
     </row>
-    <row r="81" spans="6:23" ht="14.25" customHeight="1">
+    <row r="81" spans="6:23">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -7892,7 +8084,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="9"/>
     </row>
-    <row r="82" spans="6:23" ht="14.25" customHeight="1">
+    <row r="82" spans="6:23">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -7912,7 +8104,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="9"/>
     </row>
-    <row r="83" spans="6:23" ht="14.25" customHeight="1">
+    <row r="83" spans="6:23">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -7932,7 +8124,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="9"/>
     </row>
-    <row r="84" spans="6:23" ht="14.25" customHeight="1">
+    <row r="84" spans="6:23">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -7952,7 +8144,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="9"/>
     </row>
-    <row r="85" spans="6:23" ht="14.25" customHeight="1">
+    <row r="85" spans="6:23">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -7972,7 +8164,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="9"/>
     </row>
-    <row r="86" spans="6:23" ht="14.25" customHeight="1">
+    <row r="86" spans="6:23">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -7992,7 +8184,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="9"/>
     </row>
-    <row r="87" spans="6:23" ht="14.25" customHeight="1">
+    <row r="87" spans="6:23">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -8012,7 +8204,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="9"/>
     </row>
-    <row r="88" spans="6:23" ht="14.25" customHeight="1">
+    <row r="88" spans="6:23">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -8032,7 +8224,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="9"/>
     </row>
-    <row r="89" spans="6:23" ht="14.25" customHeight="1">
+    <row r="89" spans="6:23">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -8052,7 +8244,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="9"/>
     </row>
-    <row r="90" spans="6:23" ht="14.25" customHeight="1">
+    <row r="90" spans="6:23">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -8072,7 +8264,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="9"/>
     </row>
-    <row r="91" spans="6:23" ht="14.25" customHeight="1">
+    <row r="91" spans="6:23">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -8092,7 +8284,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="9"/>
     </row>
-    <row r="92" spans="6:23" ht="14.25" customHeight="1">
+    <row r="92" spans="6:23">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -8112,7 +8304,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="9"/>
     </row>
-    <row r="93" spans="6:23" ht="14.25" customHeight="1">
+    <row r="93" spans="6:23">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -8132,7 +8324,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="9"/>
     </row>
-    <row r="94" spans="6:23" ht="14.25" customHeight="1">
+    <row r="94" spans="6:23">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -8152,7 +8344,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="9"/>
     </row>
-    <row r="95" spans="6:23" ht="14.25" customHeight="1">
+    <row r="95" spans="6:23">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -8172,7 +8364,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="9"/>
     </row>
-    <row r="96" spans="6:23" ht="14.25" customHeight="1">
+    <row r="96" spans="6:23">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -8192,7 +8384,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="9"/>
     </row>
-    <row r="97" spans="6:23" ht="14.25" customHeight="1">
+    <row r="97" spans="6:23">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -8212,7 +8404,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="9"/>
     </row>
-    <row r="98" spans="6:23" ht="14.25" customHeight="1">
+    <row r="98" spans="6:23">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -8232,7 +8424,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="9"/>
     </row>
-    <row r="99" spans="6:23" ht="14.25" customHeight="1">
+    <row r="99" spans="6:23">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -8252,7 +8444,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="9"/>
     </row>
-    <row r="100" spans="6:23" ht="14.25" customHeight="1">
+    <row r="100" spans="6:23">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -8272,7 +8464,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="9"/>
     </row>
-    <row r="101" spans="6:23" ht="14.25" customHeight="1">
+    <row r="101" spans="6:23">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -8292,7 +8484,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="9"/>
     </row>
-    <row r="102" spans="6:23" ht="14.25" customHeight="1">
+    <row r="102" spans="6:23">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -8312,7 +8504,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="9"/>
     </row>
-    <row r="103" spans="6:23" ht="14.25" customHeight="1">
+    <row r="103" spans="6:23">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -8332,7 +8524,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="9"/>
     </row>
-    <row r="104" spans="6:23" ht="14.25" customHeight="1">
+    <row r="104" spans="6:23">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -8352,7 +8544,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="9"/>
     </row>
-    <row r="105" spans="6:23" ht="14.25" customHeight="1">
+    <row r="105" spans="6:23">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -8372,7 +8564,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="9"/>
     </row>
-    <row r="106" spans="6:23" ht="14.25" customHeight="1">
+    <row r="106" spans="6:23">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -8392,7 +8584,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="9"/>
     </row>
-    <row r="107" spans="6:23" ht="14.25" customHeight="1">
+    <row r="107" spans="6:23">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -8412,7 +8604,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="9"/>
     </row>
-    <row r="108" spans="6:23" ht="14.25" customHeight="1">
+    <row r="108" spans="6:23">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -8432,7 +8624,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="6:23" ht="14.25" customHeight="1">
+    <row r="109" spans="6:23">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -8452,7 +8644,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="9"/>
     </row>
-    <row r="110" spans="6:23" ht="14.25" customHeight="1">
+    <row r="110" spans="6:23">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -8472,7 +8664,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="9"/>
     </row>
-    <row r="111" spans="6:23" ht="14.25" customHeight="1">
+    <row r="111" spans="6:23">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -8492,7 +8684,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="9"/>
     </row>
-    <row r="112" spans="6:23" ht="14.25" customHeight="1">
+    <row r="112" spans="6:23">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -8512,7 +8704,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="9"/>
     </row>
-    <row r="113" spans="6:23" ht="14.25" customHeight="1">
+    <row r="113" spans="6:23">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
@@ -8532,7 +8724,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="9"/>
     </row>
-    <row r="114" spans="6:23" ht="14.25" customHeight="1">
+    <row r="114" spans="6:23">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -8552,7 +8744,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="9"/>
     </row>
-    <row r="115" spans="6:23" ht="14.25" customHeight="1">
+    <row r="115" spans="6:23">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -8572,7 +8764,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="9"/>
     </row>
-    <row r="116" spans="6:23" ht="14.25" customHeight="1">
+    <row r="116" spans="6:23">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -8592,7 +8784,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="9"/>
     </row>
-    <row r="117" spans="6:23" ht="14.25" customHeight="1">
+    <row r="117" spans="6:23">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -8612,7 +8804,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="9"/>
     </row>
-    <row r="118" spans="6:23" ht="14.25" customHeight="1">
+    <row r="118" spans="6:23">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -8632,7 +8824,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="9"/>
     </row>
-    <row r="119" spans="6:23" ht="14.25" customHeight="1">
+    <row r="119" spans="6:23">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -8652,7 +8844,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="9"/>
     </row>
-    <row r="120" spans="6:23" ht="14.25" customHeight="1">
+    <row r="120" spans="6:23">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -8672,7 +8864,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="9"/>
     </row>
-    <row r="121" spans="6:23" ht="14.25" customHeight="1">
+    <row r="121" spans="6:23">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -8692,7 +8884,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="9"/>
     </row>
-    <row r="122" spans="6:23" ht="14.25" customHeight="1">
+    <row r="122" spans="6:23">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -8712,7 +8904,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="9"/>
     </row>
-    <row r="123" spans="6:23" ht="14.25" customHeight="1">
+    <row r="123" spans="6:23">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -8732,7 +8924,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="9"/>
     </row>
-    <row r="124" spans="6:23" ht="14.25" customHeight="1">
+    <row r="124" spans="6:23">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
@@ -8752,7 +8944,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="9"/>
     </row>
-    <row r="125" spans="6:23" ht="14.25" customHeight="1">
+    <row r="125" spans="6:23">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -8772,7 +8964,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="9"/>
     </row>
-    <row r="126" spans="6:23" ht="14.25" customHeight="1">
+    <row r="126" spans="6:23">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -8792,7 +8984,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="9"/>
     </row>
-    <row r="127" spans="6:23" ht="14.25" customHeight="1">
+    <row r="127" spans="6:23">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -8812,7 +9004,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="9"/>
     </row>
-    <row r="128" spans="6:23" ht="14.25" customHeight="1">
+    <row r="128" spans="6:23">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
@@ -8832,7 +9024,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="9"/>
     </row>
-    <row r="129" spans="6:23" ht="14.25" customHeight="1">
+    <row r="129" spans="6:23">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -8852,7 +9044,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="9"/>
     </row>
-    <row r="130" spans="6:23" ht="14.25" customHeight="1">
+    <row r="130" spans="6:23">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
@@ -8872,7 +9064,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="9"/>
     </row>
-    <row r="131" spans="6:23" ht="14.25" customHeight="1">
+    <row r="131" spans="6:23">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
@@ -8892,7 +9084,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="9"/>
     </row>
-    <row r="132" spans="6:23" ht="14.25" customHeight="1">
+    <row r="132" spans="6:23">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
@@ -8912,7 +9104,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="9"/>
     </row>
-    <row r="133" spans="6:23" ht="14.25" customHeight="1">
+    <row r="133" spans="6:23">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -8932,7 +9124,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="9"/>
     </row>
-    <row r="134" spans="6:23" ht="14.25" customHeight="1">
+    <row r="134" spans="6:23">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
@@ -8952,7 +9144,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="9"/>
     </row>
-    <row r="135" spans="6:23" ht="14.25" customHeight="1">
+    <row r="135" spans="6:23">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
@@ -8972,7 +9164,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="9"/>
     </row>
-    <row r="136" spans="6:23" ht="14.25" customHeight="1">
+    <row r="136" spans="6:23">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -8992,7 +9184,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="9"/>
     </row>
-    <row r="137" spans="6:23" ht="14.25" customHeight="1">
+    <row r="137" spans="6:23">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -9012,7 +9204,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="9"/>
     </row>
-    <row r="138" spans="6:23" ht="14.25" customHeight="1">
+    <row r="138" spans="6:23">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -9032,7 +9224,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="9"/>
     </row>
-    <row r="139" spans="6:23" ht="14.25" customHeight="1">
+    <row r="139" spans="6:23">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -9052,7 +9244,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="9"/>
     </row>
-    <row r="140" spans="6:23" ht="14.25" customHeight="1">
+    <row r="140" spans="6:23">
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -9072,7 +9264,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="9"/>
     </row>
-    <row r="141" spans="6:23" ht="14.25" customHeight="1">
+    <row r="141" spans="6:23">
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -9092,7 +9284,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="9"/>
     </row>
-    <row r="142" spans="6:23" ht="14.25" customHeight="1">
+    <row r="142" spans="6:23">
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -9112,7 +9304,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="9"/>
     </row>
-    <row r="143" spans="6:23" ht="14.25" customHeight="1">
+    <row r="143" spans="6:23">
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -9132,7 +9324,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="9"/>
     </row>
-    <row r="144" spans="6:23" ht="14.25" customHeight="1">
+    <row r="144" spans="6:23">
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
@@ -9152,7 +9344,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="9"/>
     </row>
-    <row r="145" spans="6:23" ht="14.25" customHeight="1">
+    <row r="145" spans="6:23">
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -9172,7 +9364,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="6:23" ht="14.25" customHeight="1">
+    <row r="146" spans="6:23">
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
@@ -9192,7 +9384,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="6:23" ht="14.25" customHeight="1">
+    <row r="147" spans="6:23">
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
@@ -9212,7 +9404,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="9"/>
     </row>
-    <row r="148" spans="6:23" ht="14.25" customHeight="1">
+    <row r="148" spans="6:23">
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
@@ -9232,7 +9424,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="6:23" ht="14.25" customHeight="1">
+    <row r="149" spans="6:23">
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -9252,7 +9444,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="9"/>
     </row>
-    <row r="150" spans="6:23" ht="14.25" customHeight="1">
+    <row r="150" spans="6:23">
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
@@ -9272,7 +9464,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="6:23" ht="14.25" customHeight="1">
+    <row r="151" spans="6:23">
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
@@ -9292,7 +9484,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="9"/>
     </row>
-    <row r="152" spans="6:23" ht="14.25" customHeight="1">
+    <row r="152" spans="6:23">
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
@@ -9312,7 +9504,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="9"/>
     </row>
-    <row r="153" spans="6:23" ht="14.25" customHeight="1">
+    <row r="153" spans="6:23">
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -9332,7 +9524,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="9"/>
     </row>
-    <row r="154" spans="6:23" ht="14.25" customHeight="1">
+    <row r="154" spans="6:23">
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -9352,7 +9544,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="9"/>
     </row>
-    <row r="155" spans="6:23" ht="14.25" customHeight="1">
+    <row r="155" spans="6:23">
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
@@ -9372,7 +9564,7 @@
       <c r="V155" s="2"/>
       <c r="W155" s="9"/>
     </row>
-    <row r="156" spans="6:23" ht="14.25" customHeight="1">
+    <row r="156" spans="6:23">
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
@@ -9392,7 +9584,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="9"/>
     </row>
-    <row r="157" spans="6:23" ht="14.25" customHeight="1">
+    <row r="157" spans="6:23">
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
@@ -9412,7 +9604,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="9"/>
     </row>
-    <row r="158" spans="6:23" ht="14.25" customHeight="1">
+    <row r="158" spans="6:23">
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
@@ -9432,7 +9624,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="9"/>
     </row>
-    <row r="159" spans="6:23" ht="14.25" customHeight="1">
+    <row r="159" spans="6:23">
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
@@ -9452,7 +9644,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="9"/>
     </row>
-    <row r="160" spans="6:23" ht="14.25" customHeight="1">
+    <row r="160" spans="6:23">
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
@@ -9472,7 +9664,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="9"/>
     </row>
-    <row r="161" spans="6:23" ht="14.25" customHeight="1">
+    <row r="161" spans="6:23">
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
@@ -9492,7 +9684,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="9"/>
     </row>
-    <row r="162" spans="6:23" ht="14.25" customHeight="1">
+    <row r="162" spans="6:23">
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
@@ -9512,7 +9704,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="9"/>
     </row>
-    <row r="163" spans="6:23" ht="14.25" customHeight="1">
+    <row r="163" spans="6:23">
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
@@ -9532,7 +9724,7 @@
       <c r="V163" s="2"/>
       <c r="W163" s="9"/>
     </row>
-    <row r="164" spans="6:23" ht="14.25" customHeight="1">
+    <row r="164" spans="6:23">
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
@@ -9552,7 +9744,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="9"/>
     </row>
-    <row r="165" spans="6:23" ht="14.25" customHeight="1">
+    <row r="165" spans="6:23">
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
@@ -9572,7 +9764,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="9"/>
     </row>
-    <row r="166" spans="6:23" ht="14.25" customHeight="1">
+    <row r="166" spans="6:23">
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
@@ -9592,7 +9784,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="9"/>
     </row>
-    <row r="167" spans="6:23" ht="14.25" customHeight="1">
+    <row r="167" spans="6:23">
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
@@ -9612,7 +9804,7 @@
       <c r="V167" s="2"/>
       <c r="W167" s="9"/>
     </row>
-    <row r="168" spans="6:23" ht="14.25" customHeight="1">
+    <row r="168" spans="6:23">
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
@@ -9632,7 +9824,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="9"/>
     </row>
-    <row r="169" spans="6:23" ht="14.25" customHeight="1">
+    <row r="169" spans="6:23">
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
@@ -9652,7 +9844,7 @@
       <c r="V169" s="2"/>
       <c r="W169" s="9"/>
     </row>
-    <row r="170" spans="6:23" ht="14.25" customHeight="1">
+    <row r="170" spans="6:23">
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
@@ -9672,7 +9864,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="9"/>
     </row>
-    <row r="171" spans="6:23" ht="14.25" customHeight="1">
+    <row r="171" spans="6:23">
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
@@ -9692,7 +9884,7 @@
       <c r="V171" s="2"/>
       <c r="W171" s="9"/>
     </row>
-    <row r="172" spans="6:23" ht="14.25" customHeight="1">
+    <row r="172" spans="6:23">
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
@@ -9712,7 +9904,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="9"/>
     </row>
-    <row r="173" spans="6:23" ht="14.25" customHeight="1">
+    <row r="173" spans="6:23">
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
@@ -9732,7 +9924,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="9"/>
     </row>
-    <row r="174" spans="6:23" ht="14.25" customHeight="1">
+    <row r="174" spans="6:23">
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
@@ -9752,7 +9944,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="9"/>
     </row>
-    <row r="175" spans="6:23" ht="14.25" customHeight="1">
+    <row r="175" spans="6:23">
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
@@ -9772,7 +9964,7 @@
       <c r="V175" s="2"/>
       <c r="W175" s="9"/>
     </row>
-    <row r="176" spans="6:23" ht="14.25" customHeight="1">
+    <row r="176" spans="6:23">
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
@@ -9792,7 +9984,7 @@
       <c r="V176" s="2"/>
       <c r="W176" s="9"/>
     </row>
-    <row r="177" spans="6:23" ht="14.25" customHeight="1">
+    <row r="177" spans="6:23">
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
@@ -9812,7 +10004,7 @@
       <c r="V177" s="2"/>
       <c r="W177" s="9"/>
     </row>
-    <row r="178" spans="6:23" ht="14.25" customHeight="1">
+    <row r="178" spans="6:23">
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
@@ -9832,7 +10024,7 @@
       <c r="V178" s="2"/>
       <c r="W178" s="9"/>
     </row>
-    <row r="179" spans="6:23" ht="14.25" customHeight="1">
+    <row r="179" spans="6:23">
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
@@ -9852,7 +10044,7 @@
       <c r="V179" s="2"/>
       <c r="W179" s="9"/>
     </row>
-    <row r="180" spans="6:23" ht="14.25" customHeight="1">
+    <row r="180" spans="6:23">
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
@@ -9872,7 +10064,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="9"/>
     </row>
-    <row r="181" spans="6:23" ht="14.25" customHeight="1">
+    <row r="181" spans="6:23">
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
@@ -9892,7 +10084,7 @@
       <c r="V181" s="2"/>
       <c r="W181" s="9"/>
     </row>
-    <row r="182" spans="6:23" ht="14.25" customHeight="1">
+    <row r="182" spans="6:23">
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -9912,7 +10104,7 @@
       <c r="V182" s="2"/>
       <c r="W182" s="9"/>
     </row>
-    <row r="183" spans="6:23" ht="14.25" customHeight="1">
+    <row r="183" spans="6:23">
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
@@ -9932,7 +10124,7 @@
       <c r="V183" s="2"/>
       <c r="W183" s="9"/>
     </row>
-    <row r="184" spans="6:23" ht="14.25" customHeight="1">
+    <row r="184" spans="6:23">
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
@@ -9952,7 +10144,7 @@
       <c r="V184" s="2"/>
       <c r="W184" s="9"/>
     </row>
-    <row r="185" spans="6:23" ht="14.25" customHeight="1">
+    <row r="185" spans="6:23">
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -9972,7 +10164,7 @@
       <c r="V185" s="2"/>
       <c r="W185" s="9"/>
     </row>
-    <row r="186" spans="6:23" ht="14.25" customHeight="1">
+    <row r="186" spans="6:23">
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
@@ -9992,7 +10184,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="9"/>
     </row>
-    <row r="187" spans="6:23" ht="14.25" customHeight="1">
+    <row r="187" spans="6:23">
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
@@ -10012,7 +10204,7 @@
       <c r="V187" s="2"/>
       <c r="W187" s="9"/>
     </row>
-    <row r="188" spans="6:23" ht="14.25" customHeight="1">
+    <row r="188" spans="6:23">
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
@@ -10032,7 +10224,7 @@
       <c r="V188" s="2"/>
       <c r="W188" s="9"/>
     </row>
-    <row r="189" spans="6:23" ht="14.25" customHeight="1">
+    <row r="189" spans="6:23">
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
@@ -10052,7 +10244,7 @@
       <c r="V189" s="2"/>
       <c r="W189" s="9"/>
     </row>
-    <row r="190" spans="6:23" ht="14.25" customHeight="1">
+    <row r="190" spans="6:23">
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
@@ -10072,7 +10264,7 @@
       <c r="V190" s="2"/>
       <c r="W190" s="9"/>
     </row>
-    <row r="191" spans="6:23" ht="14.25" customHeight="1">
+    <row r="191" spans="6:23">
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
@@ -10092,7 +10284,7 @@
       <c r="V191" s="2"/>
       <c r="W191" s="9"/>
     </row>
-    <row r="192" spans="6:23" ht="14.25" customHeight="1">
+    <row r="192" spans="6:23">
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
@@ -10112,7 +10304,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="9"/>
     </row>
-    <row r="193" spans="6:23" ht="14.25" customHeight="1">
+    <row r="193" spans="6:23">
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
@@ -10132,7 +10324,7 @@
       <c r="V193" s="2"/>
       <c r="W193" s="9"/>
     </row>
-    <row r="194" spans="6:23" ht="14.25" customHeight="1">
+    <row r="194" spans="6:23">
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
@@ -10152,7 +10344,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="9"/>
     </row>
-    <row r="195" spans="6:23" ht="14.25" customHeight="1">
+    <row r="195" spans="6:23">
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
@@ -10172,7 +10364,7 @@
       <c r="V195" s="2"/>
       <c r="W195" s="9"/>
     </row>
-    <row r="196" spans="6:23" ht="14.25" customHeight="1">
+    <row r="196" spans="6:23">
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
@@ -10192,7 +10384,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="9"/>
     </row>
-    <row r="197" spans="6:23" ht="14.25" customHeight="1">
+    <row r="197" spans="6:23">
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
@@ -10212,7 +10404,7 @@
       <c r="V197" s="2"/>
       <c r="W197" s="9"/>
     </row>
-    <row r="198" spans="6:23" ht="14.25" customHeight="1">
+    <row r="198" spans="6:23">
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -10232,7 +10424,7 @@
       <c r="V198" s="2"/>
       <c r="W198" s="9"/>
     </row>
-    <row r="199" spans="6:23" ht="14.25" customHeight="1">
+    <row r="199" spans="6:23">
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
@@ -10252,7 +10444,7 @@
       <c r="V199" s="2"/>
       <c r="W199" s="9"/>
     </row>
-    <row r="200" spans="6:23" ht="14.25" customHeight="1">
+    <row r="200" spans="6:23">
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -10272,7 +10464,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="9"/>
     </row>
-    <row r="201" spans="6:23" ht="14.25" customHeight="1">
+    <row r="201" spans="6:23">
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
@@ -10292,7 +10484,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="9"/>
     </row>
-    <row r="202" spans="6:23" ht="14.25" customHeight="1">
+    <row r="202" spans="6:23">
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
@@ -10312,7 +10504,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="9"/>
     </row>
-    <row r="203" spans="6:23" ht="14.25" customHeight="1">
+    <row r="203" spans="6:23">
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
@@ -10332,7 +10524,7 @@
       <c r="V203" s="2"/>
       <c r="W203" s="9"/>
     </row>
-    <row r="204" spans="6:23" ht="14.25" customHeight="1">
+    <row r="204" spans="6:23">
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
@@ -10352,7 +10544,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="9"/>
     </row>
-    <row r="205" spans="6:23" ht="14.25" customHeight="1">
+    <row r="205" spans="6:23">
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
@@ -10372,7 +10564,7 @@
       <c r="V205" s="2"/>
       <c r="W205" s="9"/>
     </row>
-    <row r="206" spans="6:23" ht="14.25" customHeight="1">
+    <row r="206" spans="6:23">
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
@@ -10392,7 +10584,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="9"/>
     </row>
-    <row r="207" spans="6:23" ht="14.25" customHeight="1">
+    <row r="207" spans="6:23">
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
@@ -10412,7 +10604,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="9"/>
     </row>
-    <row r="208" spans="6:23" ht="14.25" customHeight="1">
+    <row r="208" spans="6:23">
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
@@ -10432,7 +10624,7 @@
       <c r="V208" s="2"/>
       <c r="W208" s="9"/>
     </row>
-    <row r="209" spans="6:23" ht="14.25" customHeight="1">
+    <row r="209" spans="6:23">
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
@@ -10452,7 +10644,7 @@
       <c r="V209" s="2"/>
       <c r="W209" s="9"/>
     </row>
-    <row r="210" spans="6:23" ht="14.25" customHeight="1">
+    <row r="210" spans="6:23">
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
@@ -10472,1262 +10664,1257 @@
       <c r="V210" s="2"/>
       <c r="W210" s="9"/>
     </row>
-    <row r="211" spans="6:23" ht="14.25" customHeight="1">
+    <row r="211" spans="6:23">
       <c r="W211" s="7"/>
     </row>
-    <row r="212" spans="6:23" ht="14.25" customHeight="1">
+    <row r="212" spans="6:23">
       <c r="W212" s="7"/>
     </row>
-    <row r="213" spans="6:23" ht="14.25" customHeight="1">
+    <row r="213" spans="6:23">
       <c r="W213" s="7"/>
     </row>
-    <row r="214" spans="6:23" ht="14.25" customHeight="1">
+    <row r="214" spans="6:23">
       <c r="W214" s="7"/>
     </row>
-    <row r="215" spans="6:23" ht="14.25" customHeight="1">
+    <row r="215" spans="6:23">
       <c r="W215" s="7"/>
     </row>
-    <row r="216" spans="6:23" ht="14.25" customHeight="1">
+    <row r="216" spans="6:23">
       <c r="W216" s="7"/>
     </row>
-    <row r="217" spans="6:23" ht="14.25" customHeight="1">
+    <row r="217" spans="6:23">
       <c r="W217" s="7"/>
     </row>
-    <row r="218" spans="6:23" ht="14.25" customHeight="1">
+    <row r="218" spans="6:23">
       <c r="W218" s="7"/>
     </row>
-    <row r="219" spans="6:23" ht="14.25" customHeight="1">
+    <row r="219" spans="6:23">
       <c r="W219" s="7"/>
     </row>
-    <row r="220" spans="6:23" ht="14.25" customHeight="1">
+    <row r="220" spans="6:23">
       <c r="W220" s="7"/>
     </row>
-    <row r="221" spans="6:23" ht="14.25" customHeight="1">
+    <row r="221" spans="6:23">
       <c r="W221" s="7"/>
     </row>
-    <row r="222" spans="6:23" ht="14.25" customHeight="1">
+    <row r="222" spans="6:23">
       <c r="W222" s="7"/>
     </row>
-    <row r="223" spans="6:23" ht="14.25" customHeight="1">
+    <row r="223" spans="6:23">
       <c r="W223" s="7"/>
     </row>
-    <row r="224" spans="6:23" ht="14.25" customHeight="1">
+    <row r="224" spans="6:23">
       <c r="W224" s="7"/>
     </row>
-    <row r="225" spans="23:23" ht="14.25" customHeight="1">
+    <row r="225" spans="23:23">
       <c r="W225" s="7"/>
     </row>
-    <row r="226" spans="23:23" ht="14.25" customHeight="1">
+    <row r="226" spans="23:23">
       <c r="W226" s="7"/>
     </row>
-    <row r="227" spans="23:23" ht="14.25" customHeight="1">
+    <row r="227" spans="23:23">
       <c r="W227" s="7"/>
     </row>
-    <row r="228" spans="23:23" ht="14.25" customHeight="1">
+    <row r="228" spans="23:23">
       <c r="W228" s="7"/>
     </row>
-    <row r="229" spans="23:23" ht="14.25" customHeight="1">
+    <row r="229" spans="23:23">
       <c r="W229" s="7"/>
     </row>
-    <row r="230" spans="23:23" ht="14.25" customHeight="1">
+    <row r="230" spans="23:23">
       <c r="W230" s="7"/>
     </row>
-    <row r="231" spans="23:23" ht="14.25" customHeight="1">
+    <row r="231" spans="23:23">
       <c r="W231" s="7"/>
     </row>
-    <row r="232" spans="23:23" ht="14.25" customHeight="1">
+    <row r="232" spans="23:23">
       <c r="W232" s="7"/>
     </row>
-    <row r="233" spans="23:23" ht="14.25" customHeight="1">
+    <row r="233" spans="23:23">
       <c r="W233" s="7"/>
     </row>
-    <row r="234" spans="23:23" ht="14.25" customHeight="1">
+    <row r="234" spans="23:23">
       <c r="W234" s="7"/>
     </row>
-    <row r="235" spans="23:23" ht="14.25" customHeight="1">
+    <row r="235" spans="23:23">
       <c r="W235" s="7"/>
     </row>
-    <row r="236" spans="23:23" ht="14.25" customHeight="1">
+    <row r="236" spans="23:23">
       <c r="W236" s="7"/>
     </row>
-    <row r="237" spans="23:23" ht="14.25" customHeight="1">
+    <row r="237" spans="23:23">
       <c r="W237" s="7"/>
     </row>
-    <row r="238" spans="23:23" ht="14.25" customHeight="1">
+    <row r="238" spans="23:23">
       <c r="W238" s="7"/>
     </row>
-    <row r="239" spans="23:23" ht="14.25" customHeight="1">
+    <row r="239" spans="23:23">
       <c r="W239" s="7"/>
     </row>
-    <row r="240" spans="23:23" ht="14.25" customHeight="1">
+    <row r="240" spans="23:23">
       <c r="W240" s="7"/>
     </row>
-    <row r="241" spans="23:23" ht="14.25" customHeight="1">
+    <row r="241" spans="23:23">
       <c r="W241" s="7"/>
     </row>
-    <row r="242" spans="23:23" ht="14.25" customHeight="1">
+    <row r="242" spans="23:23">
       <c r="W242" s="7"/>
     </row>
-    <row r="243" spans="23:23" ht="14.25" customHeight="1">
+    <row r="243" spans="23:23">
       <c r="W243" s="7"/>
     </row>
-    <row r="244" spans="23:23" ht="14.25" customHeight="1">
+    <row r="244" spans="23:23">
       <c r="W244" s="7"/>
     </row>
-    <row r="245" spans="23:23" ht="14.25" customHeight="1">
+    <row r="245" spans="23:23">
       <c r="W245" s="7"/>
     </row>
-    <row r="246" spans="23:23" ht="14.25" customHeight="1">
+    <row r="246" spans="23:23">
       <c r="W246" s="7"/>
     </row>
-    <row r="247" spans="23:23" ht="14.25" customHeight="1">
+    <row r="247" spans="23:23">
       <c r="W247" s="7"/>
     </row>
-    <row r="248" spans="23:23" ht="14.25" customHeight="1">
+    <row r="248" spans="23:23">
       <c r="W248" s="7"/>
     </row>
-    <row r="249" spans="23:23" ht="14.25" customHeight="1">
+    <row r="249" spans="23:23">
       <c r="W249" s="7"/>
     </row>
-    <row r="250" spans="23:23" ht="14.25" customHeight="1">
+    <row r="250" spans="23:23">
       <c r="W250" s="7"/>
     </row>
-    <row r="251" spans="23:23" ht="14.25" customHeight="1">
+    <row r="251" spans="23:23">
       <c r="W251" s="7"/>
     </row>
-    <row r="252" spans="23:23" ht="14.25" customHeight="1">
+    <row r="252" spans="23:23">
       <c r="W252" s="7"/>
     </row>
-    <row r="253" spans="23:23" ht="14.25" customHeight="1">
+    <row r="253" spans="23:23">
       <c r="W253" s="7"/>
     </row>
-    <row r="254" spans="23:23" ht="14.25" customHeight="1">
+    <row r="254" spans="23:23">
       <c r="W254" s="7"/>
     </row>
-    <row r="255" spans="23:23" ht="14.25" customHeight="1">
+    <row r="255" spans="23:23">
       <c r="W255" s="7"/>
     </row>
-    <row r="256" spans="23:23" ht="14.25" customHeight="1">
+    <row r="256" spans="23:23">
       <c r="W256" s="7"/>
     </row>
-    <row r="257" spans="23:23" ht="14.25" customHeight="1">
+    <row r="257" spans="23:23">
       <c r="W257" s="7"/>
     </row>
-    <row r="258" spans="23:23" ht="14.25" customHeight="1">
+    <row r="258" spans="23:23">
       <c r="W258" s="7"/>
     </row>
-    <row r="259" spans="23:23" ht="14.25" customHeight="1">
+    <row r="259" spans="23:23">
       <c r="W259" s="7"/>
     </row>
-    <row r="260" spans="23:23" ht="14.25" customHeight="1">
+    <row r="260" spans="23:23">
       <c r="W260" s="7"/>
     </row>
-    <row r="261" spans="23:23" ht="14.25" customHeight="1">
+    <row r="261" spans="23:23">
       <c r="W261" s="7"/>
     </row>
-    <row r="262" spans="23:23" ht="14.25" customHeight="1">
+    <row r="262" spans="23:23">
       <c r="W262" s="7"/>
     </row>
-    <row r="263" spans="23:23" ht="14.25" customHeight="1">
+    <row r="263" spans="23:23">
       <c r="W263" s="7"/>
     </row>
-    <row r="264" spans="23:23" ht="14.25" customHeight="1">
+    <row r="264" spans="23:23">
       <c r="W264" s="7"/>
     </row>
-    <row r="265" spans="23:23" ht="14.25" customHeight="1">
+    <row r="265" spans="23:23">
       <c r="W265" s="7"/>
     </row>
-    <row r="266" spans="23:23" ht="14.25" customHeight="1">
+    <row r="266" spans="23:23">
       <c r="W266" s="7"/>
     </row>
-    <row r="267" spans="23:23" ht="14.25" customHeight="1">
+    <row r="267" spans="23:23">
       <c r="W267" s="7"/>
     </row>
-    <row r="268" spans="23:23" ht="14.25" customHeight="1">
+    <row r="268" spans="23:23">
       <c r="W268" s="7"/>
     </row>
-    <row r="269" spans="23:23" ht="14.25" customHeight="1">
+    <row r="269" spans="23:23">
       <c r="W269" s="7"/>
     </row>
-    <row r="270" spans="23:23" ht="14.25" customHeight="1">
+    <row r="270" spans="23:23">
       <c r="W270" s="7"/>
     </row>
-    <row r="271" spans="23:23" ht="14.25" customHeight="1">
+    <row r="271" spans="23:23">
       <c r="W271" s="7"/>
     </row>
-    <row r="272" spans="23:23" ht="14.25" customHeight="1">
+    <row r="272" spans="23:23">
       <c r="W272" s="7"/>
     </row>
-    <row r="273" spans="23:23" ht="14.25" customHeight="1">
+    <row r="273" spans="23:23">
       <c r="W273" s="7"/>
     </row>
-    <row r="274" spans="23:23" ht="14.25" customHeight="1">
+    <row r="274" spans="23:23">
       <c r="W274" s="7"/>
     </row>
-    <row r="275" spans="23:23" ht="14.25" customHeight="1">
+    <row r="275" spans="23:23">
       <c r="W275" s="7"/>
     </row>
-    <row r="276" spans="23:23" ht="14.25" customHeight="1">
+    <row r="276" spans="23:23">
       <c r="W276" s="7"/>
     </row>
-    <row r="277" spans="23:23" ht="14.25" customHeight="1">
+    <row r="277" spans="23:23">
       <c r="W277" s="7"/>
     </row>
-    <row r="278" spans="23:23" ht="14.25" customHeight="1">
+    <row r="278" spans="23:23">
       <c r="W278" s="7"/>
     </row>
-    <row r="279" spans="23:23" ht="14.25" customHeight="1">
+    <row r="279" spans="23:23">
       <c r="W279" s="7"/>
     </row>
-    <row r="280" spans="23:23" ht="14.25" customHeight="1">
+    <row r="280" spans="23:23">
       <c r="W280" s="7"/>
     </row>
-    <row r="281" spans="23:23" ht="14.25" customHeight="1">
+    <row r="281" spans="23:23">
       <c r="W281" s="7"/>
     </row>
-    <row r="282" spans="23:23" ht="14.25" customHeight="1">
+    <row r="282" spans="23:23">
       <c r="W282" s="7"/>
     </row>
-    <row r="283" spans="23:23" ht="14.25" customHeight="1">
+    <row r="283" spans="23:23">
       <c r="W283" s="7"/>
     </row>
-    <row r="284" spans="23:23" ht="14.25" customHeight="1">
+    <row r="284" spans="23:23">
       <c r="W284" s="7"/>
     </row>
-    <row r="285" spans="23:23" ht="14.25" customHeight="1">
+    <row r="285" spans="23:23">
       <c r="W285" s="7"/>
     </row>
-    <row r="286" spans="23:23" ht="14.25" customHeight="1">
+    <row r="286" spans="23:23">
       <c r="W286" s="7"/>
     </row>
-    <row r="287" spans="23:23" ht="14.25" customHeight="1">
+    <row r="287" spans="23:23">
       <c r="W287" s="7"/>
     </row>
-    <row r="288" spans="23:23" ht="14.25" customHeight="1">
+    <row r="288" spans="23:23">
       <c r="W288" s="7"/>
     </row>
-    <row r="289" spans="23:23" ht="14.25" customHeight="1">
+    <row r="289" spans="23:23">
       <c r="W289" s="7"/>
     </row>
-    <row r="290" spans="23:23" ht="14.25" customHeight="1">
+    <row r="290" spans="23:23">
       <c r="W290" s="7"/>
     </row>
-    <row r="291" spans="23:23" ht="14.25" customHeight="1">
+    <row r="291" spans="23:23">
       <c r="W291" s="7"/>
     </row>
-    <row r="292" spans="23:23" ht="14.25" customHeight="1">
+    <row r="292" spans="23:23">
       <c r="W292" s="7"/>
     </row>
-    <row r="293" spans="23:23" ht="14.25" customHeight="1">
+    <row r="293" spans="23:23">
       <c r="W293" s="7"/>
     </row>
-    <row r="294" spans="23:23" ht="14.25" customHeight="1">
+    <row r="294" spans="23:23">
       <c r="W294" s="7"/>
     </row>
-    <row r="295" spans="23:23" ht="14.25" customHeight="1">
+    <row r="295" spans="23:23">
       <c r="W295" s="7"/>
     </row>
-    <row r="296" spans="23:23" ht="14.25" customHeight="1">
+    <row r="296" spans="23:23">
       <c r="W296" s="7"/>
     </row>
-    <row r="297" spans="23:23" ht="14.25" customHeight="1">
+    <row r="297" spans="23:23">
       <c r="W297" s="7"/>
     </row>
-    <row r="298" spans="23:23" ht="14.25" customHeight="1">
+    <row r="298" spans="23:23">
       <c r="W298" s="7"/>
     </row>
-    <row r="299" spans="23:23" ht="14.25" customHeight="1">
+    <row r="299" spans="23:23">
       <c r="W299" s="7"/>
     </row>
-    <row r="300" spans="23:23" ht="14.25" customHeight="1">
+    <row r="300" spans="23:23">
       <c r="W300" s="7"/>
     </row>
-    <row r="301" spans="23:23" ht="14.25" customHeight="1">
+    <row r="301" spans="23:23">
       <c r="W301" s="7"/>
     </row>
-    <row r="302" spans="23:23" ht="14.25" customHeight="1">
+    <row r="302" spans="23:23">
       <c r="W302" s="7"/>
     </row>
-    <row r="303" spans="23:23" ht="14.25" customHeight="1">
+    <row r="303" spans="23:23">
       <c r="W303" s="7"/>
     </row>
-    <row r="304" spans="23:23" ht="14.25" customHeight="1">
+    <row r="304" spans="23:23">
       <c r="W304" s="7"/>
     </row>
-    <row r="305" spans="23:23" ht="14.25" customHeight="1">
+    <row r="305" spans="23:23">
       <c r="W305" s="7"/>
     </row>
-    <row r="306" spans="23:23" ht="14.25" customHeight="1">
+    <row r="306" spans="23:23">
       <c r="W306" s="7"/>
     </row>
-    <row r="307" spans="23:23" ht="14.25" customHeight="1">
+    <row r="307" spans="23:23">
       <c r="W307" s="7"/>
     </row>
-    <row r="308" spans="23:23" ht="14.25" customHeight="1">
+    <row r="308" spans="23:23">
       <c r="W308" s="7"/>
     </row>
-    <row r="309" spans="23:23" ht="14.25" customHeight="1">
+    <row r="309" spans="23:23">
       <c r="W309" s="7"/>
     </row>
-    <row r="310" spans="23:23" ht="14.25" customHeight="1">
+    <row r="310" spans="23:23">
       <c r="W310" s="7"/>
     </row>
-    <row r="311" spans="23:23" ht="14.25" customHeight="1">
+    <row r="311" spans="23:23">
       <c r="W311" s="7"/>
     </row>
-    <row r="312" spans="23:23" ht="14.25" customHeight="1">
+    <row r="312" spans="23:23">
       <c r="W312" s="7"/>
     </row>
-    <row r="313" spans="23:23" ht="14.25" customHeight="1">
+    <row r="313" spans="23:23">
       <c r="W313" s="7"/>
     </row>
-    <row r="314" spans="23:23" ht="14.25" customHeight="1">
+    <row r="314" spans="23:23">
       <c r="W314" s="7"/>
     </row>
-    <row r="315" spans="23:23" ht="14.25" customHeight="1">
+    <row r="315" spans="23:23">
       <c r="W315" s="7"/>
     </row>
-    <row r="316" spans="23:23" ht="14.25" customHeight="1">
+    <row r="316" spans="23:23">
       <c r="W316" s="7"/>
     </row>
-    <row r="317" spans="23:23" ht="14.25" customHeight="1">
+    <row r="317" spans="23:23">
       <c r="W317" s="7"/>
     </row>
-    <row r="318" spans="23:23" ht="14.25" customHeight="1">
+    <row r="318" spans="23:23">
       <c r="W318" s="7"/>
     </row>
-    <row r="319" spans="23:23" ht="14.25" customHeight="1">
+    <row r="319" spans="23:23">
       <c r="W319" s="7"/>
     </row>
-    <row r="320" spans="23:23" ht="14.25" customHeight="1">
+    <row r="320" spans="23:23">
       <c r="W320" s="7"/>
     </row>
-    <row r="321" spans="23:23" ht="14.25" customHeight="1">
+    <row r="321" spans="23:23">
       <c r="W321" s="7"/>
     </row>
-    <row r="322" spans="23:23" ht="14.25" customHeight="1">
+    <row r="322" spans="23:23">
       <c r="W322" s="7"/>
     </row>
-    <row r="323" spans="23:23" ht="14.25" customHeight="1">
+    <row r="323" spans="23:23">
       <c r="W323" s="7"/>
     </row>
-    <row r="324" spans="23:23" ht="14.25" customHeight="1">
+    <row r="324" spans="23:23">
       <c r="W324" s="7"/>
     </row>
-    <row r="325" spans="23:23" ht="14.25" customHeight="1">
+    <row r="325" spans="23:23">
       <c r="W325" s="7"/>
     </row>
-    <row r="326" spans="23:23" ht="14.25" customHeight="1">
+    <row r="326" spans="23:23">
       <c r="W326" s="7"/>
     </row>
-    <row r="327" spans="23:23" ht="14.25" customHeight="1">
+    <row r="327" spans="23:23">
       <c r="W327" s="7"/>
     </row>
-    <row r="328" spans="23:23" ht="14.25" customHeight="1">
+    <row r="328" spans="23:23">
       <c r="W328" s="7"/>
     </row>
-    <row r="329" spans="23:23" ht="14.25" customHeight="1">
+    <row r="329" spans="23:23">
       <c r="W329" s="7"/>
     </row>
-    <row r="330" spans="23:23" ht="14.25" customHeight="1">
+    <row r="330" spans="23:23">
       <c r="W330" s="7"/>
     </row>
-    <row r="331" spans="23:23" ht="14.25" customHeight="1">
+    <row r="331" spans="23:23">
       <c r="W331" s="7"/>
     </row>
-    <row r="332" spans="23:23" ht="14.25" customHeight="1">
+    <row r="332" spans="23:23">
       <c r="W332" s="7"/>
     </row>
-    <row r="333" spans="23:23" ht="14.25" customHeight="1">
+    <row r="333" spans="23:23">
       <c r="W333" s="7"/>
     </row>
-    <row r="334" spans="23:23" ht="14.25" customHeight="1">
+    <row r="334" spans="23:23">
       <c r="W334" s="7"/>
     </row>
-    <row r="335" spans="23:23" ht="14.25" customHeight="1">
+    <row r="335" spans="23:23">
       <c r="W335" s="7"/>
     </row>
-    <row r="336" spans="23:23" ht="14.25" customHeight="1">
+    <row r="336" spans="23:23">
       <c r="W336" s="7"/>
     </row>
-    <row r="337" spans="23:23" ht="14.25" customHeight="1">
+    <row r="337" spans="23:23">
       <c r="W337" s="7"/>
     </row>
-    <row r="338" spans="23:23" ht="14.25" customHeight="1">
+    <row r="338" spans="23:23">
       <c r="W338" s="7"/>
     </row>
-    <row r="339" spans="23:23" ht="14.25" customHeight="1">
+    <row r="339" spans="23:23">
       <c r="W339" s="7"/>
     </row>
-    <row r="340" spans="23:23" ht="14.25" customHeight="1">
+    <row r="340" spans="23:23">
       <c r="W340" s="7"/>
     </row>
-    <row r="341" spans="23:23" ht="14.25" customHeight="1">
+    <row r="341" spans="23:23">
       <c r="W341" s="7"/>
     </row>
-    <row r="342" spans="23:23" ht="14.25" customHeight="1">
+    <row r="342" spans="23:23">
       <c r="W342" s="7"/>
     </row>
-    <row r="343" spans="23:23" ht="14.25" customHeight="1">
+    <row r="343" spans="23:23">
       <c r="W343" s="7"/>
     </row>
-    <row r="344" spans="23:23" ht="14.25" customHeight="1">
+    <row r="344" spans="23:23">
       <c r="W344" s="7"/>
     </row>
-    <row r="345" spans="23:23" ht="14.25" customHeight="1">
+    <row r="345" spans="23:23">
       <c r="W345" s="7"/>
     </row>
-    <row r="346" spans="23:23" ht="14.25" customHeight="1">
+    <row r="346" spans="23:23">
       <c r="W346" s="7"/>
     </row>
-    <row r="347" spans="23:23" ht="14.25" customHeight="1">
+    <row r="347" spans="23:23">
       <c r="W347" s="7"/>
     </row>
-    <row r="348" spans="23:23" ht="14.25" customHeight="1">
+    <row r="348" spans="23:23">
       <c r="W348" s="7"/>
     </row>
-    <row r="349" spans="23:23" ht="14.25" customHeight="1">
+    <row r="349" spans="23:23">
       <c r="W349" s="7"/>
     </row>
-    <row r="350" spans="23:23" ht="14.25" customHeight="1">
+    <row r="350" spans="23:23">
       <c r="W350" s="7"/>
     </row>
-    <row r="351" spans="23:23" ht="14.25" customHeight="1">
+    <row r="351" spans="23:23">
       <c r="W351" s="7"/>
     </row>
-    <row r="352" spans="23:23" ht="14.25" customHeight="1">
+    <row r="352" spans="23:23">
       <c r="W352" s="7"/>
     </row>
-    <row r="353" spans="23:23" ht="14.25" customHeight="1">
+    <row r="353" spans="23:23">
       <c r="W353" s="7"/>
     </row>
-    <row r="354" spans="23:23" ht="14.25" customHeight="1">
+    <row r="354" spans="23:23">
       <c r="W354" s="7"/>
     </row>
-    <row r="355" spans="23:23" ht="14.25" customHeight="1">
+    <row r="355" spans="23:23">
       <c r="W355" s="7"/>
     </row>
-    <row r="356" spans="23:23" ht="14.25" customHeight="1">
+    <row r="356" spans="23:23">
       <c r="W356" s="7"/>
     </row>
-    <row r="357" spans="23:23" ht="14.25" customHeight="1">
+    <row r="357" spans="23:23">
       <c r="W357" s="7"/>
     </row>
-    <row r="358" spans="23:23" ht="14.25" customHeight="1">
+    <row r="358" spans="23:23">
       <c r="W358" s="7"/>
     </row>
-    <row r="359" spans="23:23" ht="14.25" customHeight="1">
+    <row r="359" spans="23:23">
       <c r="W359" s="7"/>
     </row>
-    <row r="360" spans="23:23" ht="14.25" customHeight="1">
+    <row r="360" spans="23:23">
       <c r="W360" s="7"/>
     </row>
-    <row r="361" spans="23:23" ht="14.25" customHeight="1">
+    <row r="361" spans="23:23">
       <c r="W361" s="7"/>
     </row>
-    <row r="362" spans="23:23" ht="14.25" customHeight="1">
+    <row r="362" spans="23:23">
       <c r="W362" s="7"/>
     </row>
-    <row r="363" spans="23:23" ht="14.25" customHeight="1">
+    <row r="363" spans="23:23">
       <c r="W363" s="7"/>
     </row>
-    <row r="364" spans="23:23" ht="14.25" customHeight="1">
+    <row r="364" spans="23:23">
       <c r="W364" s="7"/>
     </row>
-    <row r="365" spans="23:23" ht="14.25" customHeight="1">
+    <row r="365" spans="23:23">
       <c r="W365" s="7"/>
     </row>
-    <row r="366" spans="23:23" ht="14.25" customHeight="1">
+    <row r="366" spans="23:23">
       <c r="W366" s="7"/>
     </row>
-    <row r="367" spans="23:23" ht="14.25" customHeight="1">
+    <row r="367" spans="23:23">
       <c r="W367" s="7"/>
     </row>
-    <row r="368" spans="23:23" ht="14.25" customHeight="1">
+    <row r="368" spans="23:23">
       <c r="W368" s="7"/>
     </row>
-    <row r="369" spans="23:23" ht="14.25" customHeight="1">
+    <row r="369" spans="23:23">
       <c r="W369" s="7"/>
     </row>
-    <row r="370" spans="23:23" ht="14.25" customHeight="1">
+    <row r="370" spans="23:23">
       <c r="W370" s="7"/>
     </row>
-    <row r="371" spans="23:23" ht="14.25" customHeight="1">
+    <row r="371" spans="23:23">
       <c r="W371" s="7"/>
     </row>
-    <row r="372" spans="23:23" ht="14.25" customHeight="1">
+    <row r="372" spans="23:23">
       <c r="W372" s="7"/>
     </row>
-    <row r="373" spans="23:23" ht="14.25" customHeight="1">
+    <row r="373" spans="23:23">
       <c r="W373" s="7"/>
     </row>
-    <row r="374" spans="23:23" ht="14.25" customHeight="1">
+    <row r="374" spans="23:23">
       <c r="W374" s="7"/>
     </row>
-    <row r="375" spans="23:23" ht="14.25" customHeight="1">
+    <row r="375" spans="23:23">
       <c r="W375" s="7"/>
     </row>
-    <row r="376" spans="23:23" ht="14.25" customHeight="1">
+    <row r="376" spans="23:23">
       <c r="W376" s="7"/>
     </row>
-    <row r="377" spans="23:23" ht="14.25" customHeight="1">
+    <row r="377" spans="23:23">
       <c r="W377" s="7"/>
     </row>
-    <row r="378" spans="23:23" ht="14.25" customHeight="1">
+    <row r="378" spans="23:23">
       <c r="W378" s="7"/>
     </row>
-    <row r="379" spans="23:23" ht="14.25" customHeight="1">
+    <row r="379" spans="23:23">
       <c r="W379" s="7"/>
     </row>
-    <row r="380" spans="23:23" ht="14.25" customHeight="1">
+    <row r="380" spans="23:23">
       <c r="W380" s="7"/>
     </row>
-    <row r="381" spans="23:23" ht="14.25" customHeight="1">
+    <row r="381" spans="23:23">
       <c r="W381" s="7"/>
     </row>
-    <row r="382" spans="23:23" ht="14.25" customHeight="1">
+    <row r="382" spans="23:23">
       <c r="W382" s="7"/>
     </row>
-    <row r="383" spans="23:23" ht="14.25" customHeight="1">
+    <row r="383" spans="23:23">
       <c r="W383" s="7"/>
     </row>
-    <row r="384" spans="23:23" ht="14.25" customHeight="1">
+    <row r="384" spans="23:23">
       <c r="W384" s="7"/>
     </row>
-    <row r="385" spans="23:23" ht="14.25" customHeight="1">
+    <row r="385" spans="23:23">
       <c r="W385" s="7"/>
     </row>
-    <row r="386" spans="23:23" ht="14.25" customHeight="1">
+    <row r="386" spans="23:23">
       <c r="W386" s="7"/>
     </row>
-    <row r="387" spans="23:23" ht="14.25" customHeight="1">
+    <row r="387" spans="23:23">
       <c r="W387" s="7"/>
     </row>
-    <row r="388" spans="23:23" ht="14.25" customHeight="1">
+    <row r="388" spans="23:23">
       <c r="W388" s="7"/>
     </row>
-    <row r="389" spans="23:23" ht="14.25" customHeight="1">
+    <row r="389" spans="23:23">
       <c r="W389" s="7"/>
     </row>
-    <row r="390" spans="23:23" ht="14.25" customHeight="1">
+    <row r="390" spans="23:23">
       <c r="W390" s="7"/>
     </row>
-    <row r="391" spans="23:23" ht="14.25" customHeight="1">
+    <row r="391" spans="23:23">
       <c r="W391" s="7"/>
     </row>
-    <row r="392" spans="23:23" ht="14.25" customHeight="1">
+    <row r="392" spans="23:23">
       <c r="W392" s="7"/>
     </row>
-    <row r="393" spans="23:23" ht="14.25" customHeight="1">
+    <row r="393" spans="23:23">
       <c r="W393" s="7"/>
     </row>
-    <row r="394" spans="23:23" ht="14.25" customHeight="1">
+    <row r="394" spans="23:23">
       <c r="W394" s="7"/>
     </row>
-    <row r="395" spans="23:23" ht="14.25" customHeight="1">
+    <row r="395" spans="23:23">
       <c r="W395" s="7"/>
     </row>
-    <row r="396" spans="23:23" ht="14.25" customHeight="1">
+    <row r="396" spans="23:23">
       <c r="W396" s="7"/>
     </row>
-    <row r="397" spans="23:23" ht="14.25" customHeight="1">
+    <row r="397" spans="23:23">
       <c r="W397" s="7"/>
     </row>
-    <row r="398" spans="23:23" ht="14.25" customHeight="1">
+    <row r="398" spans="23:23">
       <c r="W398" s="7"/>
     </row>
-    <row r="399" spans="23:23" ht="14.25" customHeight="1">
+    <row r="399" spans="23:23">
       <c r="W399" s="7"/>
     </row>
-    <row r="400" spans="23:23" ht="14.25" customHeight="1">
+    <row r="400" spans="23:23">
       <c r="W400" s="7"/>
     </row>
-    <row r="401" spans="23:23" ht="14.25" customHeight="1">
+    <row r="401" spans="23:23">
       <c r="W401" s="7"/>
     </row>
-    <row r="402" spans="23:23" ht="14.25" customHeight="1">
+    <row r="402" spans="23:23">
       <c r="W402" s="7"/>
     </row>
-    <row r="403" spans="23:23" ht="14.25" customHeight="1">
+    <row r="403" spans="23:23">
       <c r="W403" s="7"/>
     </row>
-    <row r="404" spans="23:23" ht="14.25" customHeight="1">
+    <row r="404" spans="23:23">
       <c r="W404" s="7"/>
     </row>
-    <row r="405" spans="23:23" ht="14.25" customHeight="1">
+    <row r="405" spans="23:23">
       <c r="W405" s="7"/>
     </row>
-    <row r="406" spans="23:23" ht="14.25" customHeight="1">
+    <row r="406" spans="23:23">
       <c r="W406" s="7"/>
     </row>
-    <row r="407" spans="23:23" ht="14.25" customHeight="1">
+    <row r="407" spans="23:23">
       <c r="W407" s="7"/>
     </row>
-    <row r="408" spans="23:23" ht="14.25" customHeight="1">
+    <row r="408" spans="23:23">
       <c r="W408" s="7"/>
     </row>
-    <row r="409" spans="23:23" ht="14.25" customHeight="1">
+    <row r="409" spans="23:23">
       <c r="W409" s="7"/>
     </row>
-    <row r="410" spans="23:23" ht="14.25" customHeight="1">
+    <row r="410" spans="23:23">
       <c r="W410" s="7"/>
     </row>
-    <row r="411" spans="23:23" ht="14.25" customHeight="1">
+    <row r="411" spans="23:23">
       <c r="W411" s="7"/>
     </row>
-    <row r="412" spans="23:23" ht="14.25" customHeight="1">
+    <row r="412" spans="23:23">
       <c r="W412" s="7"/>
     </row>
-    <row r="413" spans="23:23" ht="14.25" customHeight="1">
+    <row r="413" spans="23:23">
       <c r="W413" s="7"/>
     </row>
-    <row r="414" spans="23:23" ht="14.25" customHeight="1">
+    <row r="414" spans="23:23">
       <c r="W414" s="7"/>
     </row>
-    <row r="415" spans="23:23" ht="14.25" customHeight="1">
+    <row r="415" spans="23:23">
       <c r="W415" s="7"/>
     </row>
-    <row r="416" spans="23:23" ht="14.25" customHeight="1">
+    <row r="416" spans="23:23">
       <c r="W416" s="7"/>
     </row>
-    <row r="417" spans="23:23" ht="14.25" customHeight="1">
+    <row r="417" spans="23:23">
       <c r="W417" s="7"/>
     </row>
-    <row r="418" spans="23:23" ht="14.25" customHeight="1">
+    <row r="418" spans="23:23">
       <c r="W418" s="7"/>
     </row>
-    <row r="419" spans="23:23" ht="14.25" customHeight="1">
+    <row r="419" spans="23:23">
       <c r="W419" s="7"/>
     </row>
-    <row r="420" spans="23:23" ht="14.25" customHeight="1">
+    <row r="420" spans="23:23">
       <c r="W420" s="7"/>
     </row>
-    <row r="421" spans="23:23" ht="14.25" customHeight="1">
+    <row r="421" spans="23:23">
       <c r="W421" s="7"/>
     </row>
-    <row r="422" spans="23:23" ht="14.25" customHeight="1">
+    <row r="422" spans="23:23">
       <c r="W422" s="7"/>
     </row>
-    <row r="423" spans="23:23" ht="14.25" customHeight="1">
+    <row r="423" spans="23:23">
       <c r="W423" s="7"/>
     </row>
-    <row r="424" spans="23:23" ht="14.25" customHeight="1">
+    <row r="424" spans="23:23">
       <c r="W424" s="7"/>
     </row>
-    <row r="425" spans="23:23" ht="14.25" customHeight="1">
+    <row r="425" spans="23:23">
       <c r="W425" s="7"/>
     </row>
-    <row r="426" spans="23:23" ht="14.25" customHeight="1">
+    <row r="426" spans="23:23">
       <c r="W426" s="7"/>
     </row>
-    <row r="427" spans="23:23" ht="14.25" customHeight="1">
+    <row r="427" spans="23:23">
       <c r="W427" s="7"/>
     </row>
-    <row r="428" spans="23:23" ht="14.25" customHeight="1">
+    <row r="428" spans="23:23">
       <c r="W428" s="7"/>
     </row>
-    <row r="429" spans="23:23" ht="14.25" customHeight="1">
+    <row r="429" spans="23:23">
       <c r="W429" s="7"/>
     </row>
-    <row r="430" spans="23:23" ht="14.25" customHeight="1">
+    <row r="430" spans="23:23">
       <c r="W430" s="7"/>
     </row>
-    <row r="431" spans="23:23" ht="14.25" customHeight="1">
+    <row r="431" spans="23:23">
       <c r="W431" s="7"/>
     </row>
-    <row r="432" spans="23:23" ht="14.25" customHeight="1">
+    <row r="432" spans="23:23">
       <c r="W432" s="7"/>
     </row>
-    <row r="433" spans="23:23" ht="14.25" customHeight="1">
+    <row r="433" spans="23:23">
       <c r="W433" s="7"/>
     </row>
-    <row r="434" spans="23:23" ht="14.25" customHeight="1">
+    <row r="434" spans="23:23">
       <c r="W434" s="7"/>
     </row>
-    <row r="435" spans="23:23" ht="14.25" customHeight="1">
+    <row r="435" spans="23:23">
       <c r="W435" s="7"/>
     </row>
-    <row r="436" spans="23:23" ht="14.25" customHeight="1">
+    <row r="436" spans="23:23">
       <c r="W436" s="7"/>
     </row>
-    <row r="437" spans="23:23" ht="14.25" customHeight="1">
+    <row r="437" spans="23:23">
       <c r="W437" s="7"/>
     </row>
-    <row r="438" spans="23:23" ht="14.25" customHeight="1">
+    <row r="438" spans="23:23">
       <c r="W438" s="7"/>
     </row>
-    <row r="439" spans="23:23" ht="14.25" customHeight="1">
+    <row r="439" spans="23:23">
       <c r="W439" s="7"/>
     </row>
-    <row r="440" spans="23:23" ht="14.25" customHeight="1">
+    <row r="440" spans="23:23">
       <c r="W440" s="7"/>
     </row>
-    <row r="441" spans="23:23" ht="14.25" customHeight="1">
+    <row r="441" spans="23:23">
       <c r="W441" s="7"/>
     </row>
-    <row r="442" spans="23:23" ht="14.25" customHeight="1">
+    <row r="442" spans="23:23">
       <c r="W442" s="7"/>
     </row>
-    <row r="443" spans="23:23" ht="14.25" customHeight="1">
+    <row r="443" spans="23:23">
       <c r="W443" s="7"/>
     </row>
-    <row r="444" spans="23:23" ht="14.25" customHeight="1">
+    <row r="444" spans="23:23">
       <c r="W444" s="7"/>
     </row>
-    <row r="445" spans="23:23" ht="14.25" customHeight="1">
+    <row r="445" spans="23:23">
       <c r="W445" s="7"/>
     </row>
-    <row r="446" spans="23:23" ht="14.25" customHeight="1">
+    <row r="446" spans="23:23">
       <c r="W446" s="7"/>
     </row>
-    <row r="447" spans="23:23" ht="14.25" customHeight="1">
+    <row r="447" spans="23:23">
       <c r="W447" s="7"/>
     </row>
-    <row r="448" spans="23:23" ht="14.25" customHeight="1">
+    <row r="448" spans="23:23">
       <c r="W448" s="7"/>
     </row>
-    <row r="449" spans="23:23" ht="14.25" customHeight="1">
+    <row r="449" spans="23:23">
       <c r="W449" s="7"/>
     </row>
-    <row r="450" spans="23:23" ht="14.25" customHeight="1">
+    <row r="450" spans="23:23">
       <c r="W450" s="7"/>
     </row>
-    <row r="451" spans="23:23" ht="14.25" customHeight="1">
+    <row r="451" spans="23:23">
       <c r="W451" s="7"/>
     </row>
-    <row r="452" spans="23:23" ht="14.25" customHeight="1">
+    <row r="452" spans="23:23">
       <c r="W452" s="7"/>
     </row>
-    <row r="453" spans="23:23" ht="14.25" customHeight="1">
+    <row r="453" spans="23:23">
       <c r="W453" s="7"/>
     </row>
-    <row r="454" spans="23:23" ht="14.25" customHeight="1">
+    <row r="454" spans="23:23">
       <c r="W454" s="7"/>
     </row>
-    <row r="455" spans="23:23" ht="14.25" customHeight="1">
+    <row r="455" spans="23:23">
       <c r="W455" s="7"/>
     </row>
-    <row r="456" spans="23:23" ht="14.25" customHeight="1">
+    <row r="456" spans="23:23">
       <c r="W456" s="7"/>
     </row>
-    <row r="457" spans="23:23" ht="14.25" customHeight="1">
+    <row r="457" spans="23:23">
       <c r="W457" s="7"/>
     </row>
-    <row r="458" spans="23:23" ht="14.25" customHeight="1">
+    <row r="458" spans="23:23">
       <c r="W458" s="7"/>
     </row>
-    <row r="459" spans="23:23" ht="14.25" customHeight="1">
+    <row r="459" spans="23:23">
       <c r="W459" s="7"/>
     </row>
-    <row r="460" spans="23:23" ht="14.25" customHeight="1">
+    <row r="460" spans="23:23">
       <c r="W460" s="7"/>
     </row>
-    <row r="461" spans="23:23" ht="14.25" customHeight="1">
+    <row r="461" spans="23:23">
       <c r="W461" s="7"/>
     </row>
-    <row r="462" spans="23:23" ht="14.25" customHeight="1">
+    <row r="462" spans="23:23">
       <c r="W462" s="7"/>
     </row>
-    <row r="463" spans="23:23" ht="14.25" customHeight="1">
+    <row r="463" spans="23:23">
       <c r="W463" s="7"/>
     </row>
-    <row r="464" spans="23:23" ht="14.25" customHeight="1">
+    <row r="464" spans="23:23">
       <c r="W464" s="7"/>
     </row>
-    <row r="465" spans="23:23" ht="14.25" customHeight="1">
+    <row r="465" spans="23:23">
       <c r="W465" s="7"/>
     </row>
-    <row r="466" spans="23:23" ht="14.25" customHeight="1">
+    <row r="466" spans="23:23">
       <c r="W466" s="7"/>
     </row>
-    <row r="467" spans="23:23" ht="14.25" customHeight="1">
+    <row r="467" spans="23:23">
       <c r="W467" s="7"/>
     </row>
-    <row r="468" spans="23:23" ht="14.25" customHeight="1">
+    <row r="468" spans="23:23">
       <c r="W468" s="7"/>
     </row>
-    <row r="469" spans="23:23" ht="14.25" customHeight="1">
+    <row r="469" spans="23:23">
       <c r="W469" s="7"/>
     </row>
-    <row r="470" spans="23:23" ht="14.25" customHeight="1">
+    <row r="470" spans="23:23">
       <c r="W470" s="7"/>
     </row>
-    <row r="471" spans="23:23" ht="14.25" customHeight="1">
+    <row r="471" spans="23:23">
       <c r="W471" s="7"/>
     </row>
-    <row r="472" spans="23:23" ht="14.25" customHeight="1">
+    <row r="472" spans="23:23">
       <c r="W472" s="7"/>
     </row>
-    <row r="473" spans="23:23" ht="14.25" customHeight="1">
+    <row r="473" spans="23:23">
       <c r="W473" s="7"/>
     </row>
-    <row r="474" spans="23:23" ht="14.25" customHeight="1">
+    <row r="474" spans="23:23">
       <c r="W474" s="7"/>
     </row>
-    <row r="475" spans="23:23" ht="14.25" customHeight="1">
+    <row r="475" spans="23:23">
       <c r="W475" s="7"/>
     </row>
-    <row r="476" spans="23:23" ht="14.25" customHeight="1">
+    <row r="476" spans="23:23">
       <c r="W476" s="7"/>
     </row>
-    <row r="477" spans="23:23" ht="14.25" customHeight="1">
+    <row r="477" spans="23:23">
       <c r="W477" s="7"/>
     </row>
-    <row r="478" spans="23:23" ht="14.25" customHeight="1">
+    <row r="478" spans="23:23">
       <c r="W478" s="7"/>
     </row>
-    <row r="479" spans="23:23" ht="14.25" customHeight="1">
+    <row r="479" spans="23:23">
       <c r="W479" s="7"/>
     </row>
-    <row r="480" spans="23:23" ht="14.25" customHeight="1">
+    <row r="480" spans="23:23">
       <c r="W480" s="7"/>
     </row>
-    <row r="481" spans="23:23" ht="14.25" customHeight="1">
+    <row r="481" spans="23:23">
       <c r="W481" s="7"/>
     </row>
-    <row r="482" spans="23:23" ht="14.25" customHeight="1">
+    <row r="482" spans="23:23">
       <c r="W482" s="7"/>
     </row>
-    <row r="483" spans="23:23" ht="14.25" customHeight="1">
+    <row r="483" spans="23:23">
       <c r="W483" s="7"/>
     </row>
-    <row r="484" spans="23:23" ht="14.25" customHeight="1">
+    <row r="484" spans="23:23">
       <c r="W484" s="7"/>
     </row>
-    <row r="485" spans="23:23" ht="14.25" customHeight="1">
+    <row r="485" spans="23:23">
       <c r="W485" s="7"/>
     </row>
-    <row r="486" spans="23:23" ht="14.25" customHeight="1">
+    <row r="486" spans="23:23">
       <c r="W486" s="7"/>
     </row>
-    <row r="487" spans="23:23" ht="14.25" customHeight="1">
+    <row r="487" spans="23:23">
       <c r="W487" s="7"/>
     </row>
-    <row r="488" spans="23:23" ht="14.25" customHeight="1">
+    <row r="488" spans="23:23">
       <c r="W488" s="7"/>
     </row>
-    <row r="489" spans="23:23" ht="14.25" customHeight="1">
+    <row r="489" spans="23:23">
       <c r="W489" s="7"/>
     </row>
-    <row r="490" spans="23:23" ht="14.25" customHeight="1">
+    <row r="490" spans="23:23">
       <c r="W490" s="7"/>
     </row>
-    <row r="491" spans="23:23" ht="14.25" customHeight="1">
+    <row r="491" spans="23:23">
       <c r="W491" s="7"/>
     </row>
-    <row r="492" spans="23:23" ht="14.25" customHeight="1">
+    <row r="492" spans="23:23">
       <c r="W492" s="7"/>
     </row>
-    <row r="493" spans="23:23" ht="14.25" customHeight="1">
+    <row r="493" spans="23:23">
       <c r="W493" s="7"/>
     </row>
-    <row r="494" spans="23:23" ht="14.25" customHeight="1">
+    <row r="494" spans="23:23">
       <c r="W494" s="7"/>
     </row>
-    <row r="495" spans="23:23" ht="14.25" customHeight="1">
+    <row r="495" spans="23:23">
       <c r="W495" s="7"/>
     </row>
-    <row r="496" spans="23:23" ht="14.25" customHeight="1">
+    <row r="496" spans="23:23">
       <c r="W496" s="7"/>
     </row>
-    <row r="497" spans="23:23" ht="14.25" customHeight="1">
+    <row r="497" spans="23:23">
       <c r="W497" s="7"/>
     </row>
-    <row r="498" spans="23:23" ht="14.25" customHeight="1">
+    <row r="498" spans="23:23">
       <c r="W498" s="7"/>
     </row>
-    <row r="499" spans="23:23" ht="14.25" customHeight="1">
+    <row r="499" spans="23:23">
       <c r="W499" s="7"/>
     </row>
-    <row r="500" spans="23:23" ht="14.25" customHeight="1">
+    <row r="500" spans="23:23">
       <c r="W500" s="7"/>
     </row>
-    <row r="501" spans="23:23" ht="14.25" customHeight="1">
+    <row r="501" spans="23:23">
       <c r="W501" s="7"/>
     </row>
-    <row r="502" spans="23:23" ht="14.25" customHeight="1">
+    <row r="502" spans="23:23">
       <c r="W502" s="7"/>
     </row>
-    <row r="503" spans="23:23" ht="14.25" customHeight="1">
+    <row r="503" spans="23:23">
       <c r="W503" s="7"/>
     </row>
-    <row r="504" spans="23:23" ht="14.25" customHeight="1">
+    <row r="504" spans="23:23">
       <c r="W504" s="7"/>
     </row>
-    <row r="505" spans="23:23" ht="14.25" customHeight="1">
+    <row r="505" spans="23:23">
       <c r="W505" s="7"/>
     </row>
-    <row r="506" spans="23:23" ht="14.25" customHeight="1">
+    <row r="506" spans="23:23">
       <c r="W506" s="7"/>
     </row>
-    <row r="507" spans="23:23" ht="14.25" customHeight="1">
+    <row r="507" spans="23:23">
       <c r="W507" s="7"/>
     </row>
-    <row r="508" spans="23:23" ht="14.25" customHeight="1">
+    <row r="508" spans="23:23">
       <c r="W508" s="7"/>
     </row>
-    <row r="509" spans="23:23" ht="14.25" customHeight="1">
+    <row r="509" spans="23:23">
       <c r="W509" s="7"/>
     </row>
-    <row r="510" spans="23:23" ht="14.25" customHeight="1">
+    <row r="510" spans="23:23">
       <c r="W510" s="7"/>
     </row>
-    <row r="511" spans="23:23" ht="14.25" customHeight="1">
+    <row r="511" spans="23:23">
       <c r="W511" s="7"/>
     </row>
-    <row r="512" spans="23:23" ht="14.25" customHeight="1">
+    <row r="512" spans="23:23">
       <c r="W512" s="7"/>
     </row>
-    <row r="513" spans="23:23" ht="14.25" customHeight="1">
+    <row r="513" spans="23:23">
       <c r="W513" s="7"/>
     </row>
-    <row r="514" spans="23:23" ht="14.25" customHeight="1">
+    <row r="514" spans="23:23">
       <c r="W514" s="7"/>
     </row>
-    <row r="515" spans="23:23" ht="14.25" customHeight="1">
+    <row r="515" spans="23:23">
       <c r="W515" s="7"/>
     </row>
-    <row r="516" spans="23:23" ht="14.25" customHeight="1">
+    <row r="516" spans="23:23">
       <c r="W516" s="7"/>
     </row>
-    <row r="517" spans="23:23" ht="14.25" customHeight="1">
+    <row r="517" spans="23:23">
       <c r="W517" s="7"/>
     </row>
-    <row r="518" spans="23:23" ht="14.25" customHeight="1">
+    <row r="518" spans="23:23">
       <c r="W518" s="7"/>
     </row>
-    <row r="519" spans="23:23" ht="14.25" customHeight="1">
+    <row r="519" spans="23:23">
       <c r="W519" s="7"/>
     </row>
-    <row r="520" spans="23:23" ht="14.25" customHeight="1">
+    <row r="520" spans="23:23">
       <c r="W520" s="7"/>
     </row>
-    <row r="521" spans="23:23" ht="14.25" customHeight="1">
+    <row r="521" spans="23:23">
       <c r="W521" s="7"/>
     </row>
-    <row r="522" spans="23:23" ht="14.25" customHeight="1">
+    <row r="522" spans="23:23">
       <c r="W522" s="7"/>
     </row>
-    <row r="523" spans="23:23" ht="14.25" customHeight="1">
+    <row r="523" spans="23:23">
       <c r="W523" s="7"/>
     </row>
-    <row r="524" spans="23:23" ht="14.25" customHeight="1">
+    <row r="524" spans="23:23">
       <c r="W524" s="7"/>
     </row>
-    <row r="525" spans="23:23" ht="14.25" customHeight="1">
+    <row r="525" spans="23:23">
       <c r="W525" s="7"/>
     </row>
-    <row r="526" spans="23:23" ht="14.25" customHeight="1">
+    <row r="526" spans="23:23">
       <c r="W526" s="7"/>
     </row>
-    <row r="527" spans="23:23" ht="14.25" customHeight="1">
+    <row r="527" spans="23:23">
       <c r="W527" s="7"/>
     </row>
-    <row r="528" spans="23:23" ht="14.25" customHeight="1">
+    <row r="528" spans="23:23">
       <c r="W528" s="7"/>
     </row>
-    <row r="529" spans="23:23" ht="14.25" customHeight="1">
+    <row r="529" spans="23:23">
       <c r="W529" s="7"/>
     </row>
-    <row r="530" spans="23:23" ht="14.25" customHeight="1">
+    <row r="530" spans="23:23">
       <c r="W530" s="7"/>
     </row>
-    <row r="531" spans="23:23" ht="14.25" customHeight="1">
+    <row r="531" spans="23:23">
       <c r="W531" s="7"/>
     </row>
-    <row r="532" spans="23:23" ht="14.25" customHeight="1">
+    <row r="532" spans="23:23">
       <c r="W532" s="7"/>
     </row>
-    <row r="533" spans="23:23" ht="14.25" customHeight="1">
+    <row r="533" spans="23:23">
       <c r="W533" s="7"/>
     </row>
-    <row r="534" spans="23:23" ht="14.25" customHeight="1">
+    <row r="534" spans="23:23">
       <c r="W534" s="7"/>
     </row>
-    <row r="535" spans="23:23" ht="14.25" customHeight="1">
+    <row r="535" spans="23:23">
       <c r="W535" s="7"/>
     </row>
-    <row r="536" spans="23:23" ht="14.25" customHeight="1">
+    <row r="536" spans="23:23">
       <c r="W536" s="7"/>
     </row>
-    <row r="537" spans="23:23" ht="14.25" customHeight="1">
+    <row r="537" spans="23:23">
       <c r="W537" s="7"/>
     </row>
-    <row r="538" spans="23:23" ht="14.25" customHeight="1">
+    <row r="538" spans="23:23">
       <c r="W538" s="7"/>
     </row>
-    <row r="539" spans="23:23" ht="14.25" customHeight="1">
+    <row r="539" spans="23:23">
       <c r="W539" s="7"/>
     </row>
-    <row r="540" spans="23:23" ht="14.25" customHeight="1">
+    <row r="540" spans="23:23">
       <c r="W540" s="7"/>
     </row>
-    <row r="541" spans="23:23" ht="14.25" customHeight="1">
+    <row r="541" spans="23:23">
       <c r="W541" s="7"/>
     </row>
-    <row r="542" spans="23:23" ht="14.25" customHeight="1">
+    <row r="542" spans="23:23">
       <c r="W542" s="7"/>
     </row>
-    <row r="543" spans="23:23" ht="14.25" customHeight="1">
+    <row r="543" spans="23:23">
       <c r="W543" s="7"/>
     </row>
-    <row r="544" spans="23:23" ht="14.25" customHeight="1">
+    <row r="544" spans="23:23">
       <c r="W544" s="7"/>
     </row>
-    <row r="545" spans="23:23" ht="14.25" customHeight="1">
+    <row r="545" spans="23:23">
       <c r="W545" s="7"/>
     </row>
-    <row r="546" spans="23:23" ht="14.25" customHeight="1">
+    <row r="546" spans="23:23">
       <c r="W546" s="7"/>
     </row>
-    <row r="547" spans="23:23" ht="14.25" customHeight="1">
+    <row r="547" spans="23:23">
       <c r="W547" s="7"/>
     </row>
-    <row r="548" spans="23:23" ht="14.25" customHeight="1">
+    <row r="548" spans="23:23">
       <c r="W548" s="7"/>
     </row>
-    <row r="549" spans="23:23" ht="14.25" customHeight="1">
+    <row r="549" spans="23:23">
       <c r="W549" s="7"/>
     </row>
-    <row r="550" spans="23:23" ht="14.25" customHeight="1">
+    <row r="550" spans="23:23">
       <c r="W550" s="7"/>
     </row>
-    <row r="551" spans="23:23" ht="14.25" customHeight="1">
+    <row r="551" spans="23:23">
       <c r="W551" s="7"/>
     </row>
-    <row r="552" spans="23:23" ht="14.25" customHeight="1">
+    <row r="552" spans="23:23">
       <c r="W552" s="7"/>
     </row>
-    <row r="553" spans="23:23" ht="14.25" customHeight="1">
+    <row r="553" spans="23:23">
       <c r="W553" s="7"/>
     </row>
-    <row r="554" spans="23:23" ht="14.25" customHeight="1">
+    <row r="554" spans="23:23">
       <c r="W554" s="7"/>
     </row>
-    <row r="555" spans="23:23" ht="14.25" customHeight="1">
+    <row r="555" spans="23:23">
       <c r="W555" s="7"/>
     </row>
-    <row r="556" spans="23:23" ht="14.25" customHeight="1">
+    <row r="556" spans="23:23">
       <c r="W556" s="7"/>
     </row>
-    <row r="557" spans="23:23" ht="14.25" customHeight="1">
+    <row r="557" spans="23:23">
       <c r="W557" s="7"/>
     </row>
-    <row r="558" spans="23:23" ht="14.25" customHeight="1">
+    <row r="558" spans="23:23">
       <c r="W558" s="7"/>
     </row>
-    <row r="559" spans="23:23" ht="14.25" customHeight="1">
+    <row r="559" spans="23:23">
       <c r="W559" s="7"/>
     </row>
-    <row r="560" spans="23:23" ht="14.25" customHeight="1">
+    <row r="560" spans="23:23">
       <c r="W560" s="7"/>
     </row>
-    <row r="561" spans="23:23" ht="14.25" customHeight="1">
+    <row r="561" spans="23:23">
       <c r="W561" s="7"/>
     </row>
-    <row r="562" spans="23:23" ht="14.25" customHeight="1">
+    <row r="562" spans="23:23">
       <c r="W562" s="7"/>
     </row>
-    <row r="563" spans="23:23" ht="14.25" customHeight="1">
+    <row r="563" spans="23:23">
       <c r="W563" s="7"/>
     </row>
-    <row r="564" spans="23:23" ht="14.25" customHeight="1">
+    <row r="564" spans="23:23">
       <c r="W564" s="7"/>
     </row>
-    <row r="565" spans="23:23" ht="14.25" customHeight="1">
+    <row r="565" spans="23:23">
       <c r="W565" s="7"/>
     </row>
-    <row r="566" spans="23:23" ht="14.25" customHeight="1">
+    <row r="566" spans="23:23">
       <c r="W566" s="7"/>
     </row>
-    <row r="567" spans="23:23" ht="14.25" customHeight="1">
+    <row r="567" spans="23:23">
       <c r="W567" s="7"/>
     </row>
-    <row r="568" spans="23:23" ht="14.25" customHeight="1">
+    <row r="568" spans="23:23">
       <c r="W568" s="7"/>
     </row>
-    <row r="569" spans="23:23" ht="14.25" customHeight="1">
+    <row r="569" spans="23:23">
       <c r="W569" s="7"/>
     </row>
-    <row r="570" spans="23:23" ht="14.25" customHeight="1">
+    <row r="570" spans="23:23">
       <c r="W570" s="7"/>
     </row>
-    <row r="571" spans="23:23" ht="14.25" customHeight="1">
+    <row r="571" spans="23:23">
       <c r="W571" s="7"/>
     </row>
-    <row r="572" spans="23:23" ht="14.25" customHeight="1">
+    <row r="572" spans="23:23">
       <c r="W572" s="7"/>
     </row>
-    <row r="573" spans="23:23" ht="14.25" customHeight="1">
+    <row r="573" spans="23:23">
       <c r="W573" s="7"/>
     </row>
-    <row r="574" spans="23:23" ht="14.25" customHeight="1">
+    <row r="574" spans="23:23">
       <c r="W574" s="7"/>
     </row>
-    <row r="575" spans="23:23" ht="14.25" customHeight="1">
+    <row r="575" spans="23:23">
       <c r="W575" s="7"/>
     </row>
-    <row r="576" spans="23:23" ht="14.25" customHeight="1">
+    <row r="576" spans="23:23">
       <c r="W576" s="7"/>
     </row>
-    <row r="577" spans="23:23" ht="14.25" customHeight="1">
+    <row r="577" spans="23:23">
       <c r="W577" s="7"/>
     </row>
-    <row r="578" spans="23:23" ht="14.25" customHeight="1">
+    <row r="578" spans="23:23">
       <c r="W578" s="7"/>
     </row>
-    <row r="579" spans="23:23" ht="14.25" customHeight="1">
+    <row r="579" spans="23:23">
       <c r="W579" s="7"/>
     </row>
-    <row r="580" spans="23:23" ht="14.25" customHeight="1">
+    <row r="580" spans="23:23">
       <c r="W580" s="7"/>
     </row>
-    <row r="581" spans="23:23" ht="14.25" customHeight="1">
+    <row r="581" spans="23:23">
       <c r="W581" s="7"/>
     </row>
-    <row r="582" spans="23:23" ht="14.25" customHeight="1">
+    <row r="582" spans="23:23">
       <c r="W582" s="7"/>
     </row>
-    <row r="583" spans="23:23" ht="14.25" customHeight="1">
+    <row r="583" spans="23:23">
       <c r="W583" s="7"/>
     </row>
-    <row r="584" spans="23:23" ht="14.25" customHeight="1">
+    <row r="584" spans="23:23">
       <c r="W584" s="7"/>
     </row>
-    <row r="585" spans="23:23" ht="14.25" customHeight="1">
+    <row r="585" spans="23:23">
       <c r="W585" s="7"/>
     </row>
-    <row r="586" spans="23:23" ht="14.25" customHeight="1">
+    <row r="586" spans="23:23">
       <c r="W586" s="7"/>
     </row>
-    <row r="587" spans="23:23" ht="14.25" customHeight="1">
+    <row r="587" spans="23:23">
       <c r="W587" s="7"/>
     </row>
-    <row r="588" spans="23:23" ht="14.25" customHeight="1">
+    <row r="588" spans="23:23">
       <c r="W588" s="7"/>
     </row>
-    <row r="589" spans="23:23" ht="14.25" customHeight="1">
+    <row r="589" spans="23:23">
       <c r="W589" s="7"/>
     </row>
-    <row r="590" spans="23:23" ht="14.25" customHeight="1">
+    <row r="590" spans="23:23">
       <c r="W590" s="7"/>
     </row>
-    <row r="591" spans="23:23" ht="14.25" customHeight="1">
+    <row r="591" spans="23:23">
       <c r="W591" s="7"/>
     </row>
-    <row r="592" spans="23:23" ht="14.25" customHeight="1">
+    <row r="592" spans="23:23">
       <c r="W592" s="7"/>
     </row>
-    <row r="593" spans="23:23" ht="14.25" customHeight="1">
+    <row r="593" spans="23:23">
       <c r="W593" s="7"/>
     </row>
-    <row r="594" spans="23:23" ht="14.25" customHeight="1">
+    <row r="594" spans="23:23">
       <c r="W594" s="7"/>
     </row>
-    <row r="595" spans="23:23" ht="14.25" customHeight="1">
+    <row r="595" spans="23:23">
       <c r="W595" s="7"/>
     </row>
-    <row r="596" spans="23:23" ht="14.25" customHeight="1">
+    <row r="596" spans="23:23">
       <c r="W596" s="7"/>
     </row>
-    <row r="597" spans="23:23" ht="14.25" customHeight="1">
+    <row r="597" spans="23:23">
       <c r="W597" s="7"/>
     </row>
-    <row r="598" spans="23:23" ht="14.25" customHeight="1">
+    <row r="598" spans="23:23">
       <c r="W598" s="7"/>
     </row>
-    <row r="599" spans="23:23" ht="14.25" customHeight="1">
+    <row r="599" spans="23:23">
       <c r="W599" s="7"/>
     </row>
-    <row r="600" spans="23:23" ht="14.25" customHeight="1">
+    <row r="600" spans="23:23">
       <c r="W600" s="7"/>
     </row>
-    <row r="601" spans="23:23" ht="14.25" customHeight="1">
+    <row r="601" spans="23:23">
       <c r="W601" s="7"/>
     </row>
-    <row r="602" spans="23:23" ht="14.25" customHeight="1">
+    <row r="602" spans="23:23">
       <c r="W602" s="7"/>
     </row>
-    <row r="603" spans="23:23" ht="14.25" customHeight="1">
+    <row r="603" spans="23:23">
       <c r="W603" s="7"/>
     </row>
-    <row r="604" spans="23:23" ht="14.25" customHeight="1">
+    <row r="604" spans="23:23">
       <c r="W604" s="7"/>
     </row>
-    <row r="605" spans="23:23" ht="14.25" customHeight="1">
+    <row r="605" spans="23:23">
       <c r="W605" s="7"/>
     </row>
-    <row r="606" spans="23:23" ht="14.25" customHeight="1">
+    <row r="606" spans="23:23">
       <c r="W606" s="7"/>
     </row>
-    <row r="607" spans="23:23" ht="14.25" customHeight="1">
+    <row r="607" spans="23:23">
       <c r="W607" s="7"/>
     </row>
-    <row r="608" spans="23:23" ht="14.25" customHeight="1">
+    <row r="608" spans="23:23">
       <c r="W608" s="7"/>
     </row>
-    <row r="609" spans="23:23" ht="14.25" customHeight="1">
+    <row r="609" spans="23:23">
       <c r="W609" s="7"/>
     </row>
-    <row r="610" spans="23:23" ht="14.25" customHeight="1">
+    <row r="610" spans="23:23">
       <c r="W610" s="7"/>
     </row>
-    <row r="611" spans="23:23" ht="14.25" customHeight="1">
+    <row r="611" spans="23:23">
       <c r="W611" s="7"/>
     </row>
-    <row r="612" spans="23:23" ht="14.25" customHeight="1">
+    <row r="612" spans="23:23">
       <c r="W612" s="7"/>
     </row>
-    <row r="613" spans="23:23" ht="14.25" customHeight="1">
+    <row r="613" spans="23:23">
       <c r="W613" s="7"/>
     </row>
-    <row r="614" spans="23:23" ht="14.25" customHeight="1">
+    <row r="614" spans="23:23">
       <c r="W614" s="7"/>
     </row>
-    <row r="615" spans="23:23" ht="14.25" customHeight="1">
+    <row r="615" spans="23:23">
       <c r="W615" s="7"/>
     </row>
-    <row r="616" spans="23:23" ht="14.25" customHeight="1">
+    <row r="616" spans="23:23">
       <c r="W616" s="7"/>
     </row>
-    <row r="617" spans="23:23" ht="14.25" customHeight="1">
+    <row r="617" spans="23:23">
       <c r="W617" s="7"/>
     </row>
-    <row r="618" spans="23:23" ht="14.25" customHeight="1">
+    <row r="618" spans="23:23">
       <c r="W618" s="7"/>
     </row>
-    <row r="619" spans="23:23" ht="14.25" customHeight="1">
+    <row r="619" spans="23:23">
       <c r="W619" s="7"/>
     </row>
-    <row r="620" spans="23:23" ht="14.25" customHeight="1">
+    <row r="620" spans="23:23">
       <c r="W620" s="7"/>
     </row>
-    <row r="621" spans="23:23" ht="14.25" customHeight="1">
+    <row r="621" spans="23:23">
       <c r="W621" s="7"/>
     </row>
-    <row r="622" spans="23:23" ht="14.25" customHeight="1">
+    <row r="622" spans="23:23">
       <c r="W622" s="7"/>
     </row>
-    <row r="623" spans="23:23" ht="14.25" customHeight="1">
+    <row r="623" spans="23:23">
       <c r="W623" s="7"/>
     </row>
-    <row r="624" spans="23:23" ht="14.25" customHeight="1">
+    <row r="624" spans="23:23">
       <c r="W624" s="7"/>
     </row>
-    <row r="625" spans="23:23" ht="14.25" customHeight="1">
+    <row r="625" spans="23:23">
       <c r="W625" s="7"/>
     </row>
-    <row r="626" spans="23:23" ht="14.25" customHeight="1">
+    <row r="626" spans="23:23">
       <c r="W626" s="7"/>
     </row>
-    <row r="627" spans="23:23" ht="14.25" customHeight="1">
+    <row r="627" spans="23:23">
       <c r="W627" s="7"/>
     </row>
-    <row r="628" spans="23:23" ht="14.25" customHeight="1"/>
-    <row r="629" spans="23:23" ht="14.25" customHeight="1"/>
-    <row r="630" spans="23:23" ht="14.25" customHeight="1"/>
-    <row r="631" spans="23:23" ht="14.25" customHeight="1"/>
-    <row r="632" spans="23:23" ht="14.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A9:W72" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <sortState ref="A10:W72">
@@ -14017,6 +14204,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -14274,28 +14482,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14314,31 +14526,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
